--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E121F-09C5-43E5-B0DA-5F801055CC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5208A86-E4B4-4BD7-B08A-CFAD00B09D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>search_radius</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Area5</t>
   </si>
   <si>
-    <t>MSPE winst</t>
-  </si>
-  <si>
     <t>area1</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>area5</t>
+  </si>
+  <si>
+    <t>Var gain</t>
+  </si>
+  <si>
+    <t>MSPE gain</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A2:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +516,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
@@ -1758,32 +1761,53 @@
       <c r="A15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>1</v>
       </c>
@@ -1802,8 +1826,26 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <f>B19+1</f>
         <v>2</v>
@@ -1828,8 +1870,32 @@
         <f>(AO3-AO4)/AO4</f>
         <v>4.7611854691151555E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K20" s="7">
+        <f>K19+1</f>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>(D4-D3)/D4</f>
+        <v>0.38045518591507943</v>
+      </c>
+      <c r="M20">
+        <f>(M4-M3)/M4</f>
+        <v>0.36911189693561969</v>
+      </c>
+      <c r="N20">
+        <f>(V4-V3)/V4</f>
+        <v>0.48164568193040896</v>
+      </c>
+      <c r="O20">
+        <f>(AE4-AE3)/AE4</f>
+        <v>0.28384609239213421</v>
+      </c>
+      <c r="P20">
+        <f>(AN4-AN3)/AN4</f>
+        <v>0.46133272232418193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -1839,11 +1905,11 @@
         <v>4.2144331508214401E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D29" si="2">(N4-N5)/N5</f>
+        <f t="shared" ref="D21:D28" si="2">(N4-N5)/N5</f>
         <v>3.2649899973051275E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E27" si="3">(W4-W5)/W5</f>
+        <f t="shared" ref="E21:E26" si="3">(W4-W5)/W5</f>
         <v>3.6736520176443722E-2</v>
       </c>
       <c r="F21">
@@ -1854,8 +1920,32 @@
         <f t="shared" ref="G21:G27" si="5">(AO4-AO5)/AO5</f>
         <v>2.5213045046201057E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K21" s="7">
+        <f t="shared" ref="K21:K28" si="6">K20+1</f>
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L29" si="7">(D5-D4)/D5</f>
+        <v>0.23283958127561596</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M29" si="8">(M5-M4)/M5</f>
+        <v>0.27801070556532237</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:N28" si="9">(V5-V4)/V5</f>
+        <v>0.2736952359242214</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O27" si="10">(AE5-AE4)/AE5</f>
+        <v>0.19492240494033339</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P27" si="11">(AN5-AN4)/AN5</f>
+        <v>0.17411054293837819</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1880,8 +1970,32 @@
         <f t="shared" si="5"/>
         <v>7.9589252993141936E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K22" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="7"/>
+        <v>5.3881894950582779E-2</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="8"/>
+        <v>0.17245850129795096</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>0.14833490880573796</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>0.11044150040530185</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="11"/>
+        <v>5.1509186544809536E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1906,8 +2020,32 @@
         <f t="shared" si="5"/>
         <v>7.0587164351196847E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K23" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>2.3361523333247512E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>3.6988391472760548E-2</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="9"/>
+        <v>5.3076514836404728E-2</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="10"/>
+        <v>7.8631833762555683E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="11"/>
+        <v>4.1202885363976427E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1932,8 +2070,32 @@
         <f t="shared" si="5"/>
         <v>7.7087189425912323E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K24" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>1.3243026612021392E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>2.0389622898705675E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>2.6092228735565427E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>4.9809811599688635E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="11"/>
+        <v>2.2188883851806486E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1958,8 +2120,32 @@
         <f t="shared" si="5"/>
         <v>3.4064334981933272E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K25" s="7">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>3.157600238569705E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>1.0433106573845856E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>2.7490908581258421E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>2.4619171460802149E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="11"/>
+        <v>3.0964747730479546E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1984,8 +2170,32 @@
         <f t="shared" si="5"/>
         <v>-1.0300863623402569E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K26" s="7">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>1.9607181039311805E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>1.540024369903897E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>1.7234303242695963E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>1.5147056185333664E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>5.3596699629129985E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2010,8 +2220,32 @@
         <f t="shared" si="5"/>
         <v>-8.4126227983984559E-4</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K27" s="7">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>3.0577270328409779E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>1.5906355685431015E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>1.953926340985198E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>1.63781536847009E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>2.6292417678584219E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2024,8 +2258,20 @@
         <f t="shared" si="2"/>
         <v>-2.1175184504315988E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K28" s="7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>3.0169196535939607E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>1.8953615935955504E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <f>B28+1</f>
         <v>11</v>
@@ -2038,8 +2284,20 @@
         <f>(N12-N13)/N13</f>
         <v>-5.371379238602571E-4</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K29" s="7">
+        <f>K28+1</f>
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <f>(D13-D12)/D13</f>
+        <v>1.0484761734642222E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>6.4671248235285885E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>12</v>
       </c>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5208A86-E4B4-4BD7-B08A-CFAD00B09D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BC744-560B-476F-8AB2-5741BFB499D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -186,6 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -503,7 +504,7 @@
   <dimension ref="A2:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1901,47 +1902,47 @@
         <v>3</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ref="C21:C30" si="1">(E4-E5)/E5</f>
+        <f>(E4-E5)/E5</f>
         <v>4.2144331508214401E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D28" si="2">(N4-N5)/N5</f>
+        <f t="shared" ref="D21:D28" si="1">(N4-N5)/N5</f>
         <v>3.2649899973051275E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E26" si="3">(W4-W5)/W5</f>
+        <f t="shared" ref="E21:E26" si="2">(W4-W5)/W5</f>
         <v>3.6736520176443722E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="4">(AF4-AF5)/AF5</f>
+        <f t="shared" ref="F21:F27" si="3">(AF4-AF5)/AF5</f>
         <v>1.7833844589562605E-2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:G27" si="5">(AO4-AO5)/AO5</f>
+        <f t="shared" ref="G21:G27" si="4">(AO4-AO5)/AO5</f>
         <v>2.5213045046201057E-2</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" ref="K21:K28" si="6">K20+1</f>
+        <f t="shared" ref="K21:K28" si="5">K20+1</f>
         <v>3</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L29" si="7">(D5-D4)/D5</f>
+        <f t="shared" ref="L21:L28" si="6">(D5-D4)/D5</f>
         <v>0.23283958127561596</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M29" si="8">(M5-M4)/M5</f>
+        <f t="shared" ref="M21:M29" si="7">(M5-M4)/M5</f>
         <v>0.27801070556532237</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N28" si="9">(V5-V4)/V5</f>
+        <f t="shared" ref="N21:N27" si="8">(V5-V4)/V5</f>
         <v>0.2736952359242214</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O27" si="10">(AE5-AE4)/AE5</f>
+        <f t="shared" ref="O21:O27" si="9">(AE5-AE4)/AE5</f>
         <v>0.19492240494033339</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P27" si="11">(AN5-AN4)/AN5</f>
+        <f t="shared" ref="P21:P27" si="10">(AN5-AN4)/AN5</f>
         <v>0.17411054293837819</v>
       </c>
     </row>
@@ -1951,47 +1952,47 @@
         <v>4</v>
       </c>
       <c r="C22">
+        <f t="shared" ref="C21:C30" si="11">(E5-E6)/E6</f>
+        <v>7.7433589669236276E-3</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="1"/>
-        <v>7.7433589669236276E-3</v>
-      </c>
-      <c r="D22" s="5">
+        <v>1.6114694452675434E-2</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>1.6114694452675434E-2</v>
-      </c>
-      <c r="E22" s="5">
+        <v>2.1365822971502232E-2</v>
+      </c>
+      <c r="F22" s="8">
         <f t="shared" si="3"/>
-        <v>2.1365822971502232E-2</v>
-      </c>
-      <c r="F22">
+        <v>2.0402426859979297E-2</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="4"/>
-        <v>2.0402426859979297E-2</v>
-      </c>
-      <c r="G22">
+        <v>7.9589252993141936E-3</v>
+      </c>
+      <c r="K22" s="7">
         <f t="shared" si="5"/>
-        <v>7.9589252993141936E-3</v>
-      </c>
-      <c r="K22" s="7">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="L22" s="5">
+        <v>5.3881894950582779E-2</v>
+      </c>
+      <c r="M22" s="5">
         <f t="shared" si="7"/>
-        <v>5.3881894950582779E-2</v>
-      </c>
-      <c r="M22" s="5">
+        <v>0.17245850129795096</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="8"/>
-        <v>0.17245850129795096</v>
-      </c>
-      <c r="N22">
+        <v>0.14833490880573796</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="9"/>
-        <v>0.14833490880573796</v>
-      </c>
-      <c r="O22">
+        <v>0.11044150040530185</v>
+      </c>
+      <c r="P22" s="5">
         <f t="shared" si="10"/>
-        <v>0.11044150040530185</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="11"/>
         <v>5.1509186544809536E-2</v>
       </c>
     </row>
@@ -2001,47 +2002,47 @@
         <v>5</v>
       </c>
       <c r="C23">
+        <f t="shared" si="11"/>
+        <v>5.1385642719050367E-3</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="1"/>
-        <v>5.1385642719050367E-3</v>
-      </c>
-      <c r="D23">
+        <v>3.5760847908049933E-3</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="2"/>
-        <v>3.5760847908049933E-3</v>
-      </c>
-      <c r="E23">
+        <v>7.7913150191800109E-3</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>7.7913150191800109E-3</v>
-      </c>
-      <c r="F23" s="5">
+        <v>1.5193333386285856E-2</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="4"/>
-        <v>1.5193333386285856E-2</v>
-      </c>
-      <c r="G23">
+        <v>7.0587164351196847E-3</v>
+      </c>
+      <c r="K23" s="7">
         <f t="shared" si="5"/>
-        <v>7.0587164351196847E-3</v>
-      </c>
-      <c r="K23" s="7">
+        <v>5</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L23">
+        <v>2.3361523333247512E-2</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="7"/>
-        <v>2.3361523333247512E-2</v>
-      </c>
-      <c r="M23">
+        <v>3.6988391472760548E-2</v>
+      </c>
+      <c r="N23" s="5">
         <f t="shared" si="8"/>
-        <v>3.6988391472760548E-2</v>
-      </c>
-      <c r="N23" s="5">
+        <v>5.3076514836404728E-2</v>
+      </c>
+      <c r="O23" s="5">
         <f t="shared" si="9"/>
-        <v>5.3076514836404728E-2</v>
-      </c>
-      <c r="O23" s="5">
+        <v>7.8631833762555683E-2</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="10"/>
-        <v>7.8631833762555683E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="11"/>
         <v>4.1202885363976427E-2</v>
       </c>
     </row>
@@ -2051,47 +2052,47 @@
         <v>6</v>
       </c>
       <c r="C24">
+        <f t="shared" si="11"/>
+        <v>2.8945893346874569E-3</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="1"/>
-        <v>2.8945893346874569E-3</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
         <v>1.1607574339540987E-3</v>
       </c>
       <c r="E24">
+        <f>(W7-W8)/W8</f>
+        <v>-1.9898481980466314E-3</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="3"/>
-        <v>-1.9898481980466314E-3</v>
-      </c>
-      <c r="F24">
+        <v>4.3024646670208142E-3</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="4"/>
-        <v>4.3024646670208142E-3</v>
-      </c>
-      <c r="G24">
+        <v>7.7087189425912323E-3</v>
+      </c>
+      <c r="K24" s="7">
         <f t="shared" si="5"/>
-        <v>7.7087189425912323E-3</v>
-      </c>
-      <c r="K24" s="7">
+        <v>6</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="L24">
+        <v>1.3243026612021392E-2</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="7"/>
-        <v>1.3243026612021392E-2</v>
-      </c>
-      <c r="M24">
+        <v>2.0389622898705675E-2</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="8"/>
-        <v>2.0389622898705675E-2</v>
-      </c>
-      <c r="N24">
+        <v>2.6092228735565427E-2</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="9"/>
-        <v>2.6092228735565427E-2</v>
-      </c>
-      <c r="O24">
+        <v>4.9809811599688635E-2</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="10"/>
-        <v>4.9809811599688635E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="11"/>
         <v>2.2188883851806486E-2</v>
       </c>
     </row>
@@ -2101,47 +2102,47 @@
         <v>7</v>
       </c>
       <c r="C25">
+        <f t="shared" si="11"/>
+        <v>6.199667963209309E-3</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="1"/>
-        <v>6.199667963209309E-3</v>
-      </c>
-      <c r="D25">
+        <v>8.0743719944705147E-4</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="2"/>
-        <v>8.0743719944705147E-4</v>
-      </c>
-      <c r="E25">
+        <v>2.9357900937411921E-3</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="3"/>
-        <v>2.9357900937411921E-3</v>
-      </c>
-      <c r="F25">
+        <v>3.2260192925071193E-3</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="4"/>
-        <v>3.2260192925071193E-3</v>
-      </c>
-      <c r="G25">
+        <v>3.4064334981933272E-3</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="5"/>
-        <v>3.4064334981933272E-3</v>
-      </c>
-      <c r="K25" s="7">
+        <v>7</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="L25">
+        <v>3.157600238569705E-2</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="7"/>
-        <v>3.157600238569705E-2</v>
-      </c>
-      <c r="M25">
+        <v>1.0433106573845856E-2</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="8"/>
-        <v>1.0433106573845856E-2</v>
-      </c>
-      <c r="N25">
+        <v>2.7490908581258421E-2</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="9"/>
-        <v>2.7490908581258421E-2</v>
-      </c>
-      <c r="O25">
+        <v>2.4619171460802149E-2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="10"/>
-        <v>2.4619171460802149E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="11"/>
         <v>3.0964747730479546E-2</v>
       </c>
     </row>
@@ -2151,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2.9618205069733062E-3</v>
       </c>
       <c r="D26">
@@ -2159,39 +2160,39 @@
         <v>2.2002693776994154E-4</v>
       </c>
       <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1.9156760073646192E-3</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="3"/>
-        <v>1.9156760073646192E-3</v>
-      </c>
-      <c r="F26">
+        <v>1.3897486619202186E-3</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="4"/>
-        <v>1.3897486619202186E-3</v>
-      </c>
-      <c r="G26">
+        <v>-1.0300863623402569E-3</v>
+      </c>
+      <c r="K26" s="7">
         <f t="shared" si="5"/>
-        <v>-1.0300863623402569E-3</v>
-      </c>
-      <c r="K26" s="7">
+        <v>8</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="L26">
+        <v>1.9607181039311805E-2</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="7"/>
-        <v>1.9607181039311805E-2</v>
-      </c>
-      <c r="M26">
+        <v>1.540024369903897E-2</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="8"/>
-        <v>1.540024369903897E-2</v>
-      </c>
-      <c r="N26">
+        <v>1.7234303242695963E-2</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="9"/>
-        <v>1.7234303242695963E-2</v>
-      </c>
-      <c r="O26">
+        <v>1.5147056185333664E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="10"/>
-        <v>1.5147056185333664E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="11"/>
         <v>5.3596699629129985E-3</v>
       </c>
     </row>
@@ -2201,11 +2202,11 @@
         <v>9</v>
       </c>
       <c r="C27">
+        <f t="shared" si="11"/>
+        <v>5.3172350646910373E-3</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="1"/>
-        <v>5.3172350646910373E-3</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
         <v>1.6033648589739589E-3</v>
       </c>
       <c r="E27">
@@ -2213,35 +2214,35 @@
         <v>4.0596387129135372E-3</v>
       </c>
       <c r="F27">
+        <f t="shared" si="3"/>
+        <v>3.1942068917472966E-4</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="4"/>
-        <v>3.1942068917472966E-4</v>
-      </c>
-      <c r="G27">
+        <v>-8.4126227983984559E-4</v>
+      </c>
+      <c r="K27" s="7">
         <f t="shared" si="5"/>
-        <v>-8.4126227983984559E-4</v>
-      </c>
-      <c r="K27" s="7">
+        <v>9</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="L27">
+        <v>3.0577270328409779E-2</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="7"/>
-        <v>3.0577270328409779E-2</v>
-      </c>
-      <c r="M27">
+        <v>1.5906355685431015E-2</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="8"/>
-        <v>1.5906355685431015E-2</v>
-      </c>
-      <c r="N27">
+        <v>1.953926340985198E-2</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="9"/>
-        <v>1.953926340985198E-2</v>
-      </c>
-      <c r="O27">
+        <v>1.63781536847009E-2</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="10"/>
-        <v>1.63781536847009E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="11"/>
         <v>2.6292417678584219E-3</v>
       </c>
     </row>
@@ -2251,23 +2252,23 @@
         <v>10</v>
       </c>
       <c r="C28">
+        <f t="shared" si="11"/>
+        <v>-2.2420666942173256E-3</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="1"/>
-        <v>-2.2420666942173256E-3</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
         <v>-2.1175184504315988E-3</v>
       </c>
       <c r="K28" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="L28">
+        <v>3.0169196535939607E-2</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="7"/>
-        <v>3.0169196535939607E-2</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="8"/>
         <v>1.8953615935955504E-2</v>
       </c>
     </row>
@@ -2277,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-2.7644467256582078E-4</v>
       </c>
       <c r="D29">
@@ -2293,7 +2294,7 @@
         <v>1.0484761734642222E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.4671248235285885E-3</v>
       </c>
     </row>
@@ -2302,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-4.1828682202712294E-4</v>
       </c>
       <c r="D30">

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BC744-560B-476F-8AB2-5741BFB499D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D967B977-7C6F-47DD-B097-C10D2B3BD5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>search_radius</t>
   </si>
@@ -91,6 +91,12 @@
   <si>
     <t>MSPE gain</t>
   </si>
+  <si>
+    <t>Area6</t>
+  </si>
+  <si>
+    <t>area6</t>
+  </si>
 </sst>
 </file>
 
@@ -116,6 +122,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -171,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -187,6 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -501,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
-  <dimension ref="A2:AR30"/>
+  <dimension ref="A2:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,33 +523,34 @@
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -566,104 +575,130 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -685,92 +720,113 @@
       <c r="H3">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>120000</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
+        <v>120000</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>0.39491143442855758</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>6.0285014769553769</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1.0685</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S3" s="3">
+      <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>110000</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>0.36459018754402273</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>6.1438955477063422</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.88319999999999999</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AD3" s="3">
         <v>0</v>
       </c>
-      <c r="AC3">
-        <v>120000</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
       <c r="AE3">
+        <v>120000</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>0.64991128430044143</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>6.0323198851388042</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0.8921</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AM3" s="3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <v>120000</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
       <c r="AN3">
+        <v>120000</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>0.75595094841089239</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>7.7175410709132573</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>0.82399999999999995</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>100000</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0.50256551695889551</v>
+      </c>
+      <c r="AZ3">
+        <v>4.3907664578498364</v>
+      </c>
+      <c r="BA3">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="BC3">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -792,92 +848,113 @@
       <c r="H4">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>120000</v>
-      </c>
-      <c r="L4">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>120000</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.62596113718165647</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>5.8099602047498031</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.7035</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4">
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>110000</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.70336095376189212</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>5.7903831262195222</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>1.6785000000000001</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>120000</v>
-      </c>
-      <c r="AD4">
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>120000</v>
+      </c>
+      <c r="AF4">
         <v>2</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0.90750225251344174</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>5.9114698041383358</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>1.8169</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>120000</v>
-      </c>
-      <c r="AM4">
+      <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>120000</v>
+      </c>
+      <c r="AO4">
         <v>2</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>1.403372693571783</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>7.366794329745801</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>1.1830000000000001</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>100000</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>0.66280653499284425</v>
+      </c>
+      <c r="AZ4">
+        <v>4.1682045684297524</v>
+      </c>
+      <c r="BA4">
+        <v>1.3001</v>
+      </c>
+      <c r="BC4">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -899,92 +976,113 @@
       <c r="H5">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>120000</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>120000</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.86699503996356087</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>5.6262632717065326</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>2.2965</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>110000</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>3</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.96841021641503011</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>5.5852022317435566</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>2.1185</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AD5" s="3">
         <v>2</v>
       </c>
-      <c r="AC5">
-        <v>120000</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <v>120000</v>
+      </c>
+      <c r="AF5">
         <v>3</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>1.1272233360887209</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>5.8078927474868083</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>2.2282000000000002</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AM5" s="3">
         <v>2</v>
       </c>
-      <c r="AL5">
-        <v>120000</v>
-      </c>
-      <c r="AM5">
+      <c r="AN5">
+        <v>120000</v>
+      </c>
+      <c r="AO5">
         <v>3</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>1.699225824439933</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>7.1856228959843342</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>1.98</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>100000</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>0.7423871310519472</v>
+      </c>
+      <c r="AZ5">
+        <v>4.1756774911279919</v>
+      </c>
+      <c r="BA5">
+        <v>1.4114</v>
+      </c>
+      <c r="BC5">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1006,92 +1104,113 @@
       <c r="H6">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>120000</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>120000</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>1.047675604574988</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>5.5370356342864309</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>2.7370000000000001</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>3</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>110000</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>4</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>1.137078678494454</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>5.4683660899228981</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>2.6534</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AD6" s="3">
         <v>3</v>
       </c>
-      <c r="AC6">
-        <v>120000</v>
-      </c>
-      <c r="AD6">
+      <c r="AE6">
+        <v>120000</v>
+      </c>
+      <c r="AF6">
         <v>4</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>1.267171677413355</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>5.6917668898133398</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>2.6597</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AM6" s="3">
         <v>3</v>
       </c>
-      <c r="AL6">
-        <v>120000</v>
-      </c>
-      <c r="AM6">
+      <c r="AN6">
+        <v>120000</v>
+      </c>
+      <c r="AO6">
         <v>4</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>1.791504778259204</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>7.1288846357013584</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>2.4990000000000001</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>100000</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>0.7628781440870358</v>
+      </c>
+      <c r="AZ6">
+        <v>4.155595433770622</v>
+      </c>
+      <c r="BA6">
+        <v>1.6114999999999999</v>
+      </c>
+      <c r="BC6">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1113,92 +1232,113 @@
       <c r="H7">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>4</v>
       </c>
-      <c r="K7">
-        <v>120000</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>120000</v>
+      </c>
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.0879158623822069</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>5.5173052827784588</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>3.0518000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>4</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>110000</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>1.2008136837983341</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>5.4260897156261221</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>2.9961000000000002</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AD7" s="3">
         <v>4</v>
       </c>
-      <c r="AC7">
-        <v>120000</v>
-      </c>
-      <c r="AD7">
+      <c r="AE7">
+        <v>120000</v>
+      </c>
+      <c r="AF7">
         <v>5</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>1.3753152364575989</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>5.6065841871004443</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>2.9632000000000001</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AM7" s="3">
         <v>4</v>
       </c>
-      <c r="AL7">
-        <v>120000</v>
-      </c>
-      <c r="AM7">
+      <c r="AN7">
+        <v>120000</v>
+      </c>
+      <c r="AO7">
         <v>5</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>1.8684920416550179</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>7.0789165709590884</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>2.9329999999999998</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV7" s="3">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>100000</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>0.78330413927710496</v>
+      </c>
+      <c r="AZ7">
+        <v>4.1342699472783684</v>
+      </c>
+      <c r="BA7">
+        <v>1.8039000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1220,92 +1360,113 @@
       <c r="H8">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5</v>
       </c>
-      <c r="K8">
-        <v>120000</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>120000</v>
+      </c>
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.1105597570346211</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>5.510908454821684</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>3.2576999999999998</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>110000</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>6</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>1.232985010725713</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>5.4369083378852077</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>3.3062</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>5</v>
       </c>
-      <c r="AC8">
-        <v>120000</v>
-      </c>
-      <c r="AD8">
+      <c r="AE8">
+        <v>120000</v>
+      </c>
+      <c r="AF8">
         <v>6</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>1.4474104797619569</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>5.5825653967296818</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>3.2233000000000001</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AM8" s="3">
         <v>5</v>
       </c>
-      <c r="AL8">
-        <v>120000</v>
-      </c>
-      <c r="AM8">
+      <c r="AN8">
+        <v>120000</v>
+      </c>
+      <c r="AO8">
         <v>6</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>1.9108926159639159</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>7.0247646347519312</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>3.246</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW8">
+        <v>100000</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>0.78911886350317517</v>
+      </c>
+      <c r="AZ8">
+        <v>4.1311647529014728</v>
+      </c>
+      <c r="BA8">
+        <v>1.9571000000000001</v>
+      </c>
+      <c r="BC8">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1327,92 +1488,113 @@
       <c r="H9">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>120000</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>120000</v>
+      </c>
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1.122268503940705</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>5.5064623322972333</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>3.4681999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>110000</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>7</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>1.2678390583752559</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>5.4209934390486127</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>3.4356</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>6</v>
       </c>
-      <c r="AC9">
-        <v>120000</v>
-      </c>
-      <c r="AD9">
+      <c r="AE9">
+        <v>120000</v>
+      </c>
+      <c r="AF9">
         <v>7</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>1.483943950312931</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>5.5646138451100047</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>3.4306000000000001</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AM9" s="3">
         <v>6</v>
       </c>
-      <c r="AL9">
-        <v>120000</v>
-      </c>
-      <c r="AM9">
+      <c r="AN9">
+        <v>120000</v>
+      </c>
+      <c r="AO9">
         <v>7</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>1.9719536636964721</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>7.0009164783420532</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>3.3266</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AW9">
+        <v>100000</v>
+      </c>
+      <c r="AX9">
+        <v>7</v>
+      </c>
+      <c r="AY9">
+        <v>0.80458143034257912</v>
+      </c>
+      <c r="AZ9">
+        <v>4.1216865389879196</v>
+      </c>
+      <c r="BA9">
+        <v>2.0281799999999999</v>
+      </c>
+      <c r="BC9">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1434,92 +1616,113 @@
       <c r="H10">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7</v>
       </c>
-      <c r="K10">
-        <v>120000</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>120000</v>
+      </c>
+      <c r="N10">
         <v>8</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>1.139822041147919</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>5.5052510287717178</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>3.6637</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>110000</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>8</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>1.290072560080769</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>5.4106284279843582</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>3.5779999999999998</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>7</v>
       </c>
-      <c r="AC10">
-        <v>120000</v>
-      </c>
-      <c r="AD10">
+      <c r="AE10">
+        <v>120000</v>
+      </c>
+      <c r="AF10">
         <v>8</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>1.506767035254134</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>5.5568911630517173</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>3.5274999999999999</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AM10" s="3">
         <v>7</v>
       </c>
-      <c r="AL10">
-        <v>120000</v>
-      </c>
-      <c r="AM10">
+      <c r="AN10">
+        <v>120000</v>
+      </c>
+      <c r="AO10">
         <v>8</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>1.9825796362218131</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>7.0081354631080339</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>3.4296000000000002</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV10" s="3">
+        <v>7</v>
+      </c>
+      <c r="AW10">
+        <v>100000</v>
+      </c>
+      <c r="AX10">
+        <v>8</v>
+      </c>
+      <c r="AY10">
+        <v>0.80717531674573884</v>
+      </c>
+      <c r="AZ10">
+        <v>4.1208121840796119</v>
+      </c>
+      <c r="BA10">
+        <v>2.1436799999999998</v>
+      </c>
+      <c r="BC10">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1541,92 +1744,113 @@
       <c r="H11">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3">
         <v>8</v>
       </c>
-      <c r="K11">
-        <v>120000</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>120000</v>
+      </c>
+      <c r="N11">
         <v>9</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1.158245506139628</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>5.4964382328596297</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>3.7709999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>6.0233667672184268</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
         <v>8</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>110000</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>9</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>1.315781970594142</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>5.3887520415820598</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>3.6839</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AD11" s="3">
         <v>8</v>
       </c>
-      <c r="AC11">
-        <v>120000</v>
-      </c>
-      <c r="AD11">
+      <c r="AE11">
+        <v>120000</v>
+      </c>
+      <c r="AF11">
         <v>9</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>1.531856008382251</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>5.5551167438329561</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>3.6011199999999999</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>6.657481653811705</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AM11" s="3">
         <v>8</v>
       </c>
-      <c r="AL11">
-        <v>120000</v>
-      </c>
-      <c r="AM11">
+      <c r="AN11">
+        <v>120000</v>
+      </c>
+      <c r="AO11">
         <v>9</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>1.9878060589383759</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>7.014036107114384</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>3.5177</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>8.4078995600273103</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AV11" s="3">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>100000</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
+      </c>
+      <c r="AY11">
+        <v>0.81501240390430063</v>
+      </c>
+      <c r="AZ11">
+        <v>4.112520540372838</v>
+      </c>
+      <c r="BA11">
+        <v>2.19781</v>
+      </c>
+      <c r="BC11">
+        <v>4.7976927628955961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1648,29 +1872,29 @@
       <c r="H12">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9</v>
       </c>
-      <c r="K12">
-        <v>120000</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>120000</v>
+      </c>
+      <c r="N12">
         <v>10</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1.1806225729526929</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>5.5081017399207663</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>3.7709999999999999</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>6.0233667672184268</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1692,29 +1916,29 @@
       <c r="H13">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>120000</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>120000</v>
+      </c>
+      <c r="N13">
         <v>11</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.1883075059222279</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>5.5110619402896388</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>3.7709999999999999</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>6.0233667672184268</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1736,41 +1960,41 @@
       <c r="H14">
         <v>4.2466474594880381</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>11</v>
       </c>
-      <c r="K14">
-        <v>120000</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>120000</v>
+      </c>
+      <c r="N14">
         <v>12</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>1.1904028977478971</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>5.5124143609665222</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>3.7709999999999999</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>6.0233667672184268</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1789,26 +2013,29 @@
       <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="H18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>1</v>
       </c>
@@ -1827,13 +2054,10 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19">
@@ -1845,8 +2069,14 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <f>B19+1</f>
         <v>2</v>
@@ -1856,47 +2086,51 @@
         <v>4.5509250367614655E-2</v>
       </c>
       <c r="D20">
-        <f>(N3-N4)/N4</f>
+        <f>(P3-P4)/P4</f>
         <v>3.7614934440843538E-2</v>
       </c>
       <c r="E20">
-        <f>(W3-W4)/W4</f>
+        <f>(Y3-Y4)/Y4</f>
         <v>6.1051646114067125E-2</v>
       </c>
       <c r="F20">
-        <f>(AF3-AF4)/AF4</f>
+        <f>(AH3-AH4)/AH4</f>
         <v>2.0443322050950362E-2</v>
       </c>
       <c r="G20">
-        <f>(AO3-AO4)/AO4</f>
+        <f>(AQ3-AQ4)/AQ4</f>
         <v>4.7611854691151555E-2</v>
       </c>
-      <c r="K20" s="7">
-        <f>K19+1</f>
+      <c r="H20" s="5">
+        <f>(AZ3-AZ4)/AZ4</f>
+        <v>5.3395145503601721E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <f>M19+1</f>
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <f>(D4-D3)/D4</f>
         <v>0.38045518591507943</v>
       </c>
-      <c r="M20">
-        <f>(M4-M3)/M4</f>
+      <c r="O20">
+        <f>(O4-O3)/O4</f>
         <v>0.36911189693561969</v>
       </c>
-      <c r="N20">
-        <f>(V4-V3)/V4</f>
+      <c r="P20">
+        <f>(X4-X3)/X4</f>
         <v>0.48164568193040896</v>
       </c>
-      <c r="O20">
-        <f>(AE4-AE3)/AE4</f>
+      <c r="Q20">
+        <f>(AG4-AG3)/AG4</f>
         <v>0.28384609239213421</v>
       </c>
-      <c r="P20">
-        <f>(AN4-AN3)/AN4</f>
+      <c r="R20">
+        <f>(AP4-AP3)/AP4</f>
         <v>0.46133272232418193</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -1906,53 +2140,57 @@
         <v>4.2144331508214401E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D28" si="1">(N4-N5)/N5</f>
+        <f t="shared" ref="D21:D28" si="1">(P4-P5)/P5</f>
         <v>3.2649899973051275E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E26" si="2">(W4-W5)/W5</f>
+        <f t="shared" ref="E21:E26" si="2">(Y4-Y5)/Y5</f>
         <v>3.6736520176443722E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="3">(AF4-AF5)/AF5</f>
+        <f t="shared" ref="F21:F27" si="3">(AH4-AH5)/AH5</f>
         <v>1.7833844589562605E-2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:G27" si="4">(AO4-AO5)/AO5</f>
+        <f t="shared" ref="G21:G27" si="4">(AQ4-AQ5)/AQ5</f>
         <v>2.5213045046201057E-2</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" ref="K21:K28" si="5">K20+1</f>
+      <c r="H21">
+        <f t="shared" ref="H21:H27" si="5">(AZ4-AZ5)/AZ5</f>
+        <v>-1.7896311949658797E-3</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" ref="M21:M28" si="6">M20+1</f>
         <v>3</v>
       </c>
-      <c r="L21">
-        <f t="shared" ref="L21:L28" si="6">(D5-D4)/D5</f>
+      <c r="N21">
+        <f t="shared" ref="N21:N28" si="7">(D5-D4)/D5</f>
         <v>0.23283958127561596</v>
       </c>
-      <c r="M21">
-        <f t="shared" ref="M21:M29" si="7">(M5-M4)/M5</f>
+      <c r="O21">
+        <f t="shared" ref="O21:O29" si="8">(O5-O4)/O5</f>
         <v>0.27801070556532237</v>
       </c>
-      <c r="N21">
-        <f t="shared" ref="N21:N27" si="8">(V5-V4)/V5</f>
+      <c r="P21">
+        <f t="shared" ref="P21:P27" si="9">(X5-X4)/X5</f>
         <v>0.2736952359242214</v>
       </c>
-      <c r="O21">
-        <f t="shared" ref="O21:O27" si="9">(AE5-AE4)/AE5</f>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q27" si="10">(AG5-AG4)/AG5</f>
         <v>0.19492240494033339</v>
       </c>
-      <c r="P21">
-        <f t="shared" ref="P21:P27" si="10">(AN5-AN4)/AN5</f>
+      <c r="R21">
+        <f t="shared" ref="R21:R27" si="11">(AP5-AP4)/AP5</f>
         <v>0.17411054293837819</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C21:C30" si="11">(E5-E6)/E6</f>
+        <f t="shared" ref="C22:C30" si="12">(E5-E6)/E6</f>
         <v>7.7433589669236276E-3</v>
       </c>
       <c r="D22" s="5">
@@ -1971,38 +2209,42 @@
         <f t="shared" si="4"/>
         <v>7.9589252993141936E-3</v>
       </c>
-      <c r="K22" s="7">
+      <c r="H22">
         <f t="shared" si="5"/>
+        <v>4.8325342727475852E-3</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L22" s="5">
-        <f t="shared" si="6"/>
+      <c r="N22" s="5">
+        <f t="shared" si="7"/>
         <v>5.3881894950582779E-2</v>
       </c>
-      <c r="M22" s="5">
-        <f t="shared" si="7"/>
+      <c r="O22" s="5">
+        <f t="shared" si="8"/>
         <v>0.17245850129795096</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="8"/>
+      <c r="P22">
+        <f t="shared" si="9"/>
         <v>0.14833490880573796</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="9"/>
+      <c r="Q22">
+        <f t="shared" si="10"/>
         <v>0.11044150040530185</v>
       </c>
-      <c r="P22" s="5">
-        <f t="shared" si="10"/>
+      <c r="R22" s="5">
+        <f t="shared" si="11"/>
         <v>5.1509186544809536E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1385642719050367E-3</v>
       </c>
       <c r="D23">
@@ -2021,38 +2263,42 @@
         <f t="shared" si="4"/>
         <v>7.0587164351196847E-3</v>
       </c>
-      <c r="K23" s="7">
+      <c r="H23">
         <f t="shared" si="5"/>
+        <v>5.1582230391831125E-3</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="6"/>
+      <c r="N23">
+        <f t="shared" si="7"/>
         <v>2.3361523333247512E-2</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="7"/>
+      <c r="O23">
+        <f t="shared" si="8"/>
         <v>3.6988391472760548E-2</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" si="8"/>
+      <c r="P23" s="5">
+        <f t="shared" si="9"/>
         <v>5.3076514836404728E-2</v>
       </c>
-      <c r="O23" s="5">
-        <f t="shared" si="9"/>
+      <c r="Q23" s="5">
+        <f t="shared" si="10"/>
         <v>7.8631833762555683E-2</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="10"/>
+      <c r="R23">
+        <f t="shared" si="11"/>
         <v>4.1202885363976427E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8945893346874569E-3</v>
       </c>
       <c r="D24">
@@ -2060,7 +2306,7 @@
         <v>1.1607574339540987E-3</v>
       </c>
       <c r="E24">
-        <f>(W7-W8)/W8</f>
+        <f>(Y7-Y8)/Y8</f>
         <v>-1.9898481980466314E-3</v>
       </c>
       <c r="F24">
@@ -2071,38 +2317,42 @@
         <f t="shared" si="4"/>
         <v>7.7087189425912323E-3</v>
       </c>
-      <c r="K24" s="7">
+      <c r="H24">
         <f t="shared" si="5"/>
+        <v>7.5165106274561154E-4</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="6"/>
+      <c r="N24">
+        <f t="shared" si="7"/>
         <v>1.3243026612021392E-2</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="7"/>
+      <c r="O24">
+        <f t="shared" si="8"/>
         <v>2.0389622898705675E-2</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="8"/>
+      <c r="P24">
+        <f t="shared" si="9"/>
         <v>2.6092228735565427E-2</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="9"/>
+      <c r="Q24">
+        <f t="shared" si="10"/>
         <v>4.9809811599688635E-2</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="10"/>
+      <c r="R24">
+        <f t="shared" si="11"/>
         <v>2.2188883851806486E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.199667963209309E-3</v>
       </c>
       <c r="D25">
@@ -2121,42 +2371,46 @@
         <f t="shared" si="4"/>
         <v>3.4064334981933272E-3</v>
       </c>
-      <c r="K25" s="7">
+      <c r="H25">
         <f t="shared" si="5"/>
+        <v>2.2995960085505597E-3</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="6"/>
+      <c r="N25">
+        <f t="shared" si="7"/>
         <v>3.157600238569705E-2</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="7"/>
+      <c r="O25">
+        <f t="shared" si="8"/>
         <v>1.0433106573845856E-2</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="8"/>
+      <c r="P25">
+        <f t="shared" si="9"/>
         <v>2.7490908581258421E-2</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="9"/>
+      <c r="Q25">
+        <f t="shared" si="10"/>
         <v>2.4619171460802149E-2</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="10"/>
+      <c r="R25">
+        <f t="shared" si="11"/>
         <v>3.0964747730479546E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9618205069733062E-3</v>
       </c>
       <c r="D26">
-        <f>(N9-N10)/N10</f>
+        <f>(P9-P10)/P10</f>
         <v>2.2002693776994154E-4</v>
       </c>
       <c r="E26">
@@ -2171,38 +2425,42 @@
         <f t="shared" si="4"/>
         <v>-1.0300863623402569E-3</v>
       </c>
-      <c r="K26" s="7">
+      <c r="H26">
         <f t="shared" si="5"/>
+        <v>2.1218023759628373E-4</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="6"/>
+      <c r="N26">
+        <f t="shared" si="7"/>
         <v>1.9607181039311805E-2</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="7"/>
+      <c r="O26">
+        <f t="shared" si="8"/>
         <v>1.540024369903897E-2</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="8"/>
+      <c r="P26">
+        <f t="shared" si="9"/>
         <v>1.7234303242695963E-2</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="9"/>
+      <c r="Q26">
+        <f t="shared" si="10"/>
         <v>1.5147056185333664E-2</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="10"/>
+      <c r="R26">
+        <f t="shared" si="11"/>
         <v>5.3596699629129985E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3172350646910373E-3</v>
       </c>
       <c r="D27">
@@ -2210,7 +2468,7 @@
         <v>1.6033648589739589E-3</v>
       </c>
       <c r="E27">
-        <f>(W10-W11)/W11</f>
+        <f>(Y10-Y11)/Y11</f>
         <v>4.0596387129135372E-3</v>
       </c>
       <c r="F27">
@@ -2221,93 +2479,97 @@
         <f t="shared" si="4"/>
         <v>-8.4126227983984559E-4</v>
       </c>
-      <c r="K27" s="7">
+      <c r="H27">
         <f t="shared" si="5"/>
+        <v>2.0161950865349885E-3</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="6"/>
+      <c r="N27">
+        <f t="shared" si="7"/>
         <v>3.0577270328409779E-2</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="7"/>
+      <c r="O27">
+        <f t="shared" si="8"/>
         <v>1.5906355685431015E-2</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="8"/>
+      <c r="P27">
+        <f t="shared" si="9"/>
         <v>1.953926340985198E-2</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="9"/>
+      <c r="Q27">
+        <f t="shared" si="10"/>
         <v>1.63781536847009E-2</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="10"/>
+      <c r="R27">
+        <f t="shared" si="11"/>
         <v>2.6292417678584219E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.2420666942173256E-3</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
         <v>-2.1175184504315988E-3</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="5"/>
+      <c r="M28" s="7">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="6"/>
+      <c r="N28">
+        <f t="shared" si="7"/>
         <v>3.0169196535939607E-2</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="7"/>
+      <c r="O28">
+        <f t="shared" si="8"/>
         <v>1.8953615935955504E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <f>B28+1</f>
         <v>11</v>
       </c>
       <c r="C29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.7644467256582078E-4</v>
       </c>
       <c r="D29">
-        <f>(N12-N13)/N13</f>
+        <f>(P12-P13)/P13</f>
         <v>-5.371379238602571E-4</v>
       </c>
-      <c r="K29" s="7">
-        <f>K28+1</f>
+      <c r="M29" s="7">
+        <f>M28+1</f>
         <v>11</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <f>(D13-D12)/D13</f>
         <v>1.0484761734642222E-2</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="7"/>
+      <c r="O29">
+        <f t="shared" si="8"/>
         <v>6.4671248235285885E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>12</v>
       </c>
       <c r="C30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.1828682202712294E-4</v>
       </c>
       <c r="D30">
-        <f>(N13-N14)/N14</f>
+        <f>(P13-P14)/P14</f>
         <v>-2.453408957171029E-4</v>
       </c>
     </row>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D967B977-7C6F-47DD-B097-C10D2B3BD5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7FE7B-FB7E-48BA-BCEF-22C81E8A0E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>search_radius</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>VAR(DATA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area1 </t>
   </si>
   <si>
     <t>Area2</t>
@@ -102,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +120,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -178,12 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -195,6 +196,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -512,7 +522,7 @@
   <dimension ref="A2:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,34 +561,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
@@ -602,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>0</v>
@@ -626,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>0</v>
@@ -650,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>0</v>
@@ -673,8 +681,8 @@
       <c r="AT2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="9" t="s">
-        <v>19</v>
+      <c r="AV2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>0</v>
@@ -699,28 +707,28 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.25428346395525681</v>
+        <v>0.36240814956195522</v>
       </c>
       <c r="E3">
-        <v>4.0904778865659193</v>
+        <v>2.8305914679790618</v>
       </c>
       <c r="F3">
-        <v>1.0449999999999999</v>
+        <v>0.5363</v>
       </c>
       <c r="H3">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L3" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L3" s="2">
         <v>0</v>
       </c>
       <c r="M3">
@@ -741,7 +749,7 @@
       <c r="S3">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3">
@@ -762,7 +770,7 @@
       <c r="AB3">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="2">
         <v>0</v>
       </c>
       <c r="AE3">
@@ -783,7 +791,7 @@
       <c r="AK3">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="2">
         <v>0</v>
       </c>
       <c r="AN3">
@@ -804,7 +812,7 @@
       <c r="AT3">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3" s="2">
         <v>0</v>
       </c>
       <c r="AW3">
@@ -827,28 +835,28 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.4104359493846112</v>
+        <v>0.59982841855631341</v>
       </c>
       <c r="E4">
-        <v>3.912426298598175</v>
+        <v>2.6622118979904501</v>
       </c>
       <c r="F4">
-        <v>1.6292</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="H4">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L4" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4">
@@ -869,7 +877,7 @@
       <c r="S4">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>1</v>
       </c>
       <c r="V4">
@@ -890,7 +898,7 @@
       <c r="AB4">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <v>1</v>
       </c>
       <c r="AE4">
@@ -911,7 +919,7 @@
       <c r="AK4">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="2">
         <v>1</v>
       </c>
       <c r="AN4">
@@ -932,7 +940,7 @@
       <c r="AT4">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV4" s="2">
         <v>1</v>
       </c>
       <c r="AW4">
@@ -955,28 +963,28 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>0.53500668095868953</v>
+        <v>0.66778611957794987</v>
       </c>
       <c r="E5">
-        <v>3.7542077237382512</v>
+        <v>2.6234770434295509</v>
       </c>
       <c r="F5">
-        <v>2.0564</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="H5">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L5" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L5" s="2">
         <v>2</v>
       </c>
       <c r="M5">
@@ -997,7 +1005,7 @@
       <c r="S5">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>2</v>
       </c>
       <c r="V5">
@@ -1018,7 +1026,7 @@
       <c r="AB5">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="2">
         <v>2</v>
       </c>
       <c r="AE5">
@@ -1039,7 +1047,7 @@
       <c r="AK5">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="2">
         <v>2</v>
       </c>
       <c r="AN5">
@@ -1060,7 +1068,7 @@
       <c r="AT5">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AV5" s="2">
         <v>2</v>
       </c>
       <c r="AW5">
@@ -1083,28 +1091,28 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.56547557657269998</v>
+        <v>0.72321800089471788</v>
       </c>
       <c r="E6">
-        <v>3.7253609168775208</v>
+        <v>2.6076952897203109</v>
       </c>
       <c r="F6">
-        <v>2.4922</v>
+        <v>1.2777000000000001</v>
       </c>
       <c r="H6">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L6" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L6" s="2">
         <v>3</v>
       </c>
       <c r="M6">
@@ -1125,7 +1133,7 @@
       <c r="S6">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>3</v>
       </c>
       <c r="V6">
@@ -1146,7 +1154,7 @@
       <c r="AB6">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="2">
         <v>3</v>
       </c>
       <c r="AE6">
@@ -1167,7 +1175,7 @@
       <c r="AK6">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="2">
         <v>3</v>
       </c>
       <c r="AN6">
@@ -1188,7 +1196,7 @@
       <c r="AT6">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AV6" s="2">
         <v>3</v>
       </c>
       <c r="AW6">
@@ -1211,28 +1219,28 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.57900194399739069</v>
+        <v>0.76060277137693022</v>
       </c>
       <c r="E7">
-        <v>3.706315775055423</v>
+        <v>2.6044257723324269</v>
       </c>
       <c r="F7">
-        <v>2.7494999999999998</v>
+        <v>1.4574</v>
       </c>
       <c r="H7">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L7" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L7" s="2">
         <v>4</v>
       </c>
       <c r="M7">
@@ -1253,7 +1261,7 @@
       <c r="S7">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="2">
         <v>4</v>
       </c>
       <c r="V7">
@@ -1274,7 +1282,7 @@
       <c r="AB7">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="2">
         <v>4</v>
       </c>
       <c r="AE7">
@@ -1295,7 +1303,7 @@
       <c r="AK7">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="2">
         <v>4</v>
       </c>
       <c r="AN7">
@@ -1316,7 +1324,7 @@
       <c r="AT7">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV7" s="2">
         <v>4</v>
       </c>
       <c r="AW7">
@@ -1339,28 +1347,28 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0.58677258900883944</v>
+        <v>0.79451822389108784</v>
       </c>
       <c r="E8">
-        <v>3.6956184772261702</v>
+        <v>2.5900944644657038</v>
       </c>
       <c r="F8">
-        <v>2.9962</v>
+        <v>1.5891</v>
       </c>
       <c r="H8">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L8" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L8" s="2">
         <v>5</v>
       </c>
       <c r="M8">
@@ -1381,7 +1389,7 @@
       <c r="S8">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="2">
         <v>5</v>
       </c>
       <c r="V8">
@@ -1402,7 +1410,7 @@
       <c r="AB8">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="2">
         <v>5</v>
       </c>
       <c r="AE8">
@@ -1423,7 +1431,7 @@
       <c r="AK8">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="2">
         <v>5</v>
       </c>
       <c r="AN8">
@@ -1444,7 +1452,7 @@
       <c r="AT8">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AV8" s="2">
         <v>5</v>
       </c>
       <c r="AW8">
@@ -1467,28 +1475,28 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0.6059046352159223</v>
+        <v>0.83176956255124179</v>
       </c>
       <c r="E9">
-        <v>3.6728480389056308</v>
+        <v>2.5632457286210668</v>
       </c>
       <c r="F9">
-        <v>3.1795</v>
+        <v>1.6551499999999999</v>
       </c>
       <c r="H9">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L9" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L9" s="2">
         <v>6</v>
       </c>
       <c r="M9">
@@ -1509,7 +1517,7 @@
       <c r="S9">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>6</v>
       </c>
       <c r="V9">
@@ -1530,7 +1538,7 @@
       <c r="AB9">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="2">
         <v>6</v>
       </c>
       <c r="AE9">
@@ -1551,7 +1559,7 @@
       <c r="AK9">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="2">
         <v>6</v>
       </c>
       <c r="AN9">
@@ -1572,7 +1580,7 @@
       <c r="AT9">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AV9" s="2">
         <v>6</v>
       </c>
       <c r="AW9">
@@ -1595,28 +1603,28 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0.61802231054511414</v>
+        <v>0.83995954520408311</v>
       </c>
       <c r="E10">
-        <v>3.662001846739384</v>
+        <v>2.557945483835387</v>
       </c>
       <c r="F10">
-        <v>3.3527</v>
+        <v>1.68641</v>
       </c>
       <c r="H10">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L10" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L10" s="2">
         <v>7</v>
       </c>
       <c r="M10">
@@ -1637,7 +1645,7 @@
       <c r="S10">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>7</v>
       </c>
       <c r="V10">
@@ -1658,7 +1666,7 @@
       <c r="AB10">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="2">
         <v>7</v>
       </c>
       <c r="AE10">
@@ -1679,7 +1687,7 @@
       <c r="AK10">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM10" s="2">
         <v>7</v>
       </c>
       <c r="AN10">
@@ -1700,7 +1708,7 @@
       <c r="AT10">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV10" s="3">
+      <c r="AV10" s="2">
         <v>7</v>
       </c>
       <c r="AW10">
@@ -1723,28 +1731,28 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>0.63751580361075355</v>
+        <v>0.84369562851737856</v>
       </c>
       <c r="E11">
-        <v>3.6426331102378229</v>
+        <v>2.5553827363622599</v>
       </c>
       <c r="F11">
-        <v>3.4535</v>
+        <v>1.69737</v>
       </c>
       <c r="H11">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L11" s="3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="L11" s="2">
         <v>8</v>
       </c>
       <c r="M11">
@@ -1765,7 +1773,7 @@
       <c r="S11">
         <v>6.0233667672184268</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>8</v>
       </c>
       <c r="V11">
@@ -1786,7 +1794,7 @@
       <c r="AB11">
         <v>6.4232395295462892</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="2">
         <v>8</v>
       </c>
       <c r="AE11">
@@ -1807,7 +1815,7 @@
       <c r="AK11">
         <v>6.657481653811705</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="2">
         <v>8</v>
       </c>
       <c r="AN11">
@@ -1828,7 +1836,7 @@
       <c r="AT11">
         <v>8.4078995600273103</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV11" s="2">
         <v>8</v>
       </c>
       <c r="AW11">
@@ -1851,28 +1859,8 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>135000</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>0.65734744796067757</v>
-      </c>
-      <c r="E12">
-        <v>3.6508184887781452</v>
-      </c>
-      <c r="F12">
-        <v>3.4535</v>
-      </c>
-      <c r="H12">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="A12" s="11"/>
+      <c r="L12" s="2">
         <v>9</v>
       </c>
       <c r="M12">
@@ -1895,28 +1883,8 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>135000</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>0.66431260736623143</v>
-      </c>
-      <c r="E13">
-        <v>3.6518280171786208</v>
-      </c>
-      <c r="F13">
-        <v>3.4535</v>
-      </c>
-      <c r="H13">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="A13" s="11"/>
+      <c r="L13" s="2">
         <v>10</v>
       </c>
       <c r="M13">
@@ -1939,28 +1907,8 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>135000</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>0.66681917655479939</v>
-      </c>
-      <c r="E14">
-        <v>3.6533561679198332</v>
-      </c>
-      <c r="F14">
-        <v>3.4535</v>
-      </c>
-      <c r="H14">
-        <v>4.2466474594880381</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="A14" s="11"/>
+      <c r="L14" s="2">
         <v>11</v>
       </c>
       <c r="M14">
@@ -1983,60 +1931,60 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Q18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19">
@@ -2057,7 +2005,7 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>1</v>
       </c>
       <c r="N19">
@@ -2077,13 +2025,13 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20">
         <f>(E3-E4)/E4</f>
-        <v>4.5509250367614655E-2</v>
+        <v>6.3247996944086865E-2</v>
       </c>
       <c r="D20">
         <f>(P3-P4)/P4</f>
@@ -2101,17 +2049,17 @@
         <f>(AQ3-AQ4)/AQ4</f>
         <v>4.7611854691151555E-2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f>(AZ3-AZ4)/AZ4</f>
         <v>5.3395145503601721E-2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f>M19+1</f>
         <v>2</v>
       </c>
       <c r="N20">
         <f>(D4-D3)/D4</f>
-        <v>0.38045518591507943</v>
+        <v>0.39581363878321912</v>
       </c>
       <c r="O20">
         <f>(O4-O3)/O4</f>
@@ -2131,13 +2079,13 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f>(E4-E5)/E5</f>
-        <v>4.2144331508214401E-2</v>
+        <v>1.476470116554285E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D28" si="1">(P4-P5)/P5</f>
@@ -2151,7 +2099,7 @@
         <f t="shared" ref="F21:F27" si="3">(AH4-AH5)/AH5</f>
         <v>1.7833844589562605E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" ref="G21:G27" si="4">(AQ4-AQ5)/AQ5</f>
         <v>2.5213045046201057E-2</v>
       </c>
@@ -2159,13 +2107,13 @@
         <f t="shared" ref="H21:H27" si="5">(AZ4-AZ5)/AZ5</f>
         <v>-1.7896311949658797E-3</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <f t="shared" ref="M21:M28" si="6">M20+1</f>
         <v>3</v>
       </c>
       <c r="N21">
         <f t="shared" ref="N21:N28" si="7">(D5-D4)/D5</f>
-        <v>0.23283958127561596</v>
+        <v>0.10176566872127661</v>
       </c>
       <c r="O21">
         <f t="shared" ref="O21:O29" si="8">(O5-O4)/O5</f>
@@ -2185,23 +2133,23 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C30" si="12">(E5-E6)/E6</f>
-        <v>7.7433589669236276E-3</v>
-      </c>
-      <c r="D22" s="5">
+        <f>(E5-E6)/E6</f>
+        <v>6.0519930267361223E-3</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
         <v>1.6114694452675434E-2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="2"/>
         <v>2.1365822971502232E-2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" si="3"/>
         <v>2.0402426859979297E-2</v>
       </c>
@@ -2213,15 +2161,15 @@
         <f t="shared" si="5"/>
         <v>4.8325342727475852E-3</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f t="shared" si="7"/>
-        <v>5.3881894950582779E-2</v>
-      </c>
-      <c r="O22" s="5">
+        <v>7.6646158209822388E-2</v>
+      </c>
+      <c r="O22" s="4">
         <f t="shared" si="8"/>
         <v>0.17245850129795096</v>
       </c>
@@ -2233,19 +2181,19 @@
         <f t="shared" si="10"/>
         <v>0.11044150040530185</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f t="shared" si="11"/>
         <v>5.1509186544809536E-2</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" si="12"/>
-        <v>5.1385642719050367E-3</v>
+        <f t="shared" ref="C22:C30" si="12">(E6-E7)/E7</f>
+        <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -2255,7 +2203,7 @@
         <f t="shared" si="2"/>
         <v>7.7913150191800109E-3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="3"/>
         <v>1.5193333386285856E-2</v>
       </c>
@@ -2267,23 +2215,23 @@
         <f t="shared" si="5"/>
         <v>5.1582230391831125E-3</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>2.3361523333247512E-2</v>
+        <v>4.9151504423963835E-2</v>
       </c>
       <c r="O23">
         <f t="shared" si="8"/>
         <v>3.6988391472760548E-2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <f t="shared" si="9"/>
         <v>5.3076514836404728E-2</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <f t="shared" si="10"/>
         <v>7.8631833762555683E-2</v>
       </c>
@@ -2293,13 +2241,13 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
         <f t="shared" si="12"/>
-        <v>2.8945893346874569E-3</v>
+        <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -2321,13 +2269,13 @@
         <f t="shared" si="5"/>
         <v>7.5165106274561154E-4</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>1.3243026612021392E-2</v>
+        <v>4.2686815096649983E-2</v>
       </c>
       <c r="O24">
         <f t="shared" si="8"/>
@@ -2347,13 +2295,13 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
         <f t="shared" si="12"/>
-        <v>6.199667963209309E-3</v>
+        <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -2375,13 +2323,13 @@
         <f t="shared" si="5"/>
         <v>2.2995960085505597E-3</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>3.157600238569705E-2</v>
+        <v>4.4785647777125841E-2</v>
       </c>
       <c r="O25">
         <f t="shared" si="8"/>
@@ -2401,13 +2349,13 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
         <f t="shared" si="12"/>
-        <v>2.9618205069733062E-3</v>
+        <v>2.0720710504481175E-3</v>
       </c>
       <c r="D26">
         <f>(P9-P10)/P10</f>
@@ -2429,13 +2377,13 @@
         <f t="shared" si="5"/>
         <v>2.1218023759628373E-4</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>1.9607181039311805E-2</v>
+        <v>9.7504489348369978E-3</v>
       </c>
       <c r="O26">
         <f t="shared" si="8"/>
@@ -2455,13 +2403,13 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
         <f t="shared" si="12"/>
-        <v>5.3172350646910373E-3</v>
+        <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -2483,13 +2431,13 @@
         <f t="shared" si="5"/>
         <v>2.0161950865349885E-3</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>3.0577270328409779E-2</v>
+        <v>4.4282359502808418E-3</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
@@ -2509,25 +2457,17 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="12"/>
-        <v>-2.2420666942173256E-3</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
         <v>-2.1175184504315988E-3</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <f t="shared" si="6"/>
         <v>10</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
-        <v>3.0169196535939607E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="8"/>
@@ -2535,25 +2475,17 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="12"/>
-        <v>-2.7644467256582078E-4</v>
       </c>
       <c r="D29">
         <f>(P12-P13)/P13</f>
         <v>-5.371379238602571E-4</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <f>M28+1</f>
         <v>11</v>
-      </c>
-      <c r="N29">
-        <f>(D13-D12)/D13</f>
-        <v>1.0484761734642222E-2</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
@@ -2561,12 +2493,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>12</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="12"/>
-        <v>-4.1828682202712294E-4</v>
       </c>
       <c r="D30">
         <f>(P13-P14)/P14</f>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7FE7B-FB7E-48BA-BCEF-22C81E8A0E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18ED507-5C14-459E-8C62-23E6245FF745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>search_radius</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>VAR(DATA)</t>
-  </si>
-  <si>
-    <t>Area2</t>
   </si>
   <si>
     <t xml:space="preserve">Area3 </t>
@@ -125,6 +122,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -521,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
   <dimension ref="A2:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,9 +583,6 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>0</v>
@@ -634,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>0</v>
@@ -658,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>0</v>
@@ -682,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>0</v>
@@ -732,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.39491143442855758</v>
+        <v>0.48067336594687038</v>
       </c>
       <c r="P3">
-        <v>6.0285014769553769</v>
+        <v>3.7283063930572342</v>
       </c>
       <c r="Q3">
-        <v>1.0685</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="S3">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -860,22 +855,22 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>0.62596113718165647</v>
+        <v>0.76520614282182042</v>
       </c>
       <c r="P4">
-        <v>5.8099602047498031</v>
+        <v>3.6058896144473729</v>
       </c>
       <c r="Q4">
-        <v>1.7035</v>
+        <v>1.4483999999999999</v>
       </c>
       <c r="S4">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U4" s="2">
         <v>1</v>
@@ -988,22 +983,22 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5">
-        <v>0.86699503996356087</v>
+        <v>0.83680058709409921</v>
       </c>
       <c r="P5">
-        <v>5.6262632717065326</v>
+        <v>3.600120342288808</v>
       </c>
       <c r="Q5">
-        <v>2.2965</v>
+        <v>1.7071000000000001</v>
       </c>
       <c r="S5">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U5" s="2">
         <v>2</v>
@@ -1116,22 +1111,22 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6">
-        <v>1.047675604574988</v>
+        <v>0.88896743796876532</v>
       </c>
       <c r="P6">
-        <v>5.5370356342864309</v>
+        <v>3.5968213853286608</v>
       </c>
       <c r="Q6">
-        <v>2.7370000000000001</v>
+        <v>1.9228000000000001</v>
       </c>
       <c r="S6">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U6" s="2">
         <v>3</v>
@@ -1244,22 +1239,22 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
       <c r="O7">
-        <v>1.0879158623822069</v>
+        <v>0.91647656793688792</v>
       </c>
       <c r="P7">
-        <v>5.5173052827784588</v>
+        <v>3.6070003065766558</v>
       </c>
       <c r="Q7">
-        <v>3.0518000000000001</v>
+        <v>2.1351</v>
       </c>
       <c r="S7">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U7" s="2">
         <v>4</v>
@@ -1372,22 +1367,22 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8">
-        <v>1.1105597570346211</v>
+        <v>0.95893660252658364</v>
       </c>
       <c r="P8">
-        <v>5.510908454821684</v>
+        <v>3.609330173328666</v>
       </c>
       <c r="Q8">
-        <v>3.2576999999999998</v>
+        <v>2.3302999999999998</v>
       </c>
       <c r="S8">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U8" s="2">
         <v>5</v>
@@ -1500,22 +1495,22 @@
         <v>6</v>
       </c>
       <c r="M9">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
       <c r="O9">
-        <v>1.122268503940705</v>
+        <v>0.99284510320321806</v>
       </c>
       <c r="P9">
-        <v>5.5064623322972333</v>
+        <v>3.6026510363993882</v>
       </c>
       <c r="Q9">
-        <v>3.4681999999999999</v>
+        <v>2.4392999999999998</v>
       </c>
       <c r="S9">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U9" s="2">
         <v>6</v>
@@ -1628,22 +1623,22 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10">
-        <v>1.139822041147919</v>
+        <v>1.0057722220136109</v>
       </c>
       <c r="P10">
-        <v>5.5052510287717178</v>
+        <v>3.5998258948558881</v>
       </c>
       <c r="Q10">
-        <v>3.6637</v>
+        <v>2.48062</v>
       </c>
       <c r="S10">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U10" s="2">
         <v>7</v>
@@ -1756,22 +1751,22 @@
         <v>8</v>
       </c>
       <c r="M11">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11">
-        <v>1.158245506139628</v>
+        <v>1.0108933166398251</v>
       </c>
       <c r="P11">
-        <v>5.4964382328596297</v>
+        <v>3.5986832243048559</v>
       </c>
       <c r="Q11">
-        <v>3.7709999999999999</v>
+        <v>2.49329</v>
       </c>
       <c r="S11">
-        <v>6.0233667672184268</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="U11" s="2">
         <v>8</v>
@@ -1860,75 +1855,15 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="L12" s="2">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>120000</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>1.1806225729526929</v>
-      </c>
-      <c r="P12">
-        <v>5.5081017399207663</v>
-      </c>
-      <c r="Q12">
-        <v>3.7709999999999999</v>
-      </c>
-      <c r="S12">
-        <v>6.0233667672184268</v>
-      </c>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="L13" s="2">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>120000</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <v>1.1883075059222279</v>
-      </c>
-      <c r="P13">
-        <v>5.5110619402896388</v>
-      </c>
-      <c r="Q13">
-        <v>3.7709999999999999</v>
-      </c>
-      <c r="S13">
-        <v>6.0233667672184268</v>
-      </c>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="L14" s="2">
-        <v>11</v>
-      </c>
-      <c r="M14">
-        <v>120000</v>
-      </c>
-      <c r="N14">
-        <v>12</v>
-      </c>
-      <c r="O14">
-        <v>1.1904028977478971</v>
-      </c>
-      <c r="P14">
-        <v>5.5124143609665222</v>
-      </c>
-      <c r="Q14">
-        <v>3.7709999999999999</v>
-      </c>
-      <c r="S14">
-        <v>6.0233667672184268</v>
-      </c>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -1936,10 +1871,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
@@ -1947,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
@@ -2033,9 +1968,9 @@
         <f>(E3-E4)/E4</f>
         <v>6.3247996944086865E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <f>(P3-P4)/P4</f>
-        <v>3.7614934440843538E-2</v>
+        <v>3.3949119828678542E-2</v>
       </c>
       <c r="E20">
         <f>(Y3-Y4)/Y4</f>
@@ -2063,7 +1998,7 @@
       </c>
       <c r="O20">
         <f>(O4-O3)/O4</f>
-        <v>0.36911189693561969</v>
+        <v>0.37183807205949732</v>
       </c>
       <c r="P20">
         <f>(X4-X3)/X4</f>
@@ -2088,47 +2023,47 @@
         <v>1.476470116554285E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D28" si="1">(P4-P5)/P5</f>
-        <v>3.2649899973051275E-2</v>
+        <f>(P4-P5)/P5</f>
+        <v>1.602522029832221E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E26" si="2">(Y4-Y5)/Y5</f>
+        <f t="shared" ref="E21:E26" si="1">(Y4-Y5)/Y5</f>
         <v>3.6736520176443722E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="3">(AH4-AH5)/AH5</f>
+        <f t="shared" ref="F21:F27" si="2">(AH4-AH5)/AH5</f>
         <v>1.7833844589562605E-2</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:G27" si="4">(AQ4-AQ5)/AQ5</f>
+        <f t="shared" ref="G21:G27" si="3">(AQ4-AQ5)/AQ5</f>
         <v>2.5213045046201057E-2</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H27" si="5">(AZ4-AZ5)/AZ5</f>
+        <f t="shared" ref="H21:H27" si="4">(AZ4-AZ5)/AZ5</f>
         <v>-1.7896311949658797E-3</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" ref="M21:M28" si="6">M20+1</f>
+        <f t="shared" ref="M21:M28" si="5">M20+1</f>
         <v>3</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N28" si="7">(D5-D4)/D5</f>
+        <f t="shared" ref="N21:N27" si="6">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O29" si="8">(O5-O4)/O5</f>
-        <v>0.27801070556532237</v>
+        <f t="shared" ref="O21:O29" si="7">(O5-O4)/O5</f>
+        <v>8.5557354256765014E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P27" si="9">(X5-X4)/X5</f>
+        <f t="shared" ref="P21:P27" si="8">(X5-X4)/X5</f>
         <v>0.2736952359242214</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q27" si="10">(AG5-AG4)/AG5</f>
+        <f t="shared" ref="Q21:Q27" si="9">(AG5-AG4)/AG5</f>
         <v>0.19492240494033339</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R27" si="11">(AP5-AP4)/AP5</f>
+        <f t="shared" ref="R21:R27" si="10">(AP5-AP4)/AP5</f>
         <v>0.17411054293837819</v>
       </c>
     </row>
@@ -2141,48 +2076,48 @@
         <f>(E5-E6)/E6</f>
         <v>6.0519930267361223E-3</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="7">
+        <f t="shared" ref="D21:D28" si="11">(P5-P6)/P6</f>
+        <v>9.1718676206817111E-4</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>1.6114694452675434E-2</v>
-      </c>
-      <c r="E22" s="4">
+        <v>2.1365822971502232E-2</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>2.1365822971502232E-2</v>
-      </c>
-      <c r="F22" s="7">
+        <v>2.0402426859979297E-2</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>2.0402426859979297E-2</v>
-      </c>
-      <c r="G22">
+        <v>7.9589252993141936E-3</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="4"/>
-        <v>7.9589252993141936E-3</v>
-      </c>
-      <c r="H22">
+        <v>4.8325342727475852E-3</v>
+      </c>
+      <c r="M22" s="6">
         <f t="shared" si="5"/>
-        <v>4.8325342727475852E-3</v>
-      </c>
-      <c r="M22" s="6">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="4">
+        <v>7.6646158209822388E-2</v>
+      </c>
+      <c r="O22" s="4">
         <f t="shared" si="7"/>
-        <v>7.6646158209822388E-2</v>
-      </c>
-      <c r="O22" s="4">
+        <v>5.8682521593663856E-2</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="8"/>
-        <v>0.17245850129795096</v>
-      </c>
-      <c r="P22">
+        <v>0.14833490880573796</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="9"/>
-        <v>0.14833490880573796</v>
-      </c>
-      <c r="Q22">
+        <v>0.11044150040530185</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="10"/>
-        <v>0.11044150040530185</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="11"/>
         <v>5.1509186544809536E-2</v>
       </c>
     </row>
@@ -2192,51 +2127,51 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C22:C30" si="12">(E6-E7)/E7</f>
+        <f t="shared" ref="C23:C27" si="12">(E6-E7)/E7</f>
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
+        <f t="shared" si="11"/>
+        <v>-2.8219906800217784E-3</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>3.5760847908049933E-3</v>
-      </c>
-      <c r="E23">
+        <v>7.7913150191800109E-3</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>7.7913150191800109E-3</v>
-      </c>
-      <c r="F23" s="4">
+        <v>1.5193333386285856E-2</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="3"/>
-        <v>1.5193333386285856E-2</v>
-      </c>
-      <c r="G23">
+        <v>7.0587164351196847E-3</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="4"/>
-        <v>7.0587164351196847E-3</v>
-      </c>
-      <c r="H23">
+        <v>5.1582230391831125E-3</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="5"/>
-        <v>5.1582230391831125E-3</v>
-      </c>
-      <c r="M23" s="6">
+        <v>5</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="N23">
+        <v>4.9151504423963835E-2</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="7"/>
-        <v>4.9151504423963835E-2</v>
-      </c>
-      <c r="O23">
+        <v>3.0016184734596496E-2</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="8"/>
-        <v>3.6988391472760548E-2</v>
-      </c>
-      <c r="P23" s="4">
+        <v>5.3076514836404728E-2</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="9"/>
-        <v>5.3076514836404728E-2</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>7.8631833762555683E-2</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="10"/>
-        <v>7.8631833762555683E-2</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="11"/>
         <v>4.1202885363976427E-2</v>
       </c>
     </row>
@@ -2250,47 +2185,47 @@
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>1.1607574339540987E-3</v>
+        <f t="shared" si="11"/>
+        <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
         <f>(Y7-Y8)/Y8</f>
         <v>-1.9898481980466314E-3</v>
       </c>
       <c r="F24">
+        <f t="shared" si="2"/>
+        <v>4.3024646670208142E-3</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="3"/>
-        <v>4.3024646670208142E-3</v>
-      </c>
-      <c r="G24">
+        <v>7.7087189425912323E-3</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="4"/>
-        <v>7.7087189425912323E-3</v>
-      </c>
-      <c r="H24">
+        <v>7.5165106274561154E-4</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="5"/>
-        <v>7.5165106274561154E-4</v>
-      </c>
-      <c r="M24" s="6">
+        <v>6</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="N24">
+        <v>4.2686815096649983E-2</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="7"/>
-        <v>4.2686815096649983E-2</v>
-      </c>
-      <c r="O24">
+        <v>4.4278249967540102E-2</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="8"/>
-        <v>2.0389622898705675E-2</v>
-      </c>
-      <c r="P24">
+        <v>2.6092228735565427E-2</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="9"/>
-        <v>2.6092228735565427E-2</v>
-      </c>
-      <c r="Q24">
+        <v>4.9809811599688635E-2</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="10"/>
-        <v>4.9809811599688635E-2</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="11"/>
         <v>2.2188883851806486E-2</v>
       </c>
     </row>
@@ -2304,47 +2239,47 @@
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
+        <f t="shared" si="11"/>
+        <v>1.8539505663454855E-3</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>8.0743719944705147E-4</v>
-      </c>
-      <c r="E25">
+        <v>2.9357900937411921E-3</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="2"/>
-        <v>2.9357900937411921E-3</v>
-      </c>
-      <c r="F25">
+        <v>3.2260192925071193E-3</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="3"/>
-        <v>3.2260192925071193E-3</v>
-      </c>
-      <c r="G25">
+        <v>3.4064334981933272E-3</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="4"/>
-        <v>3.4064334981933272E-3</v>
-      </c>
-      <c r="H25">
+        <v>2.2995960085505597E-3</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="5"/>
-        <v>2.2995960085505597E-3</v>
-      </c>
-      <c r="M25" s="6">
+        <v>7</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="N25">
+        <v>4.4785647777125841E-2</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="7"/>
-        <v>4.4785647777125841E-2</v>
-      </c>
-      <c r="O25">
+        <v>3.4152860871484746E-2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="8"/>
-        <v>1.0433106573845856E-2</v>
-      </c>
-      <c r="P25">
+        <v>2.7490908581258421E-2</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="9"/>
-        <v>2.7490908581258421E-2</v>
-      </c>
-      <c r="Q25">
+        <v>2.4619171460802149E-2</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="10"/>
-        <v>2.4619171460802149E-2</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="11"/>
         <v>3.0964747730479546E-2</v>
       </c>
     </row>
@@ -2359,46 +2294,46 @@
       </c>
       <c r="D26">
         <f>(P9-P10)/P10</f>
-        <v>2.2002693776994154E-4</v>
+        <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.9156760073646192E-3</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="2"/>
-        <v>1.9156760073646192E-3</v>
-      </c>
-      <c r="F26">
+        <v>1.3897486619202186E-3</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="3"/>
-        <v>1.3897486619202186E-3</v>
-      </c>
-      <c r="G26">
+        <v>-1.0300863623402569E-3</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="4"/>
-        <v>-1.0300863623402569E-3</v>
-      </c>
-      <c r="H26">
+        <v>2.1218023759628373E-4</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="5"/>
-        <v>2.1218023759628373E-4</v>
-      </c>
-      <c r="M26" s="6">
+        <v>8</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="N26">
+        <v>9.7504489348369978E-3</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="7"/>
-        <v>9.7504489348369978E-3</v>
-      </c>
-      <c r="O26">
+        <v>1.2852928851536664E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="8"/>
-        <v>1.540024369903897E-2</v>
-      </c>
-      <c r="P26">
+        <v>1.7234303242695963E-2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="9"/>
-        <v>1.7234303242695963E-2</v>
-      </c>
-      <c r="Q26">
+        <v>1.5147056185333664E-2</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="10"/>
-        <v>1.5147056185333664E-2</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="11"/>
         <v>5.3596699629129985E-3</v>
       </c>
     </row>
@@ -2412,47 +2347,47 @@
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>1.6033648589739589E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
         <f>(Y10-Y11)/Y11</f>
         <v>4.0596387129135372E-3</v>
       </c>
       <c r="F27">
+        <f t="shared" si="2"/>
+        <v>3.1942068917472966E-4</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="3"/>
-        <v>3.1942068917472966E-4</v>
-      </c>
-      <c r="G27">
+        <v>-8.4126227983984559E-4</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="4"/>
-        <v>-8.4126227983984559E-4</v>
-      </c>
-      <c r="H27">
+        <v>2.0161950865349885E-3</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="5"/>
-        <v>2.0161950865349885E-3</v>
-      </c>
-      <c r="M27" s="6">
+        <v>9</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="N27">
+        <v>4.4282359502808418E-3</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="7"/>
-        <v>4.4282359502808418E-3</v>
-      </c>
-      <c r="O27">
+        <v>5.0659100638200602E-3</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="8"/>
-        <v>1.5906355685431015E-2</v>
-      </c>
-      <c r="P27">
+        <v>1.953926340985198E-2</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="9"/>
-        <v>1.953926340985198E-2</v>
-      </c>
-      <c r="Q27">
+        <v>1.63781536847009E-2</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="10"/>
-        <v>1.63781536847009E-2</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="11"/>
         <v>2.6292417678584219E-3</v>
       </c>
     </row>
@@ -2461,17 +2396,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>-2.1175184504315988E-3</v>
-      </c>
       <c r="M28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
-        <v>1.8953615935955504E-2</v>
+      <c r="O28" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
@@ -2479,26 +2410,18 @@
         <f>B28+1</f>
         <v>11</v>
       </c>
-      <c r="D29">
-        <f>(P12-P13)/P13</f>
-        <v>-5.371379238602571E-4</v>
-      </c>
       <c r="M29" s="6">
         <f>M28+1</f>
         <v>11</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="8"/>
-        <v>6.4671248235285885E-3</v>
+      <c r="O29" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>12</v>
-      </c>
-      <c r="D30">
-        <f>(P13-P14)/P14</f>
-        <v>-2.453408957171029E-4</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18ED507-5C14-459E-8C62-23E6245FF745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864104B9-6025-435F-BB0A-FDAF3A9C919E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>VAR(DATA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Area3 </t>
-  </si>
-  <si>
     <t>Area4</t>
   </si>
   <si>
@@ -91,12 +88,15 @@
   <si>
     <t>area6</t>
   </si>
+  <si>
+    <t>Area3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -178,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -201,6 +206,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -519,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
   <dimension ref="A2:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,32 +615,32 @@
       <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>0</v>
@@ -653,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>0</v>
@@ -677,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>0</v>
@@ -744,26 +755,26 @@
       <c r="S3">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="13">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0.36459018754402273</v>
+        <v>0.38033031902469272</v>
       </c>
       <c r="Y3">
-        <v>6.1438955477063422</v>
+        <v>3.6025795623284291</v>
       </c>
       <c r="Z3">
-        <v>0.88319999999999999</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="AB3">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -872,26 +883,26 @@
       <c r="S4">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="13">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4">
-        <v>0.70336095376189212</v>
+        <v>0.69008680305220649</v>
       </c>
       <c r="Y4">
-        <v>5.7903831262195222</v>
+        <v>3.3636685309936909</v>
       </c>
       <c r="Z4">
-        <v>1.6785000000000001</v>
+        <v>1.3849</v>
       </c>
       <c r="AB4">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1000,26 +1011,26 @@
       <c r="S5">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="13">
         <v>2</v>
       </c>
       <c r="V5">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5">
-        <v>0.96841021641503011</v>
+        <v>0.74321284253246644</v>
       </c>
       <c r="Y5">
-        <v>5.5852022317435566</v>
+        <v>3.3523063974154081</v>
       </c>
       <c r="Z5">
-        <v>2.1185</v>
+        <v>1.7165999999999999</v>
       </c>
       <c r="AB5">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD5" s="2">
         <v>2</v>
@@ -1128,26 +1139,26 @@
       <c r="S6">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="13">
         <v>3</v>
       </c>
       <c r="V6">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6">
-        <v>1.137078678494454</v>
+        <v>0.80147713775890628</v>
       </c>
       <c r="Y6">
-        <v>5.4683660899228981</v>
+        <v>3.3244513266097129</v>
       </c>
       <c r="Z6">
-        <v>2.6534</v>
+        <v>1.95</v>
       </c>
       <c r="AB6">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD6" s="2">
         <v>3</v>
@@ -1256,26 +1267,26 @@
       <c r="S7">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="13">
         <v>4</v>
       </c>
       <c r="V7">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7">
-        <v>1.2008136837983341</v>
+        <v>0.84652785808803543</v>
       </c>
       <c r="Y7">
-        <v>5.4260897156261221</v>
+        <v>3.3135987201128718</v>
       </c>
       <c r="Z7">
-        <v>2.9961000000000002</v>
+        <v>2.0798000000000001</v>
       </c>
       <c r="AB7">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD7" s="2">
         <v>4</v>
@@ -1384,26 +1395,26 @@
       <c r="S8">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="13">
         <v>5</v>
       </c>
       <c r="V8">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8">
-        <v>1.232985010725713</v>
+        <v>0.88163691075563233</v>
       </c>
       <c r="Y8">
-        <v>5.4369083378852077</v>
+        <v>3.3051287071358479</v>
       </c>
       <c r="Z8">
-        <v>3.3062</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="AB8">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD8" s="2">
         <v>5</v>
@@ -1512,26 +1523,26 @@
       <c r="S9">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="13">
         <v>6</v>
       </c>
       <c r="V9">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9">
-        <v>1.2678390583752559</v>
+        <v>0.91648760976161969</v>
       </c>
       <c r="Y9">
-        <v>5.4209934390486127</v>
+        <v>3.2800970521033079</v>
       </c>
       <c r="Z9">
-        <v>3.4356</v>
+        <v>2.3134000000000001</v>
       </c>
       <c r="AB9">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD9" s="2">
         <v>6</v>
@@ -1640,26 +1651,26 @@
       <c r="S10">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="13">
         <v>7</v>
       </c>
       <c r="V10">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="X10">
-        <v>1.290072560080769</v>
+        <v>0.9304421052752393</v>
       </c>
       <c r="Y10">
-        <v>5.4106284279843582</v>
+        <v>3.2725045109609678</v>
       </c>
       <c r="Z10">
-        <v>3.5779999999999998</v>
+        <v>2.3569</v>
       </c>
       <c r="AB10">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD10" s="2">
         <v>7</v>
@@ -1768,26 +1779,26 @@
       <c r="S11">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="13">
         <v>8</v>
       </c>
       <c r="V11">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="W11">
         <v>9</v>
       </c>
       <c r="X11">
-        <v>1.315781970594142</v>
+        <v>0.93761111150821319</v>
       </c>
       <c r="Y11">
-        <v>5.3887520415820598</v>
+        <v>3.268319359703324</v>
       </c>
       <c r="Z11">
-        <v>3.6839</v>
+        <v>2.37229</v>
       </c>
       <c r="AB11">
-        <v>6.4232395295462892</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AD11" s="2">
         <v>8</v>
@@ -1871,10 +1882,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
@@ -1882,40 +1893,40 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
@@ -1972,9 +1983,9 @@
         <f>(P3-P4)/P4</f>
         <v>3.3949119828678542E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f>(Y3-Y4)/Y4</f>
-        <v>6.1051646114067125E-2</v>
+        <v>7.1026924660783808E-2</v>
       </c>
       <c r="F20">
         <f>(AH3-AH4)/AH4</f>
@@ -2002,7 +2013,7 @@
       </c>
       <c r="P20">
         <f>(X4-X3)/X4</f>
-        <v>0.48164568193040896</v>
+        <v>0.44886597259574035</v>
       </c>
       <c r="Q20">
         <f>(AG4-AG3)/AG4</f>
@@ -2027,43 +2038,43 @@
         <v>1.602522029832221E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E26" si="1">(Y4-Y5)/Y5</f>
-        <v>3.6736520176443722E-2</v>
+        <f>(Y4-Y5)/Y5</f>
+        <v>3.3893481774347456E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="2">(AH4-AH5)/AH5</f>
+        <f t="shared" ref="F21:F27" si="1">(AH4-AH5)/AH5</f>
         <v>1.7833844589562605E-2</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:G27" si="3">(AQ4-AQ5)/AQ5</f>
+        <f t="shared" ref="G21:G27" si="2">(AQ4-AQ5)/AQ5</f>
         <v>2.5213045046201057E-2</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H27" si="4">(AZ4-AZ5)/AZ5</f>
+        <f t="shared" ref="H21:H27" si="3">(AZ4-AZ5)/AZ5</f>
         <v>-1.7896311949658797E-3</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" ref="M21:M28" si="5">M20+1</f>
+        <f t="shared" ref="M21:M28" si="4">M20+1</f>
         <v>3</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N27" si="6">(D5-D4)/D5</f>
+        <f t="shared" ref="N21:N27" si="5">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O29" si="7">(O5-O4)/O5</f>
+        <f t="shared" ref="O21:O29" si="6">(O5-O4)/O5</f>
         <v>8.5557354256765014E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P27" si="8">(X5-X4)/X5</f>
-        <v>0.2736952359242214</v>
+        <f t="shared" ref="P21:P27" si="7">(X5-X4)/X5</f>
+        <v>7.1481595096278494E-2</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q27" si="9">(AG5-AG4)/AG5</f>
+        <f t="shared" ref="Q21:Q27" si="8">(AG5-AG4)/AG5</f>
         <v>0.19492240494033339</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R27" si="10">(AP5-AP4)/AP5</f>
+        <f t="shared" ref="R21:R27" si="9">(AP5-AP4)/AP5</f>
         <v>0.17411054293837819</v>
       </c>
     </row>
@@ -2077,47 +2088,47 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D21:D28" si="11">(P5-P6)/P6</f>
+        <f t="shared" ref="D22:D27" si="10">(P5-P6)/P6</f>
         <v>9.1718676206817111E-4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="7">
+        <f t="shared" ref="E21:E26" si="11">(Y5-Y6)/Y6</f>
+        <v>8.3788475357532057E-3</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.1365822971502232E-2</v>
-      </c>
-      <c r="F22" s="7">
+        <v>2.0402426859979297E-2</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="2"/>
-        <v>2.0402426859979297E-2</v>
-      </c>
-      <c r="G22">
+        <v>7.9589252993141936E-3</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="3"/>
-        <v>7.9589252993141936E-3</v>
-      </c>
-      <c r="H22">
+        <v>4.8325342727475852E-3</v>
+      </c>
+      <c r="M22" s="6">
         <f t="shared" si="4"/>
-        <v>4.8325342727475852E-3</v>
-      </c>
-      <c r="M22" s="6">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="4">
+        <v>7.6646158209822388E-2</v>
+      </c>
+      <c r="O22" s="4">
         <f t="shared" si="6"/>
-        <v>7.6646158209822388E-2</v>
-      </c>
-      <c r="O22" s="4">
+        <v>5.8682521593663856E-2</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="7"/>
-        <v>5.8682521593663856E-2</v>
-      </c>
-      <c r="P22">
+        <v>7.2696141264064873E-2</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="8"/>
-        <v>0.14833490880573796</v>
-      </c>
-      <c r="Q22">
+        <v>0.11044150040530185</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="9"/>
-        <v>0.11044150040530185</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="10"/>
         <v>5.1509186544809536E-2</v>
       </c>
     </row>
@@ -2131,47 +2142,47 @@
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
+        <f t="shared" si="10"/>
+        <v>-2.8219906800217784E-3</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="11"/>
-        <v>-2.8219906800217784E-3</v>
-      </c>
-      <c r="E23">
+        <v>3.2751722261865736E-3</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>7.7913150191800109E-3</v>
-      </c>
-      <c r="F23" s="4">
+        <v>1.5193333386285856E-2</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="2"/>
-        <v>1.5193333386285856E-2</v>
-      </c>
-      <c r="G23">
+        <v>7.0587164351196847E-3</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="3"/>
-        <v>7.0587164351196847E-3</v>
-      </c>
-      <c r="H23">
+        <v>5.1582230391831125E-3</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="4"/>
-        <v>5.1582230391831125E-3</v>
-      </c>
-      <c r="M23" s="6">
+        <v>5</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="N23">
+        <v>4.9151504423963835E-2</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="6"/>
-        <v>4.9151504423963835E-2</v>
-      </c>
-      <c r="O23">
+        <v>3.0016184734596496E-2</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="7"/>
-        <v>3.0016184734596496E-2</v>
-      </c>
-      <c r="P23" s="4">
+        <v>5.3218237177546097E-2</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="8"/>
-        <v>5.3076514836404728E-2</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>7.8631833762555683E-2</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="9"/>
-        <v>7.8631833762555683E-2</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="10"/>
         <v>4.1202885363976427E-2</v>
       </c>
     </row>
@@ -2185,47 +2196,47 @@
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
         <f>(Y7-Y8)/Y8</f>
-        <v>-1.9898481980466314E-3</v>
+        <v>2.5626877884473687E-3</v>
       </c>
       <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4.3024646670208142E-3</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="2"/>
-        <v>4.3024646670208142E-3</v>
-      </c>
-      <c r="G24">
+        <v>7.7087189425912323E-3</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="3"/>
-        <v>7.7087189425912323E-3</v>
-      </c>
-      <c r="H24">
+        <v>7.5165106274561154E-4</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="4"/>
-        <v>7.5165106274561154E-4</v>
-      </c>
-      <c r="M24" s="6">
+        <v>6</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N24">
+        <v>4.2686815096649983E-2</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="6"/>
-        <v>4.2686815096649983E-2</v>
-      </c>
-      <c r="O24">
+        <v>4.4278249967540102E-2</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="7"/>
-        <v>4.4278249967540102E-2</v>
-      </c>
-      <c r="P24">
+        <v>3.9822575755710674E-2</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="8"/>
-        <v>2.6092228735565427E-2</v>
-      </c>
-      <c r="Q24">
+        <v>4.9809811599688635E-2</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="9"/>
-        <v>4.9809811599688635E-2</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="10"/>
         <v>2.2188883851806486E-2</v>
       </c>
     </row>
@@ -2239,47 +2250,47 @@
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
+        <f t="shared" si="10"/>
+        <v>1.8539505663454855E-3</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="11"/>
-        <v>1.8539505663454855E-3</v>
-      </c>
-      <c r="E25">
+        <v>7.6313763388460958E-3</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>2.9357900937411921E-3</v>
-      </c>
-      <c r="F25">
+        <v>3.2260192925071193E-3</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
-        <v>3.2260192925071193E-3</v>
-      </c>
-      <c r="G25">
+        <v>3.4064334981933272E-3</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="3"/>
-        <v>3.4064334981933272E-3</v>
-      </c>
-      <c r="H25">
+        <v>2.2995960085505597E-3</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="4"/>
-        <v>2.2995960085505597E-3</v>
-      </c>
-      <c r="M25" s="6">
+        <v>7</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="N25">
+        <v>4.4785647777125841E-2</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="6"/>
-        <v>4.4785647777125841E-2</v>
-      </c>
-      <c r="O25">
+        <v>3.4152860871484746E-2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="7"/>
-        <v>3.4152860871484746E-2</v>
-      </c>
-      <c r="P25">
+        <v>3.8026372244194445E-2</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="8"/>
-        <v>2.7490908581258421E-2</v>
-      </c>
-      <c r="Q25">
+        <v>2.4619171460802149E-2</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="9"/>
-        <v>2.4619171460802149E-2</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="10"/>
         <v>3.0964747730479546E-2</v>
       </c>
     </row>
@@ -2297,43 +2308,43 @@
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
+        <f t="shared" si="11"/>
+        <v>2.32010104704502E-3</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
-        <v>1.9156760073646192E-3</v>
-      </c>
-      <c r="F26">
+        <v>1.3897486619202186E-3</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="2"/>
-        <v>1.3897486619202186E-3</v>
-      </c>
-      <c r="G26">
+        <v>-1.0300863623402569E-3</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="3"/>
-        <v>-1.0300863623402569E-3</v>
-      </c>
-      <c r="H26">
+        <v>2.1218023759628373E-4</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="4"/>
-        <v>2.1218023759628373E-4</v>
-      </c>
-      <c r="M26" s="6">
+        <v>8</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N26">
+        <v>9.7504489348369978E-3</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="6"/>
-        <v>9.7504489348369978E-3</v>
-      </c>
-      <c r="O26">
+        <v>1.2852928851536664E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="7"/>
-        <v>1.2852928851536664E-2</v>
-      </c>
-      <c r="P26">
+        <v>1.4997704246726501E-2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="8"/>
-        <v>1.7234303242695963E-2</v>
-      </c>
-      <c r="Q26">
+        <v>1.5147056185333664E-2</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="9"/>
-        <v>1.5147056185333664E-2</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="10"/>
         <v>5.3596699629129985E-3</v>
       </c>
     </row>
@@ -2347,47 +2358,47 @@
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
         <f>(Y10-Y11)/Y11</f>
-        <v>4.0596387129135372E-3</v>
+        <v>1.2805209029584394E-3</v>
       </c>
       <c r="F27">
+        <f t="shared" si="1"/>
+        <v>3.1942068917472966E-4</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
-        <v>3.1942068917472966E-4</v>
-      </c>
-      <c r="G27">
+        <v>-8.4126227983984559E-4</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="3"/>
-        <v>-8.4126227983984559E-4</v>
-      </c>
-      <c r="H27">
+        <v>2.0161950865349885E-3</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="4"/>
-        <v>2.0161950865349885E-3</v>
-      </c>
-      <c r="M27" s="6">
+        <v>9</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="N27">
+        <v>4.4282359502808418E-3</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="6"/>
-        <v>4.4282359502808418E-3</v>
-      </c>
-      <c r="O27">
+        <v>5.0659100638200602E-3</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="7"/>
-        <v>5.0659100638200602E-3</v>
-      </c>
-      <c r="P27">
+        <v>7.6460337820037638E-3</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="8"/>
-        <v>1.953926340985198E-2</v>
-      </c>
-      <c r="Q27">
+        <v>1.63781536847009E-2</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="9"/>
-        <v>1.63781536847009E-2</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="10"/>
         <v>2.6292417678584219E-3</v>
       </c>
     </row>
@@ -2397,11 +2408,11 @@
         <v>10</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O28" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2415,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="O29" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864104B9-6025-435F-BB0A-FDAF3A9C919E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397BC37-F61F-4BDF-9E82-4E086E46C122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
   <dimension ref="A2:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,28 +639,28 @@
       <c r="AB2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AF2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AM2" s="1" t="s">
@@ -776,26 +776,26 @@
       <c r="AB3">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="13">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.64991128430044143</v>
+        <v>0.53794659513894327</v>
       </c>
       <c r="AH3">
-        <v>6.0323198851388042</v>
+        <v>3.296988220851615</v>
       </c>
       <c r="AI3">
-        <v>0.8921</v>
+        <v>1.006</v>
       </c>
       <c r="AK3">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM3" s="2">
         <v>0</v>
@@ -904,26 +904,26 @@
       <c r="AB4">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="13">
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF4">
         <v>2</v>
       </c>
       <c r="AG4">
-        <v>0.90750225251344174</v>
+        <v>0.72813774884466864</v>
       </c>
       <c r="AH4">
-        <v>5.9114698041383358</v>
+        <v>3.1505799926727289</v>
       </c>
       <c r="AI4">
-        <v>1.8169</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="AK4">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM4" s="2">
         <v>1</v>
@@ -1032,26 +1032,26 @@
       <c r="AB5">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="13">
         <v>2</v>
       </c>
       <c r="AE5">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF5">
         <v>3</v>
       </c>
       <c r="AG5">
-        <v>1.1272233360887209</v>
+        <v>0.80700823824395607</v>
       </c>
       <c r="AH5">
-        <v>5.8078927474868083</v>
+        <v>3.14240151487407</v>
       </c>
       <c r="AI5">
-        <v>2.2282000000000002</v>
+        <v>1.7876000000000001</v>
       </c>
       <c r="AK5">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM5" s="2">
         <v>2</v>
@@ -1160,26 +1160,26 @@
       <c r="AB6">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="13">
         <v>3</v>
       </c>
       <c r="AE6">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF6">
         <v>4</v>
       </c>
       <c r="AG6">
-        <v>1.267171677413355</v>
+        <v>0.96890162464780283</v>
       </c>
       <c r="AH6">
-        <v>5.6917668898133398</v>
+        <v>3.0602980466926861</v>
       </c>
       <c r="AI6">
-        <v>2.6597</v>
+        <v>1.9857</v>
       </c>
       <c r="AK6">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM6" s="2">
         <v>3</v>
@@ -1288,26 +1288,26 @@
       <c r="AB7">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="13">
         <v>4</v>
       </c>
       <c r="AE7">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF7">
         <v>5</v>
       </c>
       <c r="AG7">
-        <v>1.3753152364575989</v>
+        <v>1.0082198682963639</v>
       </c>
       <c r="AH7">
-        <v>5.6065841871004443</v>
+        <v>3.0512501356848012</v>
       </c>
       <c r="AI7">
-        <v>2.9632000000000001</v>
+        <v>2.1518999999999999</v>
       </c>
       <c r="AK7">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM7" s="2">
         <v>4</v>
@@ -1416,26 +1416,26 @@
       <c r="AB8">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="13">
         <v>5</v>
       </c>
       <c r="AE8">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF8">
         <v>6</v>
       </c>
       <c r="AG8">
-        <v>1.4474104797619569</v>
+        <v>1.026967100764586</v>
       </c>
       <c r="AH8">
-        <v>5.5825653967296818</v>
+        <v>3.0533007950275342</v>
       </c>
       <c r="AI8">
-        <v>3.2233000000000001</v>
+        <v>2.2700999999999998</v>
       </c>
       <c r="AK8">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM8" s="2">
         <v>5</v>
@@ -1544,26 +1544,26 @@
       <c r="AB9">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="13">
         <v>6</v>
       </c>
       <c r="AE9">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF9">
         <v>7</v>
       </c>
       <c r="AG9">
-        <v>1.483943950312931</v>
+        <v>1.053337517783492</v>
       </c>
       <c r="AH9">
-        <v>5.5646138451100047</v>
+        <v>3.050403551110147</v>
       </c>
       <c r="AI9">
-        <v>3.4306000000000001</v>
+        <v>2.3786</v>
       </c>
       <c r="AK9">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM9" s="2">
         <v>6</v>
@@ -1672,26 +1672,26 @@
       <c r="AB10">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="13">
         <v>7</v>
       </c>
       <c r="AE10">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF10">
         <v>8</v>
       </c>
       <c r="AG10">
-        <v>1.506767035254134</v>
+        <v>1.0781610172016991</v>
       </c>
       <c r="AH10">
-        <v>5.5568911630517173</v>
+        <v>3.047668137060386</v>
       </c>
       <c r="AI10">
-        <v>3.5274999999999999</v>
+        <v>2.4780500000000001</v>
       </c>
       <c r="AK10">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM10" s="2">
         <v>7</v>
@@ -1800,26 +1800,26 @@
       <c r="AB11">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="13">
         <v>8</v>
       </c>
       <c r="AE11">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="AF11">
         <v>9</v>
       </c>
       <c r="AG11">
-        <v>1.531856008382251</v>
+        <v>1.0843492319356911</v>
       </c>
       <c r="AH11">
-        <v>5.5551167438329561</v>
+        <v>3.0469519551982178</v>
       </c>
       <c r="AI11">
-        <v>3.6011199999999999</v>
+        <v>2.4956499999999999</v>
       </c>
       <c r="AK11">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="AM11" s="2">
         <v>8</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F20">
         <f>(AH3-AH4)/AH4</f>
-        <v>2.0443322050950362E-2</v>
+        <v>4.6470246278268193E-2</v>
       </c>
       <c r="G20">
         <f>(AQ3-AQ4)/AQ4</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="Q20">
         <f>(AG4-AG3)/AG4</f>
-        <v>0.28384609239213421</v>
+        <v>0.26120216127717649</v>
       </c>
       <c r="R20">
         <f>(AP4-AP3)/AP4</f>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="F21">
         <f t="shared" ref="F21:F27" si="1">(AH4-AH5)/AH5</f>
-        <v>1.7833844589562605E-2</v>
+        <v>2.6026202444045811E-3</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ref="G21:G27" si="2">(AQ4-AQ5)/AQ5</f>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q27" si="8">(AG5-AG4)/AG5</f>
-        <v>0.19492240494033339</v>
+        <v>9.773195075543345E-2</v>
       </c>
       <c r="R21">
         <f t="shared" ref="R21:R27" si="9">(AP5-AP4)/AP5</f>
@@ -2092,12 +2092,12 @@
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E21:E26" si="11">(Y5-Y6)/Y6</f>
+        <f t="shared" ref="E22:E26" si="11">(Y5-Y6)/Y6</f>
         <v>8.3788475357532057E-3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>2.0402426859979297E-2</v>
+        <v>2.6828585624238292E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Q22">
         <f t="shared" si="8"/>
-        <v>0.11044150040530185</v>
+        <v>0.16708960155030728</v>
       </c>
       <c r="R22" s="4">
         <f t="shared" si="9"/>
@@ -2149,9 +2149,9 @@
         <f t="shared" si="11"/>
         <v>3.2751722261865736E-3</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5193333386285856E-2</v>
+      <c r="F23" s="7">
+        <f>(AH6-AH7)/AH7</f>
+        <v>2.9653127752681885E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="8"/>
-        <v>7.8631833762555683E-2</v>
+        <v>3.899768779105587E-2</v>
       </c>
       <c r="R23">
         <f t="shared" si="9"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>4.3024646670208142E-3</v>
+        <v>-6.7162047908040149E-4</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="Q24">
         <f t="shared" si="8"/>
-        <v>4.9809811599688635E-2</v>
+        <v>1.8254949408081911E-2</v>
       </c>
       <c r="R24">
         <f t="shared" si="9"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>3.2260192925071193E-3</v>
+        <v>9.4979036997668638E-4</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="Q25">
         <f t="shared" si="8"/>
-        <v>2.4619171460802149E-2</v>
+        <v>2.5035106576661761E-2</v>
       </c>
       <c r="R25">
         <f t="shared" si="9"/>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1.3897486619202186E-3</v>
+        <v>8.9754327792379205E-4</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Q26">
         <f t="shared" si="8"/>
-        <v>1.5147056185333664E-2</v>
+        <v>2.3023925946269997E-2</v>
       </c>
       <c r="R26">
         <f t="shared" si="9"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>3.1942068917472966E-4</v>
+        <v>2.3504862324669041E-4</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="8"/>
-        <v>1.63781536847009E-2</v>
+        <v>5.7068466060010122E-3</v>
       </c>
       <c r="R27">
         <f t="shared" si="9"/>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397BC37-F61F-4BDF-9E82-4E086E46C122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B541F321-5D16-40A2-8F9C-90997414C0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A2:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,28 +663,28 @@
       <c r="AK2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AO2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AV2" s="8" t="s">
@@ -797,26 +797,26 @@
       <c r="AK3">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="13">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO3">
         <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.75595094841089239</v>
+        <v>0.44461726443180999</v>
       </c>
       <c r="AQ3">
-        <v>7.7175410709132573</v>
+        <v>4.0161955823321929</v>
       </c>
       <c r="AR3">
-        <v>0.82399999999999995</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="AT3">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV3" s="2">
         <v>0</v>
@@ -925,26 +925,26 @@
       <c r="AK4">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="13">
         <v>1</v>
       </c>
       <c r="AN4">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO4">
         <v>2</v>
       </c>
       <c r="AP4">
-        <v>1.403372693571783</v>
+        <v>0.60043816217184121</v>
       </c>
       <c r="AQ4">
-        <v>7.366794329745801</v>
+        <v>3.9723297262462758</v>
       </c>
       <c r="AR4">
-        <v>1.1830000000000001</v>
+        <v>1.1192</v>
       </c>
       <c r="AT4">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV4" s="2">
         <v>1</v>
@@ -1053,26 +1053,26 @@
       <c r="AK5">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="13">
         <v>2</v>
       </c>
       <c r="AN5">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO5">
         <v>3</v>
       </c>
       <c r="AP5">
-        <v>1.699225824439933</v>
+        <v>0.76226628837745936</v>
       </c>
       <c r="AQ5">
-        <v>7.1856228959843342</v>
+        <v>3.8940951835435209</v>
       </c>
       <c r="AR5">
-        <v>1.98</v>
+        <v>1.6471</v>
       </c>
       <c r="AT5">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV5" s="2">
         <v>2</v>
@@ -1181,26 +1181,26 @@
       <c r="AK6">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="13">
         <v>3</v>
       </c>
       <c r="AN6">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO6">
         <v>4</v>
       </c>
       <c r="AP6">
-        <v>1.791504778259204</v>
+        <v>0.81078353699118821</v>
       </c>
       <c r="AQ6">
-        <v>7.1288846357013584</v>
+        <v>3.904639138992577</v>
       </c>
       <c r="AR6">
-        <v>2.4990000000000001</v>
+        <v>1.9302999999999999</v>
       </c>
       <c r="AT6">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV6" s="2">
         <v>3</v>
@@ -1309,26 +1309,26 @@
       <c r="AK7">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7" s="13">
         <v>4</v>
       </c>
       <c r="AN7">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO7">
         <v>5</v>
       </c>
       <c r="AP7">
-        <v>1.8684920416550179</v>
+        <v>0.87587287051627427</v>
       </c>
       <c r="AQ7">
-        <v>7.0789165709590884</v>
+        <v>3.8667462237616959</v>
       </c>
       <c r="AR7">
-        <v>2.9329999999999998</v>
+        <v>2.01986</v>
       </c>
       <c r="AT7">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV7" s="2">
         <v>4</v>
@@ -1437,26 +1437,26 @@
       <c r="AK8">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8" s="13">
         <v>5</v>
       </c>
       <c r="AN8">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO8">
         <v>6</v>
       </c>
       <c r="AP8">
-        <v>1.9108926159639159</v>
+        <v>0.899439328126167</v>
       </c>
       <c r="AQ8">
-        <v>7.0247646347519312</v>
+        <v>3.8792310289968079</v>
       </c>
       <c r="AR8">
-        <v>3.246</v>
+        <v>2.1240600000000001</v>
       </c>
       <c r="AT8">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV8" s="2">
         <v>5</v>
@@ -1565,26 +1565,26 @@
       <c r="AK9">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9" s="13">
         <v>6</v>
       </c>
       <c r="AN9">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO9">
         <v>7</v>
       </c>
       <c r="AP9">
-        <v>1.9719536636964721</v>
+        <v>0.90902324333846707</v>
       </c>
       <c r="AQ9">
-        <v>7.0009164783420532</v>
+        <v>3.890673718202788</v>
       </c>
       <c r="AR9">
-        <v>3.3266</v>
+        <v>2.2251599999999998</v>
       </c>
       <c r="AT9">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV9" s="2">
         <v>6</v>
@@ -1693,26 +1693,26 @@
       <c r="AK10">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10" s="13">
         <v>7</v>
       </c>
       <c r="AN10">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO10">
         <v>8</v>
       </c>
       <c r="AP10">
-        <v>1.9825796362218131</v>
+        <v>0.93068688369503749</v>
       </c>
       <c r="AQ10">
-        <v>7.0081354631080339</v>
+        <v>3.8851626912297319</v>
       </c>
       <c r="AR10">
-        <v>3.4296000000000002</v>
+        <v>2.2700900000000002</v>
       </c>
       <c r="AT10">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV10" s="2">
         <v>7</v>
@@ -1821,26 +1821,26 @@
       <c r="AK11">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11" s="13">
         <v>8</v>
       </c>
       <c r="AN11">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="AO11">
         <v>9</v>
       </c>
       <c r="AP11">
-        <v>1.9878060589383759</v>
+        <v>0.93225341578754384</v>
       </c>
       <c r="AQ11">
-        <v>7.014036107114384</v>
+        <v>3.8853954153393269</v>
       </c>
       <c r="AR11">
-        <v>3.5177</v>
+        <v>2.2775379999999998</v>
       </c>
       <c r="AT11">
-        <v>8.4078995600273103</v>
+        <v>4.1615592847749499</v>
       </c>
       <c r="AV11" s="2">
         <v>8</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="G20">
         <f>(AQ3-AQ4)/AQ4</f>
-        <v>4.7611854691151555E-2</v>
+        <v>1.1042853717827929E-2</v>
       </c>
       <c r="H20" s="4">
         <f>(AZ3-AZ4)/AZ4</f>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="R20">
         <f>(AP4-AP3)/AP4</f>
-        <v>0.46133272232418193</v>
+        <v>0.25951198234371448</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" ref="G21:G27" si="2">(AQ4-AQ5)/AQ5</f>
-        <v>2.5213045046201057E-2</v>
+        <v>2.0090557373475284E-2</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:H27" si="3">(AZ4-AZ5)/AZ5</f>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="R21">
         <f t="shared" ref="R21:R27" si="9">(AP5-AP4)/AP5</f>
-        <v>0.17411054293837819</v>
+        <v>0.21229867917953107</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
@@ -2100,8 +2100,8 @@
         <v>2.6828585624238292E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>7.9589252993141936E-3</v>
+        <f>(AQ5-AQ6)/AQ6</f>
+        <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="R22" s="4">
         <f t="shared" si="9"/>
-        <v>5.1509186544809536E-2</v>
+        <v>5.9839952835964098E-2</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>7.0587164351196847E-3</v>
+        <v>9.7996902403431237E-3</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="9"/>
-        <v>4.1202885363976427E-2</v>
+        <v>7.4313676922907565E-2</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>7.7087189425912323E-3</v>
+        <v>-3.2183711518570545E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="9"/>
-        <v>2.2188883851806486E-2</v>
+        <v>2.620127547567833E-2</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>3.4064334981933272E-3</v>
+        <v>-2.941055980213555E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="9"/>
-        <v>3.0964747730479546E-2</v>
+        <v>1.0543091480369964E-2</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>-1.0300863623402569E-3</v>
+        <v>1.4184803600365327E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="9"/>
-        <v>5.3596699629129985E-3</v>
+        <v>2.3277044875244048E-2</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>-8.4126227983984559E-4</v>
+        <v>-5.9897149380518581E-5</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="9"/>
-        <v>2.6292417678584219E-3</v>
+        <v>1.6803715234263625E-3</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B541F321-5D16-40A2-8F9C-90997414C0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDD042-6E1F-4AC2-A9E6-76903A15A304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>MSPE gain</t>
   </si>
   <si>
-    <t>Area6</t>
+    <t>Area3</t>
   </si>
   <si>
-    <t>area6</t>
+    <t>Area 2a</t>
   </si>
   <si>
-    <t>Area3</t>
+    <t>area2a</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,11 +179,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -212,6 +221,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -531,7 +546,7 @@
   <dimension ref="A2:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>0</v>
@@ -687,28 +702,28 @@
       <c r="AT2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AV2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AX2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -818,26 +833,26 @@
       <c r="AT3">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3" s="14">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX3">
         <v>1</v>
       </c>
       <c r="AY3">
-        <v>0.50256551695889551</v>
+        <v>0.3135243332821549</v>
       </c>
       <c r="AZ3">
-        <v>4.3907664578498364</v>
+        <v>2.9954063794763091</v>
       </c>
       <c r="BA3">
-        <v>0.40210000000000001</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="BC3">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.3">
@@ -946,26 +961,26 @@
       <c r="AT4">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4" s="14">
         <v>1</v>
       </c>
       <c r="AW4">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX4">
         <v>2</v>
       </c>
       <c r="AY4">
-        <v>0.66280653499284425</v>
+        <v>0.38298251998665372</v>
       </c>
       <c r="AZ4">
-        <v>4.1682045684297524</v>
+        <v>2.9476851302561782</v>
       </c>
       <c r="BA4">
-        <v>1.3001</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="BC4">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.3">
@@ -1074,26 +1089,26 @@
       <c r="AT5">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5" s="14">
         <v>2</v>
       </c>
       <c r="AW5">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX5">
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>0.7423871310519472</v>
+        <v>0.44056957653022139</v>
       </c>
       <c r="AZ5">
-        <v>4.1756774911279919</v>
+        <v>2.9007226778188611</v>
       </c>
       <c r="BA5">
-        <v>1.4114</v>
+        <v>1.1079399999999999</v>
       </c>
       <c r="BC5">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.3">
@@ -1202,26 +1217,26 @@
       <c r="AT6">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV6" s="14">
         <v>3</v>
       </c>
       <c r="AW6">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX6">
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>0.7628781440870358</v>
+        <v>0.46639236828656983</v>
       </c>
       <c r="AZ6">
-        <v>4.155595433770622</v>
+        <v>2.8925363310549952</v>
       </c>
       <c r="BA6">
-        <v>1.6114999999999999</v>
+        <v>1.30124</v>
       </c>
       <c r="BC6">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.3">
@@ -1330,26 +1345,26 @@
       <c r="AT7">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7" s="14">
         <v>4</v>
       </c>
       <c r="AW7">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX7">
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>0.78330413927710496</v>
+        <v>0.48175799781117462</v>
       </c>
       <c r="AZ7">
-        <v>4.1342699472783684</v>
+        <v>2.888593606065291</v>
       </c>
       <c r="BA7">
-        <v>1.8039000000000001</v>
+        <v>1.4191400000000001</v>
       </c>
       <c r="BC7">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.3">
@@ -1458,26 +1473,26 @@
       <c r="AT8">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AV8" s="14">
         <v>5</v>
       </c>
       <c r="AW8">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX8">
         <v>6</v>
       </c>
       <c r="AY8">
-        <v>0.78911886350317517</v>
+        <v>0.49471381023515693</v>
       </c>
       <c r="AZ8">
-        <v>4.1311647529014728</v>
+        <v>2.8804926344385868</v>
       </c>
       <c r="BA8">
-        <v>1.9571000000000001</v>
+        <v>1.54254</v>
       </c>
       <c r="BC8">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
@@ -1586,26 +1601,26 @@
       <c r="AT9">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9" s="14">
         <v>6</v>
       </c>
       <c r="AW9">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX9">
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>0.80458143034257912</v>
+        <v>0.51339599194252106</v>
       </c>
       <c r="AZ9">
-        <v>4.1216865389879196</v>
+        <v>2.8635889594376751</v>
       </c>
       <c r="BA9">
-        <v>2.0281799999999999</v>
+        <v>1.5974999999999999</v>
       </c>
       <c r="BC9">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
@@ -1714,26 +1729,26 @@
       <c r="AT10">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="AV10" s="14">
         <v>7</v>
       </c>
       <c r="AW10">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX10">
         <v>8</v>
       </c>
       <c r="AY10">
-        <v>0.80717531674573884</v>
+        <v>0.51969332790896883</v>
       </c>
       <c r="AZ10">
-        <v>4.1208121840796119</v>
+        <v>2.8618594153307289</v>
       </c>
       <c r="BA10">
-        <v>2.1436799999999998</v>
+        <v>1.6208450000000001</v>
       </c>
       <c r="BC10">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
@@ -1842,26 +1857,26 @@
       <c r="AT11">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AV11" s="14">
         <v>8</v>
       </c>
       <c r="AW11">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="AX11">
         <v>9</v>
       </c>
       <c r="AY11">
-        <v>0.81501240390430063</v>
+        <v>0.52078218128686538</v>
       </c>
       <c r="AZ11">
-        <v>4.112520540372838</v>
+        <v>2.8626624943766159</v>
       </c>
       <c r="BA11">
-        <v>2.19781</v>
+        <v>1.629678</v>
       </c>
       <c r="BC11">
-        <v>4.7976927628955961</v>
+        <v>3.226396680182666</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
@@ -1908,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>1</v>
@@ -1995,9 +2010,9 @@
         <f>(AQ3-AQ4)/AQ4</f>
         <v>1.1042853717827929E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <f>(AZ3-AZ4)/AZ4</f>
-        <v>5.3395145503601721E-2</v>
+        <v>1.6189398497926916E-2</v>
       </c>
       <c r="M20" s="6">
         <f>M19+1</f>
@@ -2049,32 +2064,32 @@
         <f t="shared" ref="G21:G27" si="2">(AQ4-AQ5)/AQ5</f>
         <v>2.0090557373475284E-2</v>
       </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H27" si="3">(AZ4-AZ5)/AZ5</f>
-        <v>-1.7896311949658797E-3</v>
+      <c r="H21" s="4">
+        <f>(AZ4-AZ5)/AZ5</f>
+        <v>1.6189914601774193E-2</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" ref="M21:M28" si="4">M20+1</f>
+        <f t="shared" ref="M21:M28" si="3">M20+1</f>
         <v>3</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N27" si="5">(D5-D4)/D5</f>
+        <f t="shared" ref="N21:N27" si="4">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O29" si="6">(O5-O4)/O5</f>
+        <f t="shared" ref="O21:O29" si="5">(O5-O4)/O5</f>
         <v>8.5557354256765014E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P27" si="7">(X5-X4)/X5</f>
+        <f t="shared" ref="P21:P27" si="6">(X5-X4)/X5</f>
         <v>7.1481595096278494E-2</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q27" si="8">(AG5-AG4)/AG5</f>
+        <f t="shared" ref="Q21:Q27" si="7">(AG5-AG4)/AG5</f>
         <v>9.773195075543345E-2</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R27" si="9">(AP5-AP4)/AP5</f>
+        <f t="shared" ref="R21:R27" si="8">(AP5-AP4)/AP5</f>
         <v>0.21229867917953107</v>
       </c>
     </row>
@@ -2088,11 +2103,11 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="10">(P5-P6)/P6</f>
+        <f t="shared" ref="D22:D27" si="9">(P5-P6)/P6</f>
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="11">(Y5-Y6)/Y6</f>
+        <f t="shared" ref="E22:E26" si="10">(Y5-Y6)/Y6</f>
         <v>8.3788475357532057E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2104,31 +2119,31 @@
         <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
+        <f t="shared" ref="H21:H27" si="11">(AZ5-AZ6)/AZ6</f>
+        <v>2.830162123108083E-3</v>
+      </c>
+      <c r="M22" s="6">
         <f t="shared" si="3"/>
-        <v>4.8325342727475852E-3</v>
-      </c>
-      <c r="M22" s="6">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="4">
+        <v>7.6646158209822388E-2</v>
+      </c>
+      <c r="O22" s="4">
         <f t="shared" si="5"/>
-        <v>7.6646158209822388E-2</v>
-      </c>
-      <c r="O22" s="4">
+        <v>5.8682521593663856E-2</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="6"/>
-        <v>5.8682521593663856E-2</v>
-      </c>
-      <c r="P22">
+        <v>7.2696141264064873E-2</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="7"/>
-        <v>7.2696141264064873E-2</v>
-      </c>
-      <c r="Q22">
+        <v>0.16708960155030728</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="8"/>
-        <v>0.16708960155030728</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="9"/>
         <v>5.9839952835964098E-2</v>
       </c>
     </row>
@@ -2142,11 +2157,11 @@
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
+        <f t="shared" si="9"/>
+        <v>-2.8219906800217784E-3</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="10"/>
-        <v>-2.8219906800217784E-3</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="11"/>
         <v>3.2751722261865736E-3</v>
       </c>
       <c r="F23" s="7">
@@ -2158,31 +2173,31 @@
         <v>9.7996902403431237E-3</v>
       </c>
       <c r="H23">
+        <f t="shared" si="11"/>
+        <v>1.3649289333831764E-3</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="3"/>
-        <v>5.1582230391831125E-3</v>
-      </c>
-      <c r="M23" s="6">
+        <v>5</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N23">
+        <v>4.9151504423963835E-2</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="5"/>
-        <v>4.9151504423963835E-2</v>
-      </c>
-      <c r="O23">
+        <v>3.0016184734596496E-2</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="6"/>
-        <v>3.0016184734596496E-2</v>
-      </c>
-      <c r="P23" s="4">
+        <v>5.3218237177546097E-2</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="7"/>
-        <v>5.3218237177546097E-2</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>3.899768779105587E-2</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="8"/>
-        <v>3.899768779105587E-2</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="9"/>
         <v>7.4313676922907565E-2</v>
       </c>
     </row>
@@ -2196,7 +2211,7 @@
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
@@ -2212,31 +2227,31 @@
         <v>-3.2183711518570545E-3</v>
       </c>
       <c r="H24">
+        <f t="shared" si="11"/>
+        <v>2.8123563066437401E-3</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="3"/>
-        <v>7.5165106274561154E-4</v>
-      </c>
-      <c r="M24" s="6">
+        <v>6</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="N24">
+        <v>4.2686815096649983E-2</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="5"/>
-        <v>4.2686815096649983E-2</v>
-      </c>
-      <c r="O24">
+        <v>4.4278249967540102E-2</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="6"/>
-        <v>4.4278249967540102E-2</v>
-      </c>
-      <c r="P24">
+        <v>3.9822575755710674E-2</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="7"/>
-        <v>3.9822575755710674E-2</v>
-      </c>
-      <c r="Q24">
+        <v>1.8254949408081911E-2</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="8"/>
-        <v>1.8254949408081911E-2</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="9"/>
         <v>2.620127547567833E-2</v>
       </c>
     </row>
@@ -2250,11 +2265,11 @@
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
+        <f t="shared" si="9"/>
+        <v>1.8539505663454855E-3</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="10"/>
-        <v>1.8539505663454855E-3</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="11"/>
         <v>7.6313763388460958E-3</v>
       </c>
       <c r="F25">
@@ -2266,31 +2281,31 @@
         <v>-2.941055980213555E-3</v>
       </c>
       <c r="H25">
+        <f t="shared" si="11"/>
+        <v>5.9029683520749106E-3</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="3"/>
-        <v>2.2995960085505597E-3</v>
-      </c>
-      <c r="M25" s="6">
+        <v>7</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N25">
+        <v>4.4785647777125841E-2</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="5"/>
-        <v>4.4785647777125841E-2</v>
-      </c>
-      <c r="O25">
+        <v>3.4152860871484746E-2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="6"/>
-        <v>3.4152860871484746E-2</v>
-      </c>
-      <c r="P25">
+        <v>3.8026372244194445E-2</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="7"/>
-        <v>3.8026372244194445E-2</v>
-      </c>
-      <c r="Q25">
+        <v>2.5035106576661761E-2</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="8"/>
-        <v>2.5035106576661761E-2</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="9"/>
         <v>1.0543091480369964E-2</v>
       </c>
     </row>
@@ -2308,7 +2323,7 @@
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.32010104704502E-3</v>
       </c>
       <c r="F26">
@@ -2320,31 +2335,31 @@
         <v>1.4184803600365327E-3</v>
       </c>
       <c r="H26">
+        <f t="shared" si="11"/>
+        <v>6.0434279115222837E-4</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="3"/>
-        <v>2.1218023759628373E-4</v>
-      </c>
-      <c r="M26" s="6">
+        <v>8</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N26">
+        <v>9.7504489348369978E-3</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="5"/>
-        <v>9.7504489348369978E-3</v>
-      </c>
-      <c r="O26">
+        <v>1.2852928851536664E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="6"/>
-        <v>1.2852928851536664E-2</v>
-      </c>
-      <c r="P26">
+        <v>1.4997704246726501E-2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="7"/>
-        <v>1.4997704246726501E-2</v>
-      </c>
-      <c r="Q26">
+        <v>2.3023925946269997E-2</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="8"/>
-        <v>2.3023925946269997E-2</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="9"/>
         <v>2.3277044875244048E-2</v>
       </c>
     </row>
@@ -2358,7 +2373,7 @@
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
@@ -2374,31 +2389,31 @@
         <v>-5.9897149380518581E-5</v>
       </c>
       <c r="H27">
+        <f t="shared" si="11"/>
+        <v>-2.8053570669424576E-4</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="3"/>
-        <v>2.0161950865349885E-3</v>
-      </c>
-      <c r="M27" s="6">
+        <v>9</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="N27">
+        <v>4.4282359502808418E-3</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="5"/>
-        <v>4.4282359502808418E-3</v>
-      </c>
-      <c r="O27">
+        <v>5.0659100638200602E-3</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="6"/>
-        <v>5.0659100638200602E-3</v>
-      </c>
-      <c r="P27">
+        <v>7.6460337820037638E-3</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="7"/>
-        <v>7.6460337820037638E-3</v>
-      </c>
-      <c r="Q27">
+        <v>5.7068466060010122E-3</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="8"/>
-        <v>5.7068466060010122E-3</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="9"/>
         <v>1.6803715234263625E-3</v>
       </c>
     </row>
@@ -2408,11 +2423,11 @@
         <v>10</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O28" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2426,7 +2441,7 @@
         <v>11</v>
       </c>
       <c r="O29" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDD042-6E1F-4AC2-A9E6-76903A15A304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009CC9A-6CEB-461A-B165-1DD515808FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>search_radius</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>area2a</t>
+  </si>
+  <si>
+    <t>area2b</t>
+  </si>
+  <si>
+    <t>Area 2b</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,9 +227,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
-  <dimension ref="A2:BC30"/>
+  <dimension ref="A2:BN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,34 +560,34 @@
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -609,125 +612,151 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AF2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AK2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AL2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AP2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AQ2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AU2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AX2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AY2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AX2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AZ2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BB2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BC2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BD2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BE2" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="BG2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -749,113 +778,134 @@
       <c r="H3">
         <v>2.995599830918374</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>50000</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>0.48067336594687038</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3.7283063930572342</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U3" s="13">
+      <c r="W3" s="13">
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>75000</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>0.38033031902469272</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>3.6025795623284291</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.75180000000000002</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AF3" s="13">
         <v>0</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>90000</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>0.53794659513894327</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>3.296988220851615</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>1.006</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AO3" s="13">
         <v>0</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>70000</v>
       </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
         <v>0.44461726443180999</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>4.0161955823321929</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>0.68979999999999997</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV3" s="14">
+      <c r="AX3" s="13">
         <v>0</v>
       </c>
-      <c r="AW3">
+      <c r="AY3">
         <v>25000</v>
       </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
         <v>0.3135243332821549</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>2.9954063794763091</v>
       </c>
-      <c r="BA3">
+      <c r="BC3">
         <v>0.70279999999999998</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG3" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>22500</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>0.22445657144535569</v>
+      </c>
+      <c r="BK3">
+        <v>4.2051235592021188</v>
+      </c>
+      <c r="BL3">
+        <v>1.3351999999999999</v>
+      </c>
+      <c r="BN3">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -877,113 +927,134 @@
       <c r="H4">
         <v>2.995599830918374</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>50000</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.76520614282182042</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>3.6058896144473729</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>1.4483999999999999</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U4" s="13">
-        <v>1</v>
-      </c>
-      <c r="V4">
+      <c r="W4" s="13">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>75000</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.69008680305220649</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>3.3636685309936909</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>1.3849</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE4">
+      <c r="AF4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG4">
         <v>90000</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>2</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0.72813774884466864</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>3.1505799926727289</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>1.4530000000000001</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN4">
+      <c r="AO4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP4">
         <v>70000</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>2</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>0.60043816217184121</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>3.9723297262462758</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>1.1192</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AW4">
+      <c r="AX4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY4">
         <v>25000</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
         <v>2</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>0.38298251998665372</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>2.9476851302561782</v>
       </c>
-      <c r="BA4">
+      <c r="BC4">
         <v>0.92720000000000002</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>22500</v>
+      </c>
+      <c r="BI4">
+        <v>2</v>
+      </c>
+      <c r="BJ4">
+        <v>0.36957190579716998</v>
+      </c>
+      <c r="BK4">
+        <v>4.1280536110648516</v>
+      </c>
+      <c r="BL4">
+        <v>1.8603000000000001</v>
+      </c>
+      <c r="BN4">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1005,113 +1076,134 @@
       <c r="H5">
         <v>2.995599830918374</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>50000</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.83680058709409921</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3.600120342288808</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>1.7071000000000001</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U5" s="13">
+      <c r="W5" s="13">
         <v>2</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>75000</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>3</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.74321284253246644</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>3.3523063974154081</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>1.7165999999999999</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AF5" s="13">
         <v>2</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>90000</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>3</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.80700823824395607</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>3.14240151487407</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>1.7876000000000001</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AO5" s="13">
         <v>2</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>70000</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>3</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>0.76226628837745936</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>3.8940951835435209</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>1.6471</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV5" s="14">
+      <c r="AX5" s="13">
         <v>2</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>25000</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>3</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>0.44056957653022139</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>2.9007226778188611</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>1.1079399999999999</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG5" s="13">
+        <v>2</v>
+      </c>
+      <c r="BH5">
+        <v>22500</v>
+      </c>
+      <c r="BI5">
+        <v>3</v>
+      </c>
+      <c r="BJ5">
+        <v>0.42531097324201539</v>
+      </c>
+      <c r="BK5">
+        <v>4.1857187989251718</v>
+      </c>
+      <c r="BL5">
+        <v>2.3582999999999998</v>
+      </c>
+      <c r="BN5">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -1133,113 +1225,134 @@
       <c r="H6">
         <v>2.995599830918374</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>50000</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.88896743796876532</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>3.5968213853286608</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>1.9228000000000001</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U6" s="13">
+      <c r="W6" s="13">
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>75000</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>4</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.80147713775890628</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>3.3244513266097129</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>1.95</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AF6" s="13">
         <v>3</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>90000</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>4</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.96890162464780283</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>3.0602980466926861</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>1.9857</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM6" s="13">
+      <c r="AO6" s="13">
         <v>3</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>70000</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>4</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>0.81078353699118821</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>3.904639138992577</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>1.9302999999999999</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV6" s="14">
+      <c r="AX6" s="13">
         <v>3</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>25000</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>4</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>0.46639236828656983</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>2.8925363310549952</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>1.30124</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG6" s="13">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>22500</v>
+      </c>
+      <c r="BI6">
+        <v>4</v>
+      </c>
+      <c r="BJ6">
+        <v>0.52555379164144767</v>
+      </c>
+      <c r="BK6">
+        <v>4.1527969844867956</v>
+      </c>
+      <c r="BL6">
+        <v>2.5823999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1261,113 +1374,134 @@
       <c r="H7">
         <v>2.995599830918374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>50000</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.91647656793688792</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>3.6070003065766558</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>2.1351</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U7" s="13">
+      <c r="W7" s="13">
         <v>4</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>75000</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>5</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.84652785808803543</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>3.3135987201128718</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>2.0798000000000001</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AF7" s="13">
         <v>4</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>90000</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>5</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>1.0082198682963639</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>3.0512501356848012</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>2.1518999999999999</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM7" s="13">
+      <c r="AO7" s="13">
         <v>4</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>70000</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>5</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>0.87587287051627427</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>3.8667462237616959</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>2.01986</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV7" s="14">
+      <c r="AX7" s="13">
         <v>4</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>25000</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>5</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>0.48175799781117462</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>2.888593606065291</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>1.4191400000000001</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG7" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH7">
+        <v>22500</v>
+      </c>
+      <c r="BI7">
+        <v>5</v>
+      </c>
+      <c r="BJ7">
+        <v>0.56381355508322006</v>
+      </c>
+      <c r="BK7">
+        <v>4.1740647229724948</v>
+      </c>
+      <c r="BL7">
+        <v>2.8435000000000001</v>
+      </c>
+      <c r="BN7">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1389,113 +1523,134 @@
       <c r="H8">
         <v>2.995599830918374</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>5</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>50000</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>6</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.95893660252658364</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3.609330173328666</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>2.3302999999999998</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U8" s="13">
+      <c r="W8" s="13">
         <v>5</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>75000</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>6</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.88163691075563233</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>3.3051287071358479</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>2.2050000000000001</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AF8" s="13">
         <v>5</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>90000</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>6</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>1.026967100764586</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>3.0533007950275342</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>2.2700999999999998</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM8" s="13">
+      <c r="AO8" s="13">
         <v>5</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>70000</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>6</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>0.899439328126167</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>3.8792310289968079</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>2.1240600000000001</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV8" s="14">
+      <c r="AX8" s="13">
         <v>5</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>25000</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>6</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>0.49471381023515693</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>2.8804926344385868</v>
       </c>
-      <c r="BA8">
+      <c r="BC8">
         <v>1.54254</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG8" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH8">
+        <v>22500</v>
+      </c>
+      <c r="BI8">
+        <v>6</v>
+      </c>
+      <c r="BJ8">
+        <v>0.59448430017612008</v>
+      </c>
+      <c r="BK8">
+        <v>4.2014789529715211</v>
+      </c>
+      <c r="BL8">
+        <v>3.0501</v>
+      </c>
+      <c r="BN8">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1517,113 +1672,134 @@
       <c r="H9">
         <v>2.995599830918374</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>6</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>50000</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.99284510320321806</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>3.6026510363993882</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>2.4392999999999998</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U9" s="13">
+      <c r="W9" s="13">
         <v>6</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>75000</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>7</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.91648760976161969</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>3.2800970521033079</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>2.3134000000000001</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AF9" s="13">
         <v>6</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>90000</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>7</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>1.053337517783492</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>3.050403551110147</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>2.3786</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM9" s="13">
+      <c r="AO9" s="13">
         <v>6</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>70000</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>7</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>0.90902324333846707</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>3.890673718202788</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>2.2251599999999998</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV9" s="14">
+      <c r="AX9" s="13">
         <v>6</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>25000</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>7</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>0.51339599194252106</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>2.8635889594376751</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>1.5974999999999999</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG9" s="13">
+        <v>6</v>
+      </c>
+      <c r="BH9">
+        <v>22500</v>
+      </c>
+      <c r="BI9">
+        <v>7</v>
+      </c>
+      <c r="BJ9">
+        <v>0.61575704291743538</v>
+      </c>
+      <c r="BK9">
+        <v>4.2136151266939219</v>
+      </c>
+      <c r="BL9">
+        <v>3.226999999999999</v>
+      </c>
+      <c r="BN9">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1645,113 +1821,134 @@
       <c r="H10">
         <v>2.995599830918374</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>7</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>50000</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>8</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>1.0057722220136109</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>3.5998258948558881</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>2.48062</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U10" s="13">
+      <c r="W10" s="13">
         <v>7</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>75000</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>8</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.9304421052752393</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>3.2725045109609678</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>2.3569</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AF10" s="13">
         <v>7</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>90000</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>8</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>1.0781610172016991</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>3.047668137060386</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>2.4780500000000001</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AO10" s="13">
         <v>7</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>70000</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>8</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>0.93068688369503749</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>3.8851626912297319</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>2.2700900000000002</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV10" s="14">
+      <c r="AX10" s="13">
         <v>7</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>25000</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>8</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>0.51969332790896883</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>2.8618594153307289</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>1.6208450000000001</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG10" s="13">
+        <v>7</v>
+      </c>
+      <c r="BH10">
+        <v>22500</v>
+      </c>
+      <c r="BI10">
+        <v>8</v>
+      </c>
+      <c r="BJ10">
+        <v>0.63114500185174216</v>
+      </c>
+      <c r="BK10">
+        <v>4.2209504061763301</v>
+      </c>
+      <c r="BL10">
+        <v>3.2835000000000001</v>
+      </c>
+      <c r="BN10">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1773,137 +1970,158 @@
       <c r="H11">
         <v>2.995599830918374</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>8</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>50000</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>9</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1.0108933166398251</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>3.5986832243048559</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>2.49329</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>3.7310623364769291</v>
       </c>
-      <c r="U11" s="13">
+      <c r="W11" s="13">
         <v>8</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>75000</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>9</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.93761111150821319</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>3.268319359703324</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>2.37229</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>3.748694078222786</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AF11" s="13">
         <v>8</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>90000</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>9</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>1.0843492319356911</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>3.0469519551982178</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>2.4956499999999999</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>3.68572083840303</v>
       </c>
-      <c r="AM11" s="13">
+      <c r="AO11" s="13">
         <v>8</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>70000</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>9</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>0.93225341578754384</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>3.8853954153393269</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>2.2775379999999998</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AV11" s="14">
+      <c r="AX11" s="13">
         <v>8</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>25000</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>9</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>0.52078218128686538</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>2.8626624943766159</v>
       </c>
-      <c r="BA11">
+      <c r="BC11">
         <v>1.629678</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>3.226396680182666</v>
       </c>
+      <c r="BG11" s="13">
+        <v>8</v>
+      </c>
+      <c r="BH11">
+        <v>22500</v>
+      </c>
+      <c r="BI11">
+        <v>9</v>
+      </c>
+      <c r="BJ11">
+        <v>0.63329750718907252</v>
+      </c>
+      <c r="BK11">
+        <v>4.2253186197428194</v>
+      </c>
+      <c r="BL11">
+        <v>3.30043</v>
+      </c>
+      <c r="BN11">
+        <v>4.0476445154746212</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1925,26 +2143,29 @@
       <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="I18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>1</v>
       </c>
@@ -1966,13 +2187,10 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
         <v>1</v>
       </c>
       <c r="P19">
@@ -1984,8 +2202,14 @@
       <c r="R19">
         <v>1</v>
       </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
@@ -1995,51 +2219,55 @@
         <v>6.3247996944086865E-2</v>
       </c>
       <c r="D20" s="4">
-        <f>(P3-P4)/P4</f>
+        <f>(R3-R4)/R4</f>
         <v>3.3949119828678542E-2</v>
       </c>
       <c r="E20" s="4">
-        <f>(Y3-Y4)/Y4</f>
+        <f>(AA3-AA4)/AA4</f>
         <v>7.1026924660783808E-2</v>
       </c>
       <c r="F20">
-        <f>(AH3-AH4)/AH4</f>
+        <f>(AJ3-AJ4)/AJ4</f>
         <v>4.6470246278268193E-2</v>
       </c>
       <c r="G20">
-        <f>(AQ3-AQ4)/AQ4</f>
+        <f>(AS3-AS4)/AS4</f>
         <v>1.1042853717827929E-2</v>
       </c>
       <c r="H20" s="7">
-        <f>(AZ3-AZ4)/AZ4</f>
+        <f>(BB3-BB4)/BB4</f>
         <v>1.6189398497926916E-2</v>
       </c>
-      <c r="M20" s="6">
-        <f>M19+1</f>
+      <c r="I20">
+        <f>(BK3-BK4)/BK4</f>
+        <v>1.8669803107859016E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <f>O19+1</f>
         <v>2</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <f>(D4-D3)/D4</f>
         <v>0.39581363878321912</v>
       </c>
-      <c r="O20">
-        <f>(O4-O3)/O4</f>
+      <c r="Q20">
+        <f>(Q4-Q3)/Q4</f>
         <v>0.37183807205949732</v>
       </c>
-      <c r="P20">
-        <f>(X4-X3)/X4</f>
+      <c r="R20">
+        <f>(Z4-Z3)/Z4</f>
         <v>0.44886597259574035</v>
       </c>
-      <c r="Q20">
-        <f>(AG4-AG3)/AG4</f>
+      <c r="S20">
+        <f>(AI4-AI3)/AI4</f>
         <v>0.26120216127717649</v>
       </c>
-      <c r="R20">
-        <f>(AP4-AP3)/AP4</f>
+      <c r="T20">
+        <f>(AR4-AR3)/AR4</f>
         <v>0.25951198234371448</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -2049,51 +2277,55 @@
         <v>1.476470116554285E-2</v>
       </c>
       <c r="D21">
-        <f>(P4-P5)/P5</f>
+        <f>(R4-R5)/R5</f>
         <v>1.602522029832221E-3</v>
       </c>
       <c r="E21">
-        <f>(Y4-Y5)/Y5</f>
+        <f>(AA4-AA5)/AA5</f>
         <v>3.3893481774347456E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="1">(AH4-AH5)/AH5</f>
+        <f t="shared" ref="F21:F27" si="1">(AJ4-AJ5)/AJ5</f>
         <v>2.6026202444045811E-3</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:G27" si="2">(AQ4-AQ5)/AQ5</f>
+        <f t="shared" ref="G21:G27" si="2">(AS4-AS5)/AS5</f>
         <v>2.0090557373475284E-2</v>
       </c>
       <c r="H21" s="4">
-        <f>(AZ4-AZ5)/AZ5</f>
+        <f>(BB4-BB5)/BB5</f>
         <v>1.6189914601774193E-2</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" ref="M21:M28" si="3">M20+1</f>
+      <c r="I21">
+        <f t="shared" ref="I21:I27" si="3">(BK4-BK5)/BK5</f>
+        <v>-1.377665118715758E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21:O28" si="4">O20+1</f>
         <v>3</v>
       </c>
-      <c r="N21">
-        <f t="shared" ref="N21:N27" si="4">(D5-D4)/D5</f>
+      <c r="P21">
+        <f t="shared" ref="P21:P27" si="5">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
-      <c r="O21">
-        <f t="shared" ref="O21:O29" si="5">(O5-O4)/O5</f>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q29" si="6">(Q5-Q4)/Q5</f>
         <v>8.5557354256765014E-2</v>
       </c>
-      <c r="P21">
-        <f t="shared" ref="P21:P27" si="6">(X5-X4)/X5</f>
+      <c r="R21">
+        <f t="shared" ref="R21:R27" si="7">(Z5-Z4)/Z5</f>
         <v>7.1481595096278494E-2</v>
       </c>
-      <c r="Q21">
-        <f t="shared" ref="Q21:Q27" si="7">(AG5-AG4)/AG5</f>
+      <c r="S21">
+        <f t="shared" ref="S21:S27" si="8">(AI5-AI4)/AI5</f>
         <v>9.773195075543345E-2</v>
       </c>
-      <c r="R21">
-        <f t="shared" ref="R21:R27" si="8">(AP5-AP4)/AP5</f>
+      <c r="T21">
+        <f t="shared" ref="T21:T27" si="9">(AR5-AR4)/AR5</f>
         <v>0.21229867917953107</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2103,11 +2335,11 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="9">(P5-P6)/P6</f>
+        <f t="shared" ref="D22:D27" si="10">(R5-R6)/R6</f>
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="10">(Y5-Y6)/Y6</f>
+        <f t="shared" ref="E22:E26" si="11">(AA5-AA6)/AA6</f>
         <v>8.3788475357532057E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2115,57 +2347,61 @@
         <v>2.6828585624238292E-2</v>
       </c>
       <c r="G22">
-        <f>(AQ5-AQ6)/AQ6</f>
+        <f>(AS5-AS6)/AS6</f>
         <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H21:H27" si="11">(AZ5-AZ6)/AZ6</f>
+        <f t="shared" ref="H22:H27" si="12">(BB5-BB6)/BB6</f>
         <v>2.830162123108083E-3</v>
       </c>
-      <c r="M22" s="6">
+      <c r="I22">
         <f t="shared" si="3"/>
+        <v>7.9276243364072765E-3</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="4"/>
+      <c r="P22" s="4">
+        <f t="shared" si="5"/>
         <v>7.6646158209822388E-2</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="5"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="6"/>
         <v>5.8682521593663856E-2</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="6"/>
+      <c r="R22">
+        <f t="shared" si="7"/>
         <v>7.2696141264064873E-2</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="7"/>
+      <c r="S22">
+        <f t="shared" si="8"/>
         <v>0.16708960155030728</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" si="8"/>
+      <c r="T22" s="4">
+        <f t="shared" si="9"/>
         <v>5.9839952835964098E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C27" si="12">(E6-E7)/E7</f>
+        <f t="shared" ref="C23:C27" si="13">(E6-E7)/E7</f>
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.8219906800217784E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2751722261865736E-3</v>
       </c>
       <c r="F23" s="7">
-        <f>(AH6-AH7)/AH7</f>
+        <f>(AJ6-AJ7)/AJ7</f>
         <v>2.9653127752681885E-3</v>
       </c>
       <c r="G23">
@@ -2173,49 +2409,53 @@
         <v>9.7996902403431237E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3649289333831764E-3</v>
       </c>
-      <c r="M23" s="6">
+      <c r="I23">
         <f t="shared" si="3"/>
+        <v>-5.0952105195325526E-3</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
+      <c r="P23">
+        <f t="shared" si="5"/>
         <v>4.9151504423963835E-2</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="5"/>
+      <c r="Q23">
+        <f t="shared" si="6"/>
         <v>3.0016184734596496E-2</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="6"/>
+      <c r="R23" s="4">
+        <f t="shared" si="7"/>
         <v>5.3218237177546097E-2</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="7"/>
+      <c r="S23" s="4">
+        <f t="shared" si="8"/>
         <v>3.899768779105587E-2</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="8"/>
+      <c r="T23">
+        <f t="shared" si="9"/>
         <v>7.4313676922907565E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
-        <f>(Y7-Y8)/Y8</f>
+        <f>(AA7-AA8)/AA8</f>
         <v>2.5626877884473687E-3</v>
       </c>
       <c r="F24">
@@ -2227,49 +2467,53 @@
         <v>-3.2183711518570545E-3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8123563066437401E-3</v>
       </c>
-      <c r="M24" s="6">
+      <c r="I24">
         <f t="shared" si="3"/>
+        <v>-6.5248999949499781E-3</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="4"/>
+      <c r="P24">
+        <f t="shared" si="5"/>
         <v>4.2686815096649983E-2</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
+      <c r="Q24">
+        <f t="shared" si="6"/>
         <v>4.4278249967540102E-2</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="6"/>
+      <c r="R24">
+        <f t="shared" si="7"/>
         <v>3.9822575755710674E-2</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="7"/>
+      <c r="S24">
+        <f t="shared" si="8"/>
         <v>1.8254949408081911E-2</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="8"/>
+      <c r="T24">
+        <f t="shared" si="9"/>
         <v>2.620127547567833E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8539505663454855E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.6313763388460958E-3</v>
       </c>
       <c r="F25">
@@ -2281,49 +2525,53 @@
         <v>-2.941055980213555E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.9029683520749106E-3</v>
       </c>
-      <c r="M25" s="6">
+      <c r="I25">
         <f t="shared" si="3"/>
+        <v>-2.8802283448994292E-3</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
+      <c r="P25">
+        <f t="shared" si="5"/>
         <v>4.4785647777125841E-2</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="5"/>
+      <c r="Q25">
+        <f t="shared" si="6"/>
         <v>3.4152860871484746E-2</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="6"/>
+      <c r="R25">
+        <f t="shared" si="7"/>
         <v>3.8026372244194445E-2</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="7"/>
+      <c r="S25">
+        <f t="shared" si="8"/>
         <v>2.5035106576661761E-2</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="8"/>
+      <c r="T25">
+        <f t="shared" si="9"/>
         <v>1.0543091480369964E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0720710504481175E-3</v>
       </c>
       <c r="D26">
-        <f>(P9-P10)/P10</f>
+        <f>(R9-R10)/R10</f>
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.32010104704502E-3</v>
       </c>
       <c r="F26">
@@ -2335,49 +2583,53 @@
         <v>1.4184803600365327E-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.0434279115222837E-4</v>
       </c>
-      <c r="M26" s="6">
+      <c r="I26">
         <f t="shared" si="3"/>
+        <v>-1.7378265026935181E-3</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="4"/>
+      <c r="P26">
+        <f t="shared" si="5"/>
         <v>9.7504489348369978E-3</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="5"/>
+      <c r="Q26">
+        <f t="shared" si="6"/>
         <v>1.2852928851536664E-2</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="6"/>
+      <c r="R26">
+        <f t="shared" si="7"/>
         <v>1.4997704246726501E-2</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="7"/>
+      <c r="S26">
+        <f t="shared" si="8"/>
         <v>2.3023925946269997E-2</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="8"/>
+      <c r="T26">
+        <f t="shared" si="9"/>
         <v>2.3277044875244048E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
-        <f>(Y10-Y11)/Y11</f>
+        <f>(AA10-AA11)/AA11</f>
         <v>1.2805209029584394E-3</v>
       </c>
       <c r="F27">
@@ -2389,63 +2641,67 @@
         <v>-5.9897149380518581E-5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.8053570669424576E-4</v>
       </c>
-      <c r="M27" s="6">
+      <c r="I27">
         <f t="shared" si="3"/>
+        <v>-1.0338187387996761E-3</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="4"/>
+      <c r="P27">
+        <f t="shared" si="5"/>
         <v>4.4282359502808418E-3</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="5"/>
+      <c r="Q27">
+        <f t="shared" si="6"/>
         <v>5.0659100638200602E-3</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="6"/>
+      <c r="R27">
+        <f t="shared" si="7"/>
         <v>7.6460337820037638E-3</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="7"/>
+      <c r="S27">
+        <f t="shared" si="8"/>
         <v>5.7068466060010122E-3</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="8"/>
+      <c r="T27">
+        <f t="shared" si="9"/>
         <v>1.6803715234263625E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="3"/>
+      <c r="O28" s="6">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O28" t="e">
-        <f t="shared" si="5"/>
+      <c r="Q28" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
       </c>
-      <c r="M29" s="6">
-        <f>M28+1</f>
+      <c r="O29" s="6">
+        <f>O28+1</f>
         <v>11</v>
       </c>
-      <c r="O29" t="e">
-        <f t="shared" si="5"/>
+      <c r="Q29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>12</v>
       </c>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9009CC9A-6CEB-461A-B165-1DD515808FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60A9F4-8DBA-466C-A4ED-8F64B0BBCDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t>search_radius</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Area 2b</t>
+  </si>
+  <si>
+    <t>Area 3a</t>
+  </si>
+  <si>
+    <t>area3a</t>
   </si>
 </sst>
 </file>
@@ -548,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
   <dimension ref="A2:BN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +579,7 @@
     <col min="26" max="27" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
@@ -2113,7 +2119,7 @@
       <c r="A15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2146,6 +2152,9 @@
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="J18" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="O18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2164,8 +2173,32 @@
       <c r="T18" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AF18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>1</v>
       </c>
@@ -2190,6 +2223,9 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
       <c r="O19" s="6">
         <v>1</v>
       </c>
@@ -2208,8 +2244,29 @@
       <c r="T19">
         <v>1</v>
       </c>
+      <c r="AF19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>14000</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0.31422856936735127</v>
+      </c>
+      <c r="AJ19">
+        <v>2.054841055749284</v>
+      </c>
+      <c r="AK19">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="AM19">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
@@ -2238,9 +2295,13 @@
         <f>(BB3-BB4)/BB4</f>
         <v>1.6189398497926916E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <f>(BK3-BK4)/BK4</f>
         <v>1.8669803107859016E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <f>(AJ19-AJ20)/AJ20</f>
+        <v>3.5312532254588018E-2</v>
       </c>
       <c r="O20" s="6">
         <f>O19+1</f>
@@ -2266,8 +2327,29 @@
         <f>(AR4-AR3)/AR4</f>
         <v>0.25951198234371448</v>
       </c>
+      <c r="AF20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>14000</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>0.43663630326231812</v>
+      </c>
+      <c r="AJ20">
+        <v>1.9847543536196559</v>
+      </c>
+      <c r="AK20">
+        <v>1.2202</v>
+      </c>
+      <c r="AM20">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -2300,32 +2382,57 @@
         <f t="shared" ref="I21:I27" si="3">(BK4-BK5)/BK5</f>
         <v>-1.377665118715758E-2</v>
       </c>
+      <c r="J21" s="7">
+        <f t="shared" ref="J21:J27" si="4">(AJ20-AJ21)/AJ21</f>
+        <v>-2.1916758437596592E-2</v>
+      </c>
       <c r="O21" s="6">
-        <f t="shared" ref="O21:O28" si="4">O20+1</f>
+        <f t="shared" ref="O21:O28" si="5">O20+1</f>
         <v>3</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P27" si="5">(D5-D4)/D5</f>
+        <f t="shared" ref="P21:P27" si="6">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q29" si="6">(Q5-Q4)/Q5</f>
+        <f t="shared" ref="Q21:Q29" si="7">(Q5-Q4)/Q5</f>
         <v>8.5557354256765014E-2</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R27" si="7">(Z5-Z4)/Z5</f>
+        <f t="shared" ref="R21:R27" si="8">(Z5-Z4)/Z5</f>
         <v>7.1481595096278494E-2</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:S27" si="8">(AI5-AI4)/AI5</f>
+        <f t="shared" ref="S21:S27" si="9">(AI5-AI4)/AI5</f>
         <v>9.773195075543345E-2</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21:T27" si="9">(AR5-AR4)/AR5</f>
+        <f t="shared" ref="T21:T27" si="10">(AR5-AR4)/AR5</f>
         <v>0.21229867917953107</v>
       </c>
+      <c r="AF21" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>14000</v>
+      </c>
+      <c r="AH21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>0.45510164011606169</v>
+      </c>
+      <c r="AJ21">
+        <v>2.029228463672665</v>
+      </c>
+      <c r="AK21">
+        <v>1.4260999999999999</v>
+      </c>
+      <c r="AM21">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2335,11 +2442,11 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="10">(R5-R6)/R6</f>
+        <f t="shared" ref="D22:D27" si="11">(R5-R6)/R6</f>
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="11">(AA5-AA6)/AA6</f>
+        <f t="shared" ref="E22:E26" si="12">(AA5-AA6)/AA6</f>
         <v>8.3788475357532057E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2351,53 +2458,78 @@
         <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="12">(BB5-BB6)/BB6</f>
+        <f t="shared" ref="H22:H27" si="13">(BB5-BB6)/BB6</f>
         <v>2.830162123108083E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
         <v>7.9276243364072765E-3</v>
       </c>
+      <c r="J22" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.8350744816032227E-2</v>
+      </c>
       <c r="O22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6646158209822388E-2</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8682521593663856E-2</v>
       </c>
       <c r="R22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.2696141264064873E-2</v>
       </c>
       <c r="S22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16708960155030728</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9839952835964098E-2</v>
       </c>
+      <c r="AF22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <v>14000</v>
+      </c>
+      <c r="AH22">
+        <v>4</v>
+      </c>
+      <c r="AI22">
+        <v>0.48008099093098472</v>
+      </c>
+      <c r="AJ22">
+        <v>2.0671624339921428</v>
+      </c>
+      <c r="AK22">
+        <v>1.5485</v>
+      </c>
+      <c r="AM22">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C27" si="13">(E6-E7)/E7</f>
+        <f t="shared" ref="C23:C27" si="14">(E6-E7)/E7</f>
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.8219906800217784E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2751722261865736E-3</v>
       </c>
       <c r="F23" s="7">
@@ -2409,49 +2541,74 @@
         <v>9.7996902403431237E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3649289333831764E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
         <v>-5.0952105195325526E-3</v>
       </c>
+      <c r="J23" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2731287179369934E-3</v>
+      </c>
       <c r="O23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9151504423963835E-2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0016184734596496E-2</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.3218237177546097E-2</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.899768779105587E-2</v>
       </c>
       <c r="T23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.4313676922907565E-2</v>
       </c>
+      <c r="AF23" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>14000</v>
+      </c>
+      <c r="AH23">
+        <v>5</v>
+      </c>
+      <c r="AI23">
+        <v>0.5226406867094312</v>
+      </c>
+      <c r="AJ23">
+        <v>2.0645340164466468</v>
+      </c>
+      <c r="AK23">
+        <v>1.6956</v>
+      </c>
+      <c r="AM23">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
@@ -2467,53 +2624,78 @@
         <v>-3.2183711518570545E-3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8123563066437401E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
         <v>-6.5248999949499781E-3</v>
       </c>
+      <c r="J24" s="7">
+        <f t="shared" si="4"/>
+        <v>5.8531846459644226E-3</v>
+      </c>
       <c r="O24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2686815096649983E-2</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4278249967540102E-2</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9822575755710674E-2</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8254949408081911E-2</v>
       </c>
       <c r="T24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.620127547567833E-2</v>
       </c>
+      <c r="AF24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG24">
+        <v>14000</v>
+      </c>
+      <c r="AH24">
+        <v>6</v>
+      </c>
+      <c r="AI24">
+        <v>0.55026160561707127</v>
+      </c>
+      <c r="AJ24">
+        <v>2.0525202365127591</v>
+      </c>
+      <c r="AK24">
+        <v>1.7874000000000001</v>
+      </c>
+      <c r="AM24">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8539505663454855E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6313763388460958E-3</v>
       </c>
       <c r="F25">
@@ -2525,45 +2707,70 @@
         <v>-2.941055980213555E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.9029683520749106E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
         <v>-2.8802283448994292E-3</v>
       </c>
+      <c r="J25" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.1010210922667262E-3</v>
+      </c>
       <c r="O25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4785647777125841E-2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4152860871484746E-2</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8026372244194445E-2</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5035106576661761E-2</v>
       </c>
       <c r="T25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0543091480369964E-2</v>
       </c>
+      <c r="AF25" s="13">
+        <v>6</v>
+      </c>
+      <c r="AG25">
+        <v>14000</v>
+      </c>
+      <c r="AH25">
+        <v>7</v>
+      </c>
+      <c r="AI25">
+        <v>0.55904622855672681</v>
+      </c>
+      <c r="AJ25">
+        <v>2.0568417043169829</v>
+      </c>
+      <c r="AK25">
+        <v>1.8151299999999999</v>
+      </c>
+      <c r="AM25">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0720710504481175E-3</v>
       </c>
       <c r="D26">
@@ -2571,7 +2778,7 @@
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.32010104704502E-3</v>
       </c>
       <c r="F26">
@@ -2583,49 +2790,74 @@
         <v>1.4184803600365327E-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.0434279115222837E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
         <v>-1.7378265026935181E-3</v>
       </c>
+      <c r="J26" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.4576303322335088E-3</v>
+      </c>
       <c r="O26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7504489348369978E-3</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2852928851536664E-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4997704246726501E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3023925946269997E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3277044875244048E-2</v>
       </c>
+      <c r="AF26" s="13">
+        <v>7</v>
+      </c>
+      <c r="AG26">
+        <v>14000</v>
+      </c>
+      <c r="AH26">
+        <v>8</v>
+      </c>
+      <c r="AI26">
+        <v>0.56412695093570242</v>
+      </c>
+      <c r="AJ26">
+        <v>2.0598441956963049</v>
+      </c>
+      <c r="AK26">
+        <v>1.83718</v>
+      </c>
+      <c r="AM26">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
@@ -2641,53 +2873,78 @@
         <v>-5.9897149380518581E-5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.8053570669424576E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
         <v>-1.0338187387996761E-3</v>
       </c>
+      <c r="J27" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.1749029336880754E-3</v>
+      </c>
       <c r="O27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4282359502808418E-3</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0659100638200602E-3</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6460337820037638E-3</v>
       </c>
       <c r="S27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7068466060010122E-3</v>
       </c>
       <c r="T27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6803715234263625E-3</v>
       </c>
+      <c r="AF27" s="13">
+        <v>8</v>
+      </c>
+      <c r="AG27">
+        <v>14000</v>
+      </c>
+      <c r="AH27">
+        <v>9</v>
+      </c>
+      <c r="AI27">
+        <v>0.56534309497970381</v>
+      </c>
+      <c r="AJ27">
+        <v>2.0622671594319701</v>
+      </c>
+      <c r="AK27">
+        <v>1.8484799999999999</v>
+      </c>
+      <c r="AM27">
+        <v>2.1509747809021862</v>
+      </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q28" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
@@ -2697,11 +2954,11 @@
         <v>11</v>
       </c>
       <c r="Q29" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>12</v>
       </c>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60A9F4-8DBA-466C-A4ED-8F64B0BBCDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB96E4C-CB1E-402A-B8ED-FAFE29D9E2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>search_radius</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>area3a</t>
+  </si>
+  <si>
+    <t>area3b</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -236,6 +239,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
-  <dimension ref="A2:BN30"/>
+  <dimension ref="A2:BP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,34 +572,34 @@
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="12" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -620,149 +626,151 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AH2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AL2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AN2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AO2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AR2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AQ2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AU2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AW2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="BA2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BB2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="12" t="s">
+      <c r="BD2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BE2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BF2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BI2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BK2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BK2" s="12" t="s">
+      <c r="BM2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BN2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="12" t="s">
+      <c r="BO2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BP2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -784,134 +792,134 @@
       <c r="H3">
         <v>2.995599830918374</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>50000</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>0.48067336594687038</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>3.7283063930572342</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W3" s="13">
+      <c r="Y3" s="13">
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>75000</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
         <v>0.38033031902469272</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>3.6025795623284291</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>0.75180000000000002</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AH3" s="13">
         <v>0</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>90000</v>
       </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
         <v>0.53794659513894327</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>3.296988220851615</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>1.006</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AQ3" s="13">
         <v>0</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>70000</v>
       </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
         <v>0.44461726443180999</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>4.0161955823321929</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>0.68979999999999997</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX3" s="13">
+      <c r="AZ3" s="13">
         <v>0</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>25000</v>
       </c>
-      <c r="AZ3">
-        <v>1</v>
-      </c>
-      <c r="BA3">
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
         <v>0.3135243332821549</v>
       </c>
-      <c r="BB3">
+      <c r="BD3">
         <v>2.9954063794763091</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>0.70279999999999998</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG3" s="13">
+      <c r="BI3" s="13">
         <v>0</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>22500</v>
       </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3">
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
         <v>0.22445657144535569</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>4.2051235592021188</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>1.3351999999999999</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -933,134 +941,134 @@
       <c r="H4">
         <v>2.995599830918374</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>50000</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.76520614282182042</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3.6058896144473729</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>1.4483999999999999</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W4" s="13">
-        <v>1</v>
-      </c>
-      <c r="X4">
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>75000</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>0.69008680305220649</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>3.3636685309936909</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>1.3849</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG4">
+      <c r="AH4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>90000</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>2</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>0.72813774884466864</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>3.1505799926727289</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>1.4530000000000001</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP4">
+      <c r="AQ4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR4">
         <v>70000</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>2</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>0.60043816217184121</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>3.9723297262462758</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>1.1192</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AY4">
+      <c r="AZ4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA4">
         <v>25000</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>2</v>
       </c>
-      <c r="BA4">
+      <c r="BC4">
         <v>0.38298251998665372</v>
       </c>
-      <c r="BB4">
+      <c r="BD4">
         <v>2.9476851302561782</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>0.92720000000000002</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="BH4">
+      <c r="BI4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
         <v>22500</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>2</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>0.36957190579716998</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>4.1280536110648516</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>1.8603000000000001</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1082,134 +1090,134 @@
       <c r="H5">
         <v>2.995599830918374</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>50000</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.83680058709409921</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>3.600120342288808</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1.7071000000000001</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W5" s="13">
+      <c r="Y5" s="13">
         <v>2</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>75000</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>3</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>0.74321284253246644</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>3.3523063974154081</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>1.7165999999999999</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AH5" s="13">
         <v>2</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>90000</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>3</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>0.80700823824395607</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>3.14240151487407</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>1.7876000000000001</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO5" s="13">
+      <c r="AQ5" s="13">
         <v>2</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>70000</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>3</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>0.76226628837745936</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>3.8940951835435209</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>1.6471</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX5" s="13">
+      <c r="AZ5" s="13">
         <v>2</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>25000</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>3</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>0.44056957653022139</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>2.9007226778188611</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>1.1079399999999999</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG5" s="13">
+      <c r="BI5" s="13">
         <v>2</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>22500</v>
       </c>
-      <c r="BI5">
+      <c r="BK5">
         <v>3</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>0.42531097324201539</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>4.1857187989251718</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>2.3582999999999998</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -1231,134 +1239,134 @@
       <c r="H6">
         <v>2.995599830918374</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>50000</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.88896743796876532</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>3.5968213853286608</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>1.9228000000000001</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W6" s="13">
+      <c r="Y6" s="13">
         <v>3</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>75000</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>4</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>0.80147713775890628</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>3.3244513266097129</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>1.95</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AH6" s="13">
         <v>3</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>90000</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>4</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>0.96890162464780283</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>3.0602980466926861</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>1.9857</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO6" s="13">
+      <c r="AQ6" s="13">
         <v>3</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>70000</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>4</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>0.81078353699118821</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>3.904639138992577</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>1.9302999999999999</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX6" s="13">
+      <c r="AZ6" s="13">
         <v>3</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>25000</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>4</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>0.46639236828656983</v>
       </c>
-      <c r="BB6">
+      <c r="BD6">
         <v>2.8925363310549952</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>1.30124</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG6" s="13">
+      <c r="BI6" s="13">
         <v>3</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>22500</v>
       </c>
-      <c r="BI6">
+      <c r="BK6">
         <v>4</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>0.52555379164144767</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>4.1527969844867956</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>2.5823999999999998</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1380,134 +1388,134 @@
       <c r="H7">
         <v>2.995599830918374</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>4</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>50000</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.91647656793688792</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>3.6070003065766558</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>2.1351</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W7" s="13">
+      <c r="Y7" s="13">
         <v>4</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>75000</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>5</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>0.84652785808803543</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>3.3135987201128718</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>2.0798000000000001</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AH7" s="13">
         <v>4</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>90000</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>1.0082198682963639</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>3.0512501356848012</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>2.1518999999999999</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AQ7" s="13">
         <v>4</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>70000</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>5</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>0.87587287051627427</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>3.8667462237616959</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>2.01986</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX7" s="13">
+      <c r="AZ7" s="13">
         <v>4</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>25000</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>5</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>0.48175799781117462</v>
       </c>
-      <c r="BB7">
+      <c r="BD7">
         <v>2.888593606065291</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>1.4191400000000001</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG7" s="13">
+      <c r="BI7" s="13">
         <v>4</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>22500</v>
       </c>
-      <c r="BI7">
+      <c r="BK7">
         <v>5</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>0.56381355508322006</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>4.1740647229724948</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>2.8435000000000001</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1529,134 +1537,134 @@
       <c r="H8">
         <v>2.995599830918374</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>5</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>50000</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.95893660252658364</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>3.609330173328666</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>2.3302999999999998</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W8" s="13">
+      <c r="Y8" s="13">
         <v>5</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>75000</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>6</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>0.88163691075563233</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>3.3051287071358479</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>2.2050000000000001</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AH8" s="13">
         <v>5</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>90000</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>6</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>1.026967100764586</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>3.0533007950275342</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>2.2700999999999998</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO8" s="13">
+      <c r="AQ8" s="13">
         <v>5</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>70000</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>6</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>0.899439328126167</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>3.8792310289968079</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>2.1240600000000001</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX8" s="13">
+      <c r="AZ8" s="13">
         <v>5</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>25000</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>6</v>
       </c>
-      <c r="BA8">
+      <c r="BC8">
         <v>0.49471381023515693</v>
       </c>
-      <c r="BB8">
+      <c r="BD8">
         <v>2.8804926344385868</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>1.54254</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG8" s="13">
+      <c r="BI8" s="13">
         <v>5</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>22500</v>
       </c>
-      <c r="BI8">
+      <c r="BK8">
         <v>6</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>0.59448430017612008</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>4.2014789529715211</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>3.0501</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1678,134 +1686,134 @@
       <c r="H9">
         <v>2.995599830918374</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>50000</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.99284510320321806</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>3.6026510363993882</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>2.4392999999999998</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W9" s="13">
+      <c r="Y9" s="13">
         <v>6</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>75000</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>7</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>0.91648760976161969</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>3.2800970521033079</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>2.3134000000000001</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AH9" s="13">
         <v>6</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>90000</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>7</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>1.053337517783492</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>3.050403551110147</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>2.3786</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO9" s="13">
+      <c r="AQ9" s="13">
         <v>6</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>70000</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>7</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>0.90902324333846707</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>3.890673718202788</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>2.2251599999999998</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX9" s="13">
+      <c r="AZ9" s="13">
         <v>6</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>25000</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>7</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>0.51339599194252106</v>
       </c>
-      <c r="BB9">
+      <c r="BD9">
         <v>2.8635889594376751</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>1.5974999999999999</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG9" s="13">
+      <c r="BI9" s="13">
         <v>6</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>22500</v>
       </c>
-      <c r="BI9">
+      <c r="BK9">
         <v>7</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>0.61575704291743538</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>4.2136151266939219</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>3.226999999999999</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1827,134 +1835,134 @@
       <c r="H10">
         <v>2.995599830918374</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>7</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>50000</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>8</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1.0057722220136109</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>3.5998258948558881</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>2.48062</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W10" s="13">
+      <c r="Y10" s="13">
         <v>7</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>75000</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>8</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>0.9304421052752393</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>3.2725045109609678</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>2.3569</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AH10" s="13">
         <v>7</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>90000</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>8</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>1.0781610172016991</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>3.047668137060386</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>2.4780500000000001</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO10" s="13">
+      <c r="AQ10" s="13">
         <v>7</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>70000</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>8</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>0.93068688369503749</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>3.8851626912297319</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>2.2700900000000002</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX10" s="13">
+      <c r="AZ10" s="13">
         <v>7</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>25000</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>8</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>0.51969332790896883</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>2.8618594153307289</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>1.6208450000000001</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG10" s="13">
+      <c r="BI10" s="13">
         <v>7</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>22500</v>
       </c>
-      <c r="BI10">
+      <c r="BK10">
         <v>8</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>0.63114500185174216</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>4.2209504061763301</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>3.2835000000000001</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1976,158 +1984,158 @@
       <c r="H11">
         <v>2.995599830918374</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>8</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>50000</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>9</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>1.0108933166398251</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>3.5986832243048559</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>2.49329</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>3.7310623364769291</v>
       </c>
-      <c r="W11" s="13">
+      <c r="Y11" s="13">
         <v>8</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>75000</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>9</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.93761111150821319</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>3.268319359703324</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>2.37229</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>3.748694078222786</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AH11" s="13">
         <v>8</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>90000</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>9</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>1.0843492319356911</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>3.0469519551982178</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>2.4956499999999999</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>3.68572083840303</v>
       </c>
-      <c r="AO11" s="13">
+      <c r="AQ11" s="13">
         <v>8</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>70000</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>9</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>0.93225341578754384</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>3.8853954153393269</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>2.2775379999999998</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AX11" s="13">
+      <c r="AZ11" s="13">
         <v>8</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>25000</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>9</v>
       </c>
-      <c r="BA11">
+      <c r="BC11">
         <v>0.52078218128686538</v>
       </c>
-      <c r="BB11">
+      <c r="BD11">
         <v>2.8626624943766159</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>1.629678</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>3.226396680182666</v>
       </c>
-      <c r="BG11" s="13">
+      <c r="BI11" s="13">
         <v>8</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>22500</v>
       </c>
-      <c r="BI11">
+      <c r="BK11">
         <v>9</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>0.63329750718907252</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>4.2253186197428194</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>3.30043</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2155,50 +2163,75 @@
       <c r="J18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5" t="s">
+      <c r="K18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="Q18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="V18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="8" t="s">
+      <c r="AH18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AG18" s="12" t="s">
+      <c r="AI18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AH18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="12" t="s">
+      <c r="AJ18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AJ18" s="12" t="s">
+      <c r="AL18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AK18" s="12" t="s">
+      <c r="AM18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL18" s="12" t="s">
+      <c r="AN18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AM18" s="12" t="s">
+      <c r="AO18" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="AR18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX18" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>1</v>
       </c>
@@ -2226,13 +2259,11 @@
       <c r="J19" s="7">
         <v>1</v>
       </c>
-      <c r="O19" s="6">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="Q19" s="6">
         <v>1</v>
       </c>
       <c r="R19">
@@ -2244,29 +2275,56 @@
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="13">
         <v>0</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>14000</v>
       </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
         <v>0.31422856936735127</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>2.054841055749284</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>0.84230000000000005</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>14000</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1.6513097691810169E-2</v>
+      </c>
+      <c r="AU19">
+        <v>0.88823239422435396</v>
+      </c>
+      <c r="AV19">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="AX19">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
@@ -2276,80 +2334,106 @@
         <v>6.3247996944086865E-2</v>
       </c>
       <c r="D20" s="4">
-        <f>(R3-R4)/R4</f>
+        <f>(T3-T4)/T4</f>
         <v>3.3949119828678542E-2</v>
       </c>
       <c r="E20" s="4">
-        <f>(AA3-AA4)/AA4</f>
+        <f>(AC3-AC4)/AC4</f>
         <v>7.1026924660783808E-2</v>
       </c>
       <c r="F20">
-        <f>(AJ3-AJ4)/AJ4</f>
+        <f>(AL3-AL4)/AL4</f>
         <v>4.6470246278268193E-2</v>
       </c>
       <c r="G20">
-        <f>(AS3-AS4)/AS4</f>
+        <f>(AU3-AU4)/AU4</f>
         <v>1.1042853717827929E-2</v>
       </c>
       <c r="H20" s="7">
-        <f>(BB3-BB4)/BB4</f>
+        <f>(BD3-BD4)/BD4</f>
         <v>1.6189398497926916E-2</v>
       </c>
       <c r="I20" s="4">
-        <f>(BK3-BK4)/BK4</f>
+        <f>(BM3-BM4)/BM4</f>
         <v>1.8669803107859016E-2</v>
       </c>
       <c r="J20" s="4">
-        <f>(AJ19-AJ20)/AJ20</f>
+        <f>(AL19-AL20)/AL20</f>
         <v>3.5312532254588018E-2</v>
       </c>
-      <c r="O20" s="6">
-        <f>O19+1</f>
+      <c r="K20" s="7">
+        <f>(AU19-AU20)/AU20</f>
+        <v>-8.0637663947796159E-2</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="Q20" s="6">
+        <f>Q19+1</f>
         <v>2</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <f>(D4-D3)/D4</f>
         <v>0.39581363878321912</v>
       </c>
-      <c r="Q20">
-        <f>(Q4-Q3)/Q4</f>
+      <c r="S20">
+        <f>(S4-S3)/S4</f>
         <v>0.37183807205949732</v>
       </c>
-      <c r="R20">
-        <f>(Z4-Z3)/Z4</f>
+      <c r="T20">
+        <f>(AB4-AB3)/AB4</f>
         <v>0.44886597259574035</v>
       </c>
-      <c r="S20">
-        <f>(AI4-AI3)/AI4</f>
+      <c r="U20">
+        <f>(AK4-AK3)/AK4</f>
         <v>0.26120216127717649</v>
       </c>
-      <c r="T20">
-        <f>(AR4-AR3)/AR4</f>
+      <c r="V20">
+        <f>(AT4-AT3)/AT4</f>
         <v>0.25951198234371448</v>
       </c>
-      <c r="AF20" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG20">
+      <c r="AH20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI20">
         <v>14000</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>2</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>0.43663630326231812</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <v>1.9847543536196559</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>1.2202</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>14000</v>
+      </c>
+      <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <v>2.280744337298005E-2</v>
+      </c>
+      <c r="AU20">
+        <v>0.96613963765197985</v>
+      </c>
+      <c r="AV20">
+        <v>0.50850000000000006</v>
+      </c>
+      <c r="AX20">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -2359,80 +2443,106 @@
         <v>1.476470116554285E-2</v>
       </c>
       <c r="D21">
-        <f>(R4-R5)/R5</f>
+        <f>(T4-T5)/T5</f>
         <v>1.602522029832221E-3</v>
       </c>
       <c r="E21">
-        <f>(AA4-AA5)/AA5</f>
+        <f>(AC4-AC5)/AC5</f>
         <v>3.3893481774347456E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="1">(AJ4-AJ5)/AJ5</f>
+        <f t="shared" ref="F21:F27" si="1">(AL4-AL5)/AL5</f>
         <v>2.6026202444045811E-3</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:G27" si="2">(AS4-AS5)/AS5</f>
+        <f t="shared" ref="G21:G27" si="2">(AU4-AU5)/AU5</f>
         <v>2.0090557373475284E-2</v>
       </c>
       <c r="H21" s="4">
-        <f>(BB4-BB5)/BB5</f>
+        <f>(BD4-BD5)/BD5</f>
         <v>1.6189914601774193E-2</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I27" si="3">(BK4-BK5)/BK5</f>
+        <f t="shared" ref="I21:I27" si="3">(BM4-BM5)/BM5</f>
         <v>-1.377665118715758E-2</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" ref="J21:J27" si="4">(AJ20-AJ21)/AJ21</f>
+        <f t="shared" ref="J21:J27" si="4">(AL20-AL21)/AL21</f>
         <v>-2.1916758437596592E-2</v>
       </c>
-      <c r="O21" s="6">
-        <f t="shared" ref="O21:O28" si="5">O20+1</f>
+      <c r="K21" s="7">
+        <f t="shared" ref="K21:K27" si="5">(AU20-AU21)/AU21</f>
+        <v>2.475683914293628E-2</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21:Q28" si="6">Q20+1</f>
         <v>3</v>
       </c>
-      <c r="P21">
-        <f t="shared" ref="P21:P27" si="6">(D5-D4)/D5</f>
+      <c r="R21">
+        <f t="shared" ref="R21:R27" si="7">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
-      <c r="Q21">
-        <f t="shared" ref="Q21:Q29" si="7">(Q5-Q4)/Q5</f>
+      <c r="S21">
+        <f t="shared" ref="S21:S29" si="8">(S5-S4)/S5</f>
         <v>8.5557354256765014E-2</v>
       </c>
-      <c r="R21">
-        <f t="shared" ref="R21:R27" si="8">(Z5-Z4)/Z5</f>
+      <c r="T21">
+        <f t="shared" ref="T21:T27" si="9">(AB5-AB4)/AB5</f>
         <v>7.1481595096278494E-2</v>
       </c>
-      <c r="S21">
-        <f t="shared" ref="S21:S27" si="9">(AI5-AI4)/AI5</f>
+      <c r="U21">
+        <f t="shared" ref="U21:U27" si="10">(AK5-AK4)/AK5</f>
         <v>9.773195075543345E-2</v>
       </c>
-      <c r="T21">
-        <f t="shared" ref="T21:T27" si="10">(AR5-AR4)/AR5</f>
+      <c r="V21">
+        <f t="shared" ref="V21:V27" si="11">(AT5-AT4)/AT5</f>
         <v>0.21229867917953107</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AH21" s="13">
         <v>2</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>14000</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>3</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>0.45510164011606169</v>
       </c>
-      <c r="AJ21">
+      <c r="AL21">
         <v>2.029228463672665</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>1.4260999999999999</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ21" s="15">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>14000</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>3.9652006835209863E-2</v>
+      </c>
+      <c r="AU21">
+        <v>0.94279891653128034</v>
+      </c>
+      <c r="AV21">
+        <v>0.59005000000000007</v>
+      </c>
+      <c r="AX21">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2442,11 +2552,11 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="11">(R5-R6)/R6</f>
+        <f t="shared" ref="D22:D27" si="12">(T5-T6)/T6</f>
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="12">(AA5-AA6)/AA6</f>
+        <f t="shared" ref="E22:E26" si="13">(AC5-AC6)/AC6</f>
         <v>8.3788475357532057E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2454,11 +2564,11 @@
         <v>2.6828585624238292E-2</v>
       </c>
       <c r="G22">
-        <f>(AS5-AS6)/AS6</f>
+        <f>(AU5-AU6)/AU6</f>
         <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="13">(BB5-BB6)/BB6</f>
+        <f t="shared" ref="H22:H27" si="14">(BD5-BD6)/BD6</f>
         <v>2.830162123108083E-3</v>
       </c>
       <c r="I22">
@@ -2469,71 +2579,97 @@
         <f t="shared" si="4"/>
         <v>-1.8350744816032227E-2</v>
       </c>
-      <c r="O22" s="6">
+      <c r="K22" s="7">
         <f t="shared" si="5"/>
+        <v>1.7906979263476507E-3</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="Q22" s="6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="6"/>
+      <c r="R22" s="4">
+        <f t="shared" si="7"/>
         <v>7.6646158209822388E-2</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="7"/>
+      <c r="S22" s="4">
+        <f t="shared" si="8"/>
         <v>5.8682521593663856E-2</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="8"/>
+      <c r="T22">
+        <f t="shared" si="9"/>
         <v>7.2696141264064873E-2</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="9"/>
+      <c r="U22">
+        <f t="shared" si="10"/>
         <v>0.16708960155030728</v>
       </c>
-      <c r="T22" s="4">
-        <f t="shared" si="10"/>
+      <c r="V22" s="4">
+        <f t="shared" si="11"/>
         <v>5.9839952835964098E-2</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AH22" s="13">
         <v>3</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>14000</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>4</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>0.48008099093098472</v>
       </c>
-      <c r="AJ22">
+      <c r="AL22">
         <v>2.0671624339921428</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <v>1.5485</v>
       </c>
-      <c r="AM22">
+      <c r="AO22">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ22" s="15">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>14000</v>
+      </c>
+      <c r="AS22">
+        <v>4</v>
+      </c>
+      <c r="AT22">
+        <v>5.4282398599628787E-2</v>
+      </c>
+      <c r="AU22">
+        <v>0.94111366624068571</v>
+      </c>
+      <c r="AV22">
+        <v>0.59388200000000002</v>
+      </c>
+      <c r="AX22">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C27" si="14">(E6-E7)/E7</f>
+        <f t="shared" ref="C23:C27" si="15">(E6-E7)/E7</f>
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.8219906800217784E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2751722261865736E-3</v>
       </c>
       <c r="F23" s="7">
-        <f>(AJ6-AJ7)/AJ7</f>
+        <f>(AL6-AL7)/AL7</f>
         <v>2.9653127752681885E-3</v>
       </c>
       <c r="G23">
@@ -2541,7 +2677,7 @@
         <v>9.7996902403431237E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3649289333831764E-3</v>
       </c>
       <c r="I23">
@@ -2552,67 +2688,93 @@
         <f t="shared" si="4"/>
         <v>1.2731287179369934E-3</v>
       </c>
-      <c r="O23" s="6">
+      <c r="K23" s="7">
         <f t="shared" si="5"/>
+        <v>-5.8982709138992355E-3</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="Q23" s="6">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="6"/>
+      <c r="R23">
+        <f t="shared" si="7"/>
         <v>4.9151504423963835E-2</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="7"/>
+      <c r="S23">
+        <f t="shared" si="8"/>
         <v>3.0016184734596496E-2</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="8"/>
+      <c r="T23" s="4">
+        <f t="shared" si="9"/>
         <v>5.3218237177546097E-2</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" si="9"/>
+      <c r="U23" s="4">
+        <f t="shared" si="10"/>
         <v>3.899768779105587E-2</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="10"/>
+      <c r="V23">
+        <f t="shared" si="11"/>
         <v>7.4313676922907565E-2</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="AH23" s="13">
         <v>4</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>14000</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <v>0.5226406867094312</v>
       </c>
-      <c r="AJ23">
+      <c r="AL23">
         <v>2.0645340164466468</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>1.6956</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ23" s="15">
+        <v>4</v>
+      </c>
+      <c r="AR23">
+        <v>14000</v>
+      </c>
+      <c r="AS23">
+        <v>5</v>
+      </c>
+      <c r="AT23">
+        <v>5.8026462298956548E-2</v>
+      </c>
+      <c r="AU23">
+        <v>0.94669754483363777</v>
+      </c>
+      <c r="AV23">
+        <v>0.60322200000000004</v>
+      </c>
+      <c r="AX23">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
-        <f>(AA7-AA8)/AA8</f>
+        <f>(AC7-AC8)/AC8</f>
         <v>2.5626877884473687E-3</v>
       </c>
       <c r="F24">
@@ -2624,7 +2786,7 @@
         <v>-3.2183711518570545E-3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8123563066437401E-3</v>
       </c>
       <c r="I24">
@@ -2635,67 +2797,93 @@
         <f t="shared" si="4"/>
         <v>5.8531846459644226E-3</v>
       </c>
-      <c r="O24" s="6">
+      <c r="K24" s="7">
         <f t="shared" si="5"/>
+        <v>-4.5928708789333399E-3</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="Q24" s="6">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="6"/>
+      <c r="R24">
+        <f t="shared" si="7"/>
         <v>4.2686815096649983E-2</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="7"/>
+      <c r="S24">
+        <f t="shared" si="8"/>
         <v>4.4278249967540102E-2</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="8"/>
+      <c r="T24">
+        <f t="shared" si="9"/>
         <v>3.9822575755710674E-2</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="9"/>
+      <c r="U24">
+        <f t="shared" si="10"/>
         <v>1.8254949408081911E-2</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="10"/>
+      <c r="V24">
+        <f t="shared" si="11"/>
         <v>2.620127547567833E-2</v>
       </c>
-      <c r="AF24" s="13">
+      <c r="AH24" s="13">
         <v>5</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>14000</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>6</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>0.55026160561707127</v>
       </c>
-      <c r="AJ24">
+      <c r="AL24">
         <v>2.0525202365127591</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>1.7874000000000001</v>
       </c>
-      <c r="AM24">
+      <c r="AO24">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ24" s="15">
+        <v>5</v>
+      </c>
+      <c r="AR24">
+        <v>14000</v>
+      </c>
+      <c r="AS24">
+        <v>6</v>
+      </c>
+      <c r="AT24">
+        <v>5.8289543283584197E-2</v>
+      </c>
+      <c r="AU24">
+        <v>0.95106566663789227</v>
+      </c>
+      <c r="AV24">
+        <v>0.61840200000000001</v>
+      </c>
+      <c r="AX24">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8539505663454855E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6313763388460958E-3</v>
       </c>
       <c r="F25">
@@ -2707,7 +2895,7 @@
         <v>-2.941055980213555E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.9029683520749106E-3</v>
       </c>
       <c r="I25">
@@ -2718,67 +2906,93 @@
         <f t="shared" si="4"/>
         <v>-2.1010210922667262E-3</v>
       </c>
-      <c r="O25" s="6">
+      <c r="K25" s="7">
         <f t="shared" si="5"/>
+        <v>-7.3300212300288323E-4</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="Q25" s="6">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="6"/>
+      <c r="R25">
+        <f t="shared" si="7"/>
         <v>4.4785647777125841E-2</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="7"/>
+      <c r="S25">
+        <f t="shared" si="8"/>
         <v>3.4152860871484746E-2</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="8"/>
+      <c r="T25">
+        <f t="shared" si="9"/>
         <v>3.8026372244194445E-2</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="9"/>
+      <c r="U25">
+        <f t="shared" si="10"/>
         <v>2.5035106576661761E-2</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="10"/>
+      <c r="V25">
+        <f t="shared" si="11"/>
         <v>1.0543091480369964E-2</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AH25" s="13">
         <v>6</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>14000</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>7</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>0.55904622855672681</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>2.0568417043169829</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>1.8151299999999999</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ25" s="15">
+        <v>6</v>
+      </c>
+      <c r="AR25">
+        <v>14000</v>
+      </c>
+      <c r="AS25">
+        <v>7</v>
+      </c>
+      <c r="AT25">
+        <v>5.8329351121850267E-2</v>
+      </c>
+      <c r="AU25">
+        <v>0.95176331116557289</v>
+      </c>
+      <c r="AV25">
+        <v>0.62057600000000002</v>
+      </c>
+      <c r="AX25">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0720710504481175E-3</v>
       </c>
       <c r="D26">
-        <f>(R9-R10)/R10</f>
+        <f>(T9-T10)/T10</f>
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.32010104704502E-3</v>
       </c>
       <c r="F26">
@@ -2790,7 +3004,7 @@
         <v>1.4184803600365327E-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.0434279115222837E-4</v>
       </c>
       <c r="I26">
@@ -2801,67 +3015,93 @@
         <f t="shared" si="4"/>
         <v>-1.4576303322335088E-3</v>
       </c>
-      <c r="O26" s="6">
+      <c r="K26" s="7">
         <f t="shared" si="5"/>
+        <v>-2.4532980010266746E-4</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="Q26" s="6">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="6"/>
+      <c r="R26">
+        <f t="shared" si="7"/>
         <v>9.7504489348369978E-3</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="7"/>
+      <c r="S26">
+        <f t="shared" si="8"/>
         <v>1.2852928851536664E-2</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="8"/>
+      <c r="T26">
+        <f t="shared" si="9"/>
         <v>1.4997704246726501E-2</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="9"/>
+      <c r="U26">
+        <f t="shared" si="10"/>
         <v>2.3023925946269997E-2</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="10"/>
+      <c r="V26">
+        <f t="shared" si="11"/>
         <v>2.3277044875244048E-2</v>
       </c>
-      <c r="AF26" s="13">
+      <c r="AH26" s="13">
         <v>7</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>14000</v>
       </c>
-      <c r="AH26">
+      <c r="AJ26">
         <v>8</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>0.56412695093570242</v>
       </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>2.0598441956963049</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <v>1.83718</v>
       </c>
-      <c r="AM26">
+      <c r="AO26">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ26" s="15">
+        <v>7</v>
+      </c>
+      <c r="AR26">
+        <v>14000</v>
+      </c>
+      <c r="AS26">
+        <v>8</v>
+      </c>
+      <c r="AT26">
+        <v>5.8340214444982483E-2</v>
+      </c>
+      <c r="AU26">
+        <v>0.95199686436600617</v>
+      </c>
+      <c r="AV26">
+        <v>0.62135200000000002</v>
+      </c>
+      <c r="AX26">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
-        <f>(AA10-AA11)/AA11</f>
+        <f>(AC10-AC11)/AC11</f>
         <v>1.2805209029584394E-3</v>
       </c>
       <c r="F27">
@@ -2873,7 +3113,7 @@
         <v>-5.9897149380518581E-5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.8053570669424576E-4</v>
       </c>
       <c r="I27">
@@ -2884,81 +3124,107 @@
         <f t="shared" si="4"/>
         <v>-1.1749029336880754E-3</v>
       </c>
-      <c r="O27" s="6">
+      <c r="K27" s="7">
         <f t="shared" si="5"/>
+        <v>-9.7588067995995947E-5</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="Q27" s="6">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="6"/>
+      <c r="R27">
+        <f t="shared" si="7"/>
         <v>4.4282359502808418E-3</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="7"/>
+      <c r="S27">
+        <f t="shared" si="8"/>
         <v>5.0659100638200602E-3</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="8"/>
+      <c r="T27">
+        <f t="shared" si="9"/>
         <v>7.6460337820037638E-3</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="9"/>
+      <c r="U27">
+        <f t="shared" si="10"/>
         <v>5.7068466060010122E-3</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="10"/>
+      <c r="V27">
+        <f t="shared" si="11"/>
         <v>1.6803715234263625E-3</v>
       </c>
-      <c r="AF27" s="13">
+      <c r="AH27" s="13">
         <v>8</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>14000</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>9</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>0.56534309497970381</v>
       </c>
-      <c r="AJ27">
+      <c r="AL27">
         <v>2.0622671594319701</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <v>1.8484799999999999</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <v>2.1509747809021862</v>
       </c>
+      <c r="AQ27" s="15">
+        <v>8</v>
+      </c>
+      <c r="AR27">
+        <v>14000</v>
+      </c>
+      <c r="AS27">
+        <v>9</v>
+      </c>
+      <c r="AT27">
+        <v>5.8349278038534548E-2</v>
+      </c>
+      <c r="AU27">
+        <v>0.9520897769678992</v>
+      </c>
+      <c r="AV27">
+        <v>0.62194400000000005</v>
+      </c>
+      <c r="AX27">
+        <v>0.83028189799088314</v>
+      </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O28" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q28" s="6">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Q28" t="e">
-        <f t="shared" si="7"/>
+      <c r="S28" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
       </c>
-      <c r="O29" s="6">
-        <f>O28+1</f>
+      <c r="Q29" s="6">
+        <f>Q28+1</f>
         <v>11</v>
       </c>
-      <c r="Q29" t="e">
-        <f t="shared" si="7"/>
+      <c r="S29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>12</v>
       </c>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB96E4C-CB1E-402A-B8ED-FAFE29D9E2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F04D99-FB1B-4805-B9EA-8091AAADB233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
   <si>
     <t>search_radius</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>area3b</t>
+  </si>
+  <si>
+    <t>Area 3c</t>
+  </si>
+  <si>
+    <t>Area 3b</t>
+  </si>
+  <si>
+    <t>area 3c</t>
   </si>
 </sst>
 </file>
@@ -207,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -239,9 +248,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -560,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
   <dimension ref="A2:BP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +597,7 @@
     <col min="37" max="38" width="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="5" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="12" bestFit="1" customWidth="1"/>
@@ -2127,7 +2133,7 @@
       <c r="A15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2166,7 +2172,9 @@
       <c r="K18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2209,29 +2217,56 @@
       <c r="AO18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AR18" s="15" t="s">
+      <c r="AQ18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AS18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="15" t="s">
+      <c r="AS18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AU18" s="15" t="s">
+      <c r="AU18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AV18" s="15" t="s">
+      <c r="AV18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AW18" s="15" t="s">
+      <c r="AW18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AX18" s="15" t="s">
+      <c r="AX18" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="AZ18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG18" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>1</v>
       </c>
@@ -2262,7 +2297,9 @@
       <c r="K19" s="4">
         <v>1</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
       <c r="Q19" s="6">
         <v>1</v>
       </c>
@@ -2302,7 +2339,7 @@
       <c r="AO19">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ19" s="15">
+      <c r="AQ19" s="13">
         <v>0</v>
       </c>
       <c r="AR19">
@@ -2323,8 +2360,29 @@
       <c r="AX19">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>20000</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>0.2112798674733572</v>
+      </c>
+      <c r="BD19">
+        <v>3.6981760732177049</v>
+      </c>
+      <c r="BE19">
+        <v>1.5298</v>
+      </c>
+      <c r="BG19">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
@@ -2365,7 +2423,10 @@
         <f>(AU19-AU20)/AU20</f>
         <v>-8.0637663947796159E-2</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <f>(BD19-BD20)/BD20</f>
+        <v>9.4632826092389807E-2</v>
+      </c>
       <c r="Q20" s="6">
         <f>Q19+1</f>
         <v>2</v>
@@ -2411,7 +2472,7 @@
       <c r="AO20">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ20" s="15">
+      <c r="AQ20" s="13">
         <v>1</v>
       </c>
       <c r="AR20">
@@ -2432,8 +2493,29 @@
       <c r="AX20">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ20" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>20000</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>0.78896175297514703</v>
+      </c>
+      <c r="BD20">
+        <v>3.3784626087081819</v>
+      </c>
+      <c r="BE20">
+        <v>1.649</v>
+      </c>
+      <c r="BG20">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -2474,29 +2556,32 @@
         <f t="shared" ref="K21:K27" si="5">(AU20-AU21)/AU21</f>
         <v>2.475683914293628E-2</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7">
+        <f t="shared" ref="L21:L27" si="6">(BD20-BD21)/BD21</f>
+        <v>-3.4941215570439897E-3</v>
+      </c>
       <c r="Q21" s="6">
-        <f t="shared" ref="Q21:Q28" si="6">Q20+1</f>
+        <f t="shared" ref="Q21:Q28" si="7">Q20+1</f>
         <v>3</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R27" si="7">(D5-D4)/D5</f>
+        <f t="shared" ref="R21:R27" si="8">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:S29" si="8">(S5-S4)/S5</f>
+        <f t="shared" ref="S21:S29" si="9">(S5-S4)/S5</f>
         <v>8.5557354256765014E-2</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21:T27" si="9">(AB5-AB4)/AB5</f>
+        <f t="shared" ref="T21:T27" si="10">(AB5-AB4)/AB5</f>
         <v>7.1481595096278494E-2</v>
       </c>
       <c r="U21">
-        <f t="shared" ref="U21:U27" si="10">(AK5-AK4)/AK5</f>
+        <f t="shared" ref="U21:U27" si="11">(AK5-AK4)/AK5</f>
         <v>9.773195075543345E-2</v>
       </c>
       <c r="V21">
-        <f t="shared" ref="V21:V27" si="11">(AT5-AT4)/AT5</f>
+        <f t="shared" ref="V21:V27" si="12">(AT5-AT4)/AT5</f>
         <v>0.21229867917953107</v>
       </c>
       <c r="AH21" s="13">
@@ -2520,7 +2605,7 @@
       <c r="AO21">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ21" s="15">
+      <c r="AQ21" s="13">
         <v>2</v>
       </c>
       <c r="AR21">
@@ -2541,8 +2626,29 @@
       <c r="AX21">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA21">
+        <v>20000</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>0.85624013185044456</v>
+      </c>
+      <c r="BD21">
+        <v>3.390308759630241</v>
+      </c>
+      <c r="BE21">
+        <v>1.67299</v>
+      </c>
+      <c r="BG21">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2552,11 +2658,11 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="12">(T5-T6)/T6</f>
+        <f t="shared" ref="D22:D27" si="13">(T5-T6)/T6</f>
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="13">(AC5-AC6)/AC6</f>
+        <f t="shared" ref="E22:E26" si="14">(AC5-AC6)/AC6</f>
         <v>8.3788475357532057E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2568,7 +2674,7 @@
         <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="14">(BD5-BD6)/BD6</f>
+        <f t="shared" ref="H22:H27" si="15">(BD5-BD6)/BD6</f>
         <v>2.830162123108083E-3</v>
       </c>
       <c r="I22">
@@ -2583,29 +2689,32 @@
         <f t="shared" si="5"/>
         <v>1.7906979263476507E-3</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <f t="shared" si="6"/>
+        <v>2.4397135702748885E-3</v>
+      </c>
       <c r="Q22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6646158209822388E-2</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8682521593663856E-2</v>
       </c>
       <c r="T22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.2696141264064873E-2</v>
       </c>
       <c r="U22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16708960155030728</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.9839952835964098E-2</v>
       </c>
       <c r="AH22" s="13">
@@ -2629,7 +2738,7 @@
       <c r="AO22">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ22" s="15">
+      <c r="AQ22" s="13">
         <v>3</v>
       </c>
       <c r="AR22">
@@ -2650,22 +2759,43 @@
       <c r="AX22">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ22" s="13">
+        <v>3</v>
+      </c>
+      <c r="BA22">
+        <v>20000</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>0.90795121919934418</v>
+      </c>
+      <c r="BD22">
+        <v>3.3820575080324442</v>
+      </c>
+      <c r="BE22">
+        <v>1.7728900000000001</v>
+      </c>
+      <c r="BG22">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C27" si="15">(E6-E7)/E7</f>
+        <f t="shared" ref="C23:C27" si="16">(E6-E7)/E7</f>
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.8219906800217784E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2751722261865736E-3</v>
       </c>
       <c r="F23" s="7">
@@ -2677,7 +2807,7 @@
         <v>9.7996902403431237E-3</v>
       </c>
       <c r="H23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3649289333831764E-3</v>
       </c>
       <c r="I23">
@@ -2692,29 +2822,32 @@
         <f t="shared" si="5"/>
         <v>-5.8982709138992355E-3</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <f t="shared" si="6"/>
+        <v>-1.0375606843394333E-2</v>
+      </c>
       <c r="Q23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9151504423963835E-2</v>
       </c>
       <c r="S23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0016184734596496E-2</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3218237177546097E-2</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.899768779105587E-2</v>
       </c>
       <c r="V23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4313676922907565E-2</v>
       </c>
       <c r="AH23" s="13">
@@ -2738,7 +2871,7 @@
       <c r="AO23">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ23" s="15">
+      <c r="AQ23" s="13">
         <v>4</v>
       </c>
       <c r="AR23">
@@ -2759,18 +2892,39 @@
       <c r="AX23">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ23" s="13">
+        <v>4</v>
+      </c>
+      <c r="BA23">
+        <v>20000</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>0.92721678724985468</v>
+      </c>
+      <c r="BD23">
+        <v>3.4175163136841169</v>
+      </c>
+      <c r="BE23">
+        <v>1.8817900000000001</v>
+      </c>
+      <c r="BG23">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
@@ -2786,7 +2940,7 @@
         <v>-3.2183711518570545E-3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8123563066437401E-3</v>
       </c>
       <c r="I24">
@@ -2801,29 +2955,32 @@
         <f t="shared" si="5"/>
         <v>-4.5928708789333399E-3</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <f t="shared" si="6"/>
+        <v>-4.2272768298144952E-3</v>
+      </c>
       <c r="Q24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2686815096649983E-2</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4278249967540102E-2</v>
       </c>
       <c r="T24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9822575755710674E-2</v>
       </c>
       <c r="U24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8254949408081911E-2</v>
       </c>
       <c r="V24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.620127547567833E-2</v>
       </c>
       <c r="AH24" s="13">
@@ -2847,7 +3004,7 @@
       <c r="AO24">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ24" s="15">
+      <c r="AQ24" s="13">
         <v>5</v>
       </c>
       <c r="AR24">
@@ -2868,22 +3025,43 @@
       <c r="AX24">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ24" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA24">
+        <v>20000</v>
+      </c>
+      <c r="BB24">
+        <v>6</v>
+      </c>
+      <c r="BC24">
+        <v>0.93248005872858164</v>
+      </c>
+      <c r="BD24">
+        <v>3.432024431040813</v>
+      </c>
+      <c r="BE24">
+        <v>1.90463</v>
+      </c>
+      <c r="BG24">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8539505663454855E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.6313763388460958E-3</v>
       </c>
       <c r="F25">
@@ -2895,7 +3073,7 @@
         <v>-2.941055980213555E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.9029683520749106E-3</v>
       </c>
       <c r="I25">
@@ -2910,29 +3088,32 @@
         <f t="shared" si="5"/>
         <v>-7.3300212300288323E-4</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7">
+        <f t="shared" si="6"/>
+        <v>-1.1024116644161371E-3</v>
+      </c>
       <c r="Q25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4785647777125841E-2</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4152860871484746E-2</v>
       </c>
       <c r="T25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8026372244194445E-2</v>
       </c>
       <c r="U25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5035106576661761E-2</v>
       </c>
       <c r="V25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0543091480369964E-2</v>
       </c>
       <c r="AH25" s="13">
@@ -2956,7 +3137,7 @@
       <c r="AO25">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ25" s="15">
+      <c r="AQ25" s="13">
         <v>6</v>
       </c>
       <c r="AR25">
@@ -2977,14 +3158,35 @@
       <c r="AX25">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ25" s="13">
+        <v>6</v>
+      </c>
+      <c r="BA25">
+        <v>20000</v>
+      </c>
+      <c r="BB25">
+        <v>7</v>
+      </c>
+      <c r="BC25">
+        <v>0.9374691948281535</v>
+      </c>
+      <c r="BD25">
+        <v>3.435812110388047</v>
+      </c>
+      <c r="BE25">
+        <v>1.92791</v>
+      </c>
+      <c r="BG25">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0720710504481175E-3</v>
       </c>
       <c r="D26">
@@ -2992,7 +3194,7 @@
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.32010104704502E-3</v>
       </c>
       <c r="F26">
@@ -3004,7 +3206,7 @@
         <v>1.4184803600365327E-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.0434279115222837E-4</v>
       </c>
       <c r="I26">
@@ -3019,29 +3221,32 @@
         <f t="shared" si="5"/>
         <v>-2.4532980010266746E-4</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="7">
+        <f t="shared" si="6"/>
+        <v>-6.6846274590690629E-5</v>
+      </c>
       <c r="Q26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="R26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.7504489348369978E-3</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2852928851536664E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4997704246726501E-2</v>
       </c>
       <c r="U26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3023925946269997E-2</v>
       </c>
       <c r="V26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3277044875244048E-2</v>
       </c>
       <c r="AH26" s="13">
@@ -3065,7 +3270,7 @@
       <c r="AO26">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ26" s="15">
+      <c r="AQ26" s="13">
         <v>7</v>
       </c>
       <c r="AR26">
@@ -3086,18 +3291,39 @@
       <c r="AX26">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ26" s="13">
+        <v>7</v>
+      </c>
+      <c r="BA26">
+        <v>20000</v>
+      </c>
+      <c r="BB26">
+        <v>8</v>
+      </c>
+      <c r="BC26">
+        <v>0.94016820150631564</v>
+      </c>
+      <c r="BD26">
+        <v>3.4360417969815131</v>
+      </c>
+      <c r="BE26">
+        <v>1.9418500000000001</v>
+      </c>
+      <c r="BG26">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
@@ -3113,7 +3339,7 @@
         <v>-5.9897149380518581E-5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.8053570669424576E-4</v>
       </c>
       <c r="I27">
@@ -3128,29 +3354,32 @@
         <f t="shared" si="5"/>
         <v>-9.7588067995995947E-5</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.1830652667643912E-4</v>
+      </c>
       <c r="Q27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4282359502808418E-3</v>
       </c>
       <c r="S27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0659100638200602E-3</v>
       </c>
       <c r="T27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6460337820037638E-3</v>
       </c>
       <c r="U27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7068466060010122E-3</v>
       </c>
       <c r="V27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6803715234263625E-3</v>
       </c>
       <c r="AH27" s="13">
@@ -3174,7 +3403,7 @@
       <c r="AO27">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ27" s="15">
+      <c r="AQ27" s="13">
         <v>8</v>
       </c>
       <c r="AR27">
@@ -3195,22 +3424,43 @@
       <c r="AX27">
         <v>0.83028189799088314</v>
       </c>
+      <c r="AZ27" s="13">
+        <v>8</v>
+      </c>
+      <c r="BA27">
+        <v>20000</v>
+      </c>
+      <c r="BB27">
+        <v>9</v>
+      </c>
+      <c r="BC27">
+        <v>0.94065254115938446</v>
+      </c>
+      <c r="BD27">
+        <v>3.4367920711214688</v>
+      </c>
+      <c r="BE27">
+        <v>1.9454979999999999</v>
+      </c>
+      <c r="BG27">
+        <v>3.5115795310554612</v>
+      </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="S28" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
@@ -3220,11 +3470,11 @@
         <v>11</v>
       </c>
       <c r="S29" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:59" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>12</v>
       </c>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F04D99-FB1B-4805-B9EA-8091AAADB233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D856D47-97AF-4B6A-94AF-E45C1480B9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>search_radius</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>area 3c</t>
+  </si>
+  <si>
+    <t>Area 1a</t>
+  </si>
+  <si>
+    <t>area 1a</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
-  <dimension ref="A2:BP30"/>
+  <dimension ref="A2:BQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,34 +584,34 @@
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="12" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="12" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -634,149 +640,150 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="3"/>
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AB2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AK2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AO2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AP2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AS2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AT2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AW2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AY2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BA2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BB2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="BC2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BE2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BF2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BH2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BK2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BK2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="BL2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BM2" s="12" t="s">
+      <c r="BN2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BO2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BP2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BP2" s="12" t="s">
+      <c r="BQ2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -798,134 +805,134 @@
       <c r="H3">
         <v>2.995599830918374</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>50000</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>0.48067336594687038</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3.7283063930572342</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Z3" s="13">
         <v>0</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>75000</v>
       </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
       <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>0.38033031902469272</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>3.6025795623284291</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.75180000000000002</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH3" s="13">
+      <c r="AI3" s="13">
         <v>0</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>90000</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
       <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
         <v>0.53794659513894327</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>3.296988220851615</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1.006</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ3" s="13">
+      <c r="AR3" s="13">
         <v>0</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>70000</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
       <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
         <v>0.44461726443180999</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>4.0161955823321929</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.68979999999999997</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ3" s="13">
+      <c r="BA3" s="13">
         <v>0</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>25000</v>
       </c>
-      <c r="BB3">
-        <v>1</v>
-      </c>
       <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
         <v>0.3135243332821549</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>2.9954063794763091</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>0.70279999999999998</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI3" s="13">
+      <c r="BJ3" s="13">
         <v>0</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>22500</v>
       </c>
-      <c r="BK3">
-        <v>1</v>
-      </c>
       <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
         <v>0.22445657144535569</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>4.2051235592021188</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <v>1.3351999999999999</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -947,134 +954,134 @@
       <c r="H4">
         <v>2.995599830918374</v>
       </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>50000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.76520614282182042</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3.6058896144473729</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.4483999999999999</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z4">
+      <c r="Z4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA4">
         <v>75000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.69008680305220649</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3.3636685309936909</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1.3849</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI4">
+      <c r="AI4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
         <v>90000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.72813774884466864</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3.1505799926727289</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1.4530000000000001</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AR4">
+      <c r="AR4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS4">
         <v>70000</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>2</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>0.60043816217184121</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>3.9723297262462758</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>1.1192</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ4" s="13">
-        <v>1</v>
-      </c>
-      <c r="BA4">
+      <c r="BA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB4">
         <v>25000</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>2</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>0.38298251998665372</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>2.9476851302561782</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>0.92720000000000002</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI4" s="13">
-        <v>1</v>
-      </c>
-      <c r="BJ4">
+      <c r="BJ4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BK4">
         <v>22500</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <v>2</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>0.36957190579716998</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <v>4.1280536110648516</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <v>1.8603000000000001</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1096,134 +1103,134 @@
       <c r="H5">
         <v>2.995599830918374</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>50000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.83680058709409921</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3.600120342288808</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1.7071000000000001</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Z5" s="13">
         <v>2</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>75000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.74321284253246644</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3.3523063974154081</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1.7165999999999999</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH5" s="13">
+      <c r="AI5" s="13">
         <v>2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>90000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.80700823824395607</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3.14240151487407</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1.7876000000000001</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ5" s="13">
+      <c r="AR5" s="13">
         <v>2</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>70000</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>3</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.76226628837745936</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>3.8940951835435209</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>1.6471</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ5" s="13">
+      <c r="BA5" s="13">
         <v>2</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>25000</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>3</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>0.44056957653022139</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>2.9007226778188611</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>1.1079399999999999</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI5" s="13">
+      <c r="BJ5" s="13">
         <v>2</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>22500</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <v>3</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>0.42531097324201539</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <v>4.1857187989251718</v>
       </c>
-      <c r="BN5">
+      <c r="BO5">
         <v>2.3582999999999998</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -1245,134 +1252,134 @@
       <c r="H6">
         <v>2.995599830918374</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>50000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.88896743796876532</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3.5968213853286608</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.9228000000000001</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Z6" s="13">
         <v>3</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>75000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.80147713775890628</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3.3244513266097129</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1.95</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AI6" s="13">
         <v>3</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>90000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>4</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.96890162464780283</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3.0602980466926861</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1.9857</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ6" s="13">
+      <c r="AR6" s="13">
         <v>3</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>70000</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>4</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>0.81078353699118821</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>3.904639138992577</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>1.9302999999999999</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ6" s="13">
+      <c r="BA6" s="13">
         <v>3</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>25000</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>4</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>0.46639236828656983</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>2.8925363310549952</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>1.30124</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI6" s="13">
+      <c r="BJ6" s="13">
         <v>3</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <v>22500</v>
       </c>
-      <c r="BK6">
+      <c r="BL6">
         <v>4</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>0.52555379164144767</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <v>4.1527969844867956</v>
       </c>
-      <c r="BN6">
+      <c r="BO6">
         <v>2.5823999999999998</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1394,134 +1401,134 @@
       <c r="H7">
         <v>2.995599830918374</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>4</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>50000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.91647656793688792</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3.6070003065766558</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2.1351</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Z7" s="13">
         <v>4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>75000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.84652785808803543</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3.3135987201128718</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2.0798000000000001</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="AI7" s="13">
         <v>4</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>90000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1.0082198682963639</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3.0512501356848012</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2.1518999999999999</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ7" s="13">
+      <c r="AR7" s="13">
         <v>4</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>70000</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>5</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>0.87587287051627427</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>3.8667462237616959</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>2.01986</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ7" s="13">
+      <c r="BA7" s="13">
         <v>4</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>25000</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>5</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>0.48175799781117462</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>2.888593606065291</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>1.4191400000000001</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI7" s="13">
+      <c r="BJ7" s="13">
         <v>4</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>22500</v>
       </c>
-      <c r="BK7">
+      <c r="BL7">
         <v>5</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>0.56381355508322006</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <v>4.1740647229724948</v>
       </c>
-      <c r="BN7">
+      <c r="BO7">
         <v>2.8435000000000001</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1543,134 +1550,134 @@
       <c r="H8">
         <v>2.995599830918374</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>50000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.95893660252658364</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3.609330173328666</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2.3302999999999998</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Z8" s="13">
         <v>5</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>75000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>6</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.88163691075563233</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3.3051287071358479</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2.2050000000000001</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH8" s="13">
+      <c r="AI8" s="13">
         <v>5</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>90000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>6</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1.026967100764586</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>3.0533007950275342</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2.2700999999999998</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ8" s="13">
+      <c r="AR8" s="13">
         <v>5</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>70000</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>6</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>0.899439328126167</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>3.8792310289968079</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>2.1240600000000001</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ8" s="13">
+      <c r="BA8" s="13">
         <v>5</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>25000</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>6</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>0.49471381023515693</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>2.8804926344385868</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>1.54254</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI8" s="13">
+      <c r="BJ8" s="13">
         <v>5</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <v>22500</v>
       </c>
-      <c r="BK8">
+      <c r="BL8">
         <v>6</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>0.59448430017612008</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <v>4.2014789529715211</v>
       </c>
-      <c r="BN8">
+      <c r="BO8">
         <v>3.0501</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1692,134 +1699,134 @@
       <c r="H9">
         <v>2.995599830918374</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>6</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>50000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.99284510320321806</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3.6026510363993882</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2.4392999999999998</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Z9" s="13">
         <v>6</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>75000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>7</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.91648760976161969</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>3.2800970521033079</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2.3134000000000001</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH9" s="13">
+      <c r="AI9" s="13">
         <v>6</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>90000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>7</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1.053337517783492</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>3.050403551110147</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2.3786</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ9" s="13">
+      <c r="AR9" s="13">
         <v>6</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>70000</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>7</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>0.90902324333846707</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>3.890673718202788</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>2.2251599999999998</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ9" s="13">
+      <c r="BA9" s="13">
         <v>6</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>25000</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>7</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>0.51339599194252106</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>2.8635889594376751</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>1.5974999999999999</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI9" s="13">
+      <c r="BJ9" s="13">
         <v>6</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <v>22500</v>
       </c>
-      <c r="BK9">
+      <c r="BL9">
         <v>7</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>0.61575704291743538</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <v>4.2136151266939219</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <v>3.226999999999999</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1841,134 +1848,134 @@
       <c r="H10">
         <v>2.995599830918374</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>7</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>50000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.0057722220136109</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3.5998258948558881</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2.48062</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Z10" s="13">
         <v>7</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>75000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>8</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.9304421052752393</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3.2725045109609678</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2.3569</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH10" s="13">
+      <c r="AI10" s="13">
         <v>7</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>90000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>8</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1.0781610172016991</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>3.047668137060386</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2.4780500000000001</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ10" s="13">
+      <c r="AR10" s="13">
         <v>7</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>70000</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>8</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>0.93068688369503749</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>3.8851626912297319</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>2.2700900000000002</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ10" s="13">
+      <c r="BA10" s="13">
         <v>7</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>25000</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>8</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>0.51969332790896883</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>2.8618594153307289</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>1.6208450000000001</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI10" s="13">
+      <c r="BJ10" s="13">
         <v>7</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <v>22500</v>
       </c>
-      <c r="BK10">
+      <c r="BL10">
         <v>8</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>0.63114500185174216</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <v>4.2209504061763301</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <v>3.2835000000000001</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1990,158 +1997,158 @@
       <c r="H11">
         <v>2.995599830918374</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>8</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>50000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>9</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.0108933166398251</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3.5986832243048559</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2.49329</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3.7310623364769291</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Z11" s="13">
         <v>8</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>75000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>9</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0.93761111150821319</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3.268319359703324</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2.37229</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>3.748694078222786</v>
       </c>
-      <c r="AH11" s="13">
+      <c r="AI11" s="13">
         <v>8</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>90000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>9</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1.0843492319356911</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>3.0469519551982178</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2.4956499999999999</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>3.68572083840303</v>
       </c>
-      <c r="AQ11" s="13">
+      <c r="AR11" s="13">
         <v>8</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>70000</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>9</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>0.93225341578754384</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>3.8853954153393269</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>2.2775379999999998</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>4.1615592847749499</v>
       </c>
-      <c r="AZ11" s="13">
+      <c r="BA11" s="13">
         <v>8</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>25000</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>9</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>0.52078218128686538</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>2.8626624943766159</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>1.629678</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>3.226396680182666</v>
       </c>
-      <c r="BI11" s="13">
+      <c r="BJ11" s="13">
         <v>8</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>22500</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <v>9</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>0.63329750718907252</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <v>4.2253186197428194</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>3.30043</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>4.0476445154746212</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
-    <row r="17" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2175,98 +2182,126 @@
       <c r="L18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="M18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="5"/>
       <c r="R18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="V18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="W18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AH18" s="8" t="s">
+      <c r="AI18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AI18" s="12" t="s">
+      <c r="AJ18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AJ18" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AK18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AL18" s="12" t="s">
+      <c r="AM18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AM18" s="12" t="s">
+      <c r="AN18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AN18" s="12" t="s">
+      <c r="AO18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AO18" s="12" t="s">
+      <c r="AP18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AQ18" s="14" t="s">
+      <c r="AR18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AR18" s="12" t="s">
+      <c r="AS18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AS18" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AT18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AU18" s="12" t="s">
+      <c r="AV18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AV18" s="12" t="s">
+      <c r="AW18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AW18" s="12" t="s">
+      <c r="AX18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AX18" s="12" t="s">
+      <c r="AY18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AZ18" s="14" t="s">
+      <c r="BA18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BA18" s="12" t="s">
+      <c r="BB18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BB18" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="BC18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BD18" s="12" t="s">
+      <c r="BE18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BE18" s="12" t="s">
+      <c r="BF18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BF18" s="12" t="s">
+      <c r="BG18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BG18" s="12" t="s">
+      <c r="BH18" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="BJ18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ18" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>1</v>
       </c>
@@ -2300,10 +2335,10 @@
       <c r="L19" s="7">
         <v>1</v>
       </c>
-      <c r="Q19" s="6">
-        <v>1</v>
-      </c>
-      <c r="R19">
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
         <v>1</v>
       </c>
       <c r="S19">
@@ -2318,71 +2353,95 @@
       <c r="V19">
         <v>1</v>
       </c>
-      <c r="AH19" s="13">
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="13">
         <v>0</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>14000</v>
       </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
       <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
         <v>0.31422856936735127</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2.054841055749284</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.84230000000000005</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ19" s="13">
+      <c r="AR19" s="13">
         <v>0</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>14000</v>
       </c>
-      <c r="AS19">
-        <v>1</v>
-      </c>
       <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
         <v>1.6513097691810169E-2</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>0.88823239422435396</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>0.39150000000000001</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ19" s="13">
+      <c r="BA19" s="13">
         <v>0</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>20000</v>
       </c>
-      <c r="BB19">
-        <v>1</v>
-      </c>
       <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
         <v>0.2112798674733572</v>
       </c>
-      <c r="BD19">
+      <c r="BE19">
         <v>3.6981760732177049</v>
       </c>
-      <c r="BE19">
+      <c r="BF19">
         <v>1.5298</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>14000</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>0.52439462589576125</v>
+      </c>
+      <c r="BN19">
+        <v>2.7526138840818648</v>
+      </c>
+      <c r="BO19">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="BQ19">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="20" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
@@ -2392,130 +2451,155 @@
         <v>6.3247996944086865E-2</v>
       </c>
       <c r="D20" s="4">
-        <f>(T3-T4)/T4</f>
+        <f>(U3-U4)/U4</f>
         <v>3.3949119828678542E-2</v>
       </c>
       <c r="E20" s="4">
-        <f>(AC3-AC4)/AC4</f>
+        <f>(AD3-AD4)/AD4</f>
         <v>7.1026924660783808E-2</v>
       </c>
       <c r="F20">
-        <f>(AL3-AL4)/AL4</f>
+        <f>(AM3-AM4)/AM4</f>
         <v>4.6470246278268193E-2</v>
       </c>
       <c r="G20">
-        <f>(AU3-AU4)/AU4</f>
+        <f>(AV3-AV4)/AV4</f>
         <v>1.1042853717827929E-2</v>
       </c>
       <c r="H20" s="7">
-        <f>(BD3-BD4)/BD4</f>
+        <f>(BE3-BE4)/BE4</f>
         <v>1.6189398497926916E-2</v>
       </c>
       <c r="I20" s="4">
-        <f>(BM3-BM4)/BM4</f>
+        <f>(BN3-BN4)/BN4</f>
         <v>1.8669803107859016E-2</v>
       </c>
       <c r="J20" s="4">
-        <f>(AL19-AL20)/AL20</f>
+        <f>(AM19-AM20)/AM20</f>
         <v>3.5312532254588018E-2</v>
       </c>
       <c r="K20" s="7">
-        <f>(AU19-AU20)/AU20</f>
+        <f>(AV19-AV20)/AV20</f>
         <v>-8.0637663947796159E-2</v>
       </c>
       <c r="L20" s="4">
-        <f>(BD19-BD20)/BD20</f>
+        <f>(BE19-BE20)/BE20</f>
         <v>9.4632826092389807E-2</v>
       </c>
-      <c r="Q20" s="6">
-        <f>Q19+1</f>
+      <c r="M20">
+        <f>(BN19-BN20)/BN20</f>
+        <v>4.6097554333424336E-2</v>
+      </c>
+      <c r="R20" s="6">
+        <f>R19+1</f>
         <v>2</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f>(D4-D3)/D4</f>
         <v>0.39581363878321912</v>
       </c>
-      <c r="S20">
-        <f>(S4-S3)/S4</f>
+      <c r="T20">
+        <f>(T4-T3)/T4</f>
         <v>0.37183807205949732</v>
       </c>
-      <c r="T20">
-        <f>(AB4-AB3)/AB4</f>
+      <c r="U20">
+        <f>(AC4-AC3)/AC4</f>
         <v>0.44886597259574035</v>
       </c>
-      <c r="U20">
-        <f>(AK4-AK3)/AK4</f>
+      <c r="V20">
+        <f>(AL4-AL3)/AL4</f>
         <v>0.26120216127717649</v>
       </c>
-      <c r="V20">
-        <f>(AT4-AT3)/AT4</f>
+      <c r="W20">
+        <f>(AU4-AU3)/AU4</f>
         <v>0.25951198234371448</v>
       </c>
-      <c r="AH20" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI20">
+      <c r="AI20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
         <v>14000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.43663630326231812</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1.9847543536196559</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1.2202</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ20" s="13">
-        <v>1</v>
-      </c>
-      <c r="AR20">
+      <c r="AR20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS20">
         <v>14000</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>2</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>2.280744337298005E-2</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>0.96613963765197985</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>0.50850000000000006</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ20" s="13">
-        <v>1</v>
-      </c>
-      <c r="BA20">
+      <c r="BA20" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB20">
         <v>20000</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>2</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>0.78896175297514703</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>3.3784626087081819</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>1.649</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ20" s="13">
+        <v>1</v>
+      </c>
+      <c r="BK20">
+        <v>14000</v>
+      </c>
+      <c r="BL20">
+        <v>2</v>
+      </c>
+      <c r="BM20">
+        <v>0.66398412778213878</v>
+      </c>
+      <c r="BN20">
+        <v>2.6313166230809482</v>
+      </c>
+      <c r="BO20">
+        <v>1.0599099999999999</v>
+      </c>
+      <c r="BQ20">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="21" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" ref="B21:B28" si="0">B20+1</f>
         <v>3</v>
@@ -2525,130 +2609,155 @@
         <v>1.476470116554285E-2</v>
       </c>
       <c r="D21">
-        <f>(T4-T5)/T5</f>
+        <f>(U4-U5)/U5</f>
         <v>1.602522029832221E-3</v>
       </c>
       <c r="E21">
-        <f>(AC4-AC5)/AC5</f>
+        <f>(AD4-AD5)/AD5</f>
         <v>3.3893481774347456E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="1">(AL4-AL5)/AL5</f>
+        <f t="shared" ref="F21:F27" si="1">(AM4-AM5)/AM5</f>
         <v>2.6026202444045811E-3</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:G27" si="2">(AU4-AU5)/AU5</f>
+        <f t="shared" ref="G21:G27" si="2">(AV4-AV5)/AV5</f>
         <v>2.0090557373475284E-2</v>
       </c>
       <c r="H21" s="4">
-        <f>(BD4-BD5)/BD5</f>
+        <f>(BE4-BE5)/BE5</f>
         <v>1.6189914601774193E-2</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I27" si="3">(BM4-BM5)/BM5</f>
+        <f t="shared" ref="I21:I27" si="3">(BN4-BN5)/BN5</f>
         <v>-1.377665118715758E-2</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" ref="J21:J27" si="4">(AL20-AL21)/AL21</f>
+        <f t="shared" ref="J21:J27" si="4">(AM20-AM21)/AM21</f>
         <v>-2.1916758437596592E-2</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" ref="K21:K27" si="5">(AU20-AU21)/AU21</f>
+        <f t="shared" ref="K21:K27" si="5">(AV20-AV21)/AV21</f>
         <v>2.475683914293628E-2</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" ref="L21:L27" si="6">(BD20-BD21)/BD21</f>
+        <f t="shared" ref="L21:L27" si="6">(BE20-BE21)/BE21</f>
         <v>-3.4941215570439897E-3</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" ref="Q21:Q28" si="7">Q20+1</f>
+      <c r="M21" s="4">
+        <f>(BN20-BN21)/BN21</f>
+        <v>4.560632584366487E-2</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21:R28" si="7">R20+1</f>
         <v>3</v>
       </c>
-      <c r="R21">
-        <f t="shared" ref="R21:R27" si="8">(D5-D4)/D5</f>
+      <c r="S21">
+        <f t="shared" ref="S21:S27" si="8">(D5-D4)/D5</f>
         <v>0.10176566872127661</v>
       </c>
-      <c r="S21">
-        <f t="shared" ref="S21:S29" si="9">(S5-S4)/S5</f>
+      <c r="T21">
+        <f t="shared" ref="T21:T29" si="9">(T5-T4)/T5</f>
         <v>8.5557354256765014E-2</v>
       </c>
-      <c r="T21">
-        <f t="shared" ref="T21:T27" si="10">(AB5-AB4)/AB5</f>
+      <c r="U21">
+        <f t="shared" ref="U21:U27" si="10">(AC5-AC4)/AC5</f>
         <v>7.1481595096278494E-2</v>
       </c>
-      <c r="U21">
-        <f t="shared" ref="U21:U27" si="11">(AK5-AK4)/AK5</f>
+      <c r="V21">
+        <f t="shared" ref="V21:V27" si="11">(AL5-AL4)/AL5</f>
         <v>9.773195075543345E-2</v>
       </c>
-      <c r="V21">
-        <f t="shared" ref="V21:V27" si="12">(AT5-AT4)/AT5</f>
+      <c r="W21">
+        <f t="shared" ref="W21:W27" si="12">(AU5-AU4)/AU5</f>
         <v>0.21229867917953107</v>
       </c>
-      <c r="AH21" s="13">
+      <c r="AI21" s="13">
         <v>2</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>14000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>3</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.45510164011606169</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2.029228463672665</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1.4260999999999999</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ21" s="13">
+      <c r="AR21" s="13">
         <v>2</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>14000</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>3</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>3.9652006835209863E-2</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0.94279891653128034</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>0.59005000000000007</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ21" s="13">
+      <c r="BA21" s="13">
         <v>2</v>
       </c>
-      <c r="BA21">
+      <c r="BB21">
         <v>20000</v>
       </c>
-      <c r="BB21">
+      <c r="BC21">
         <v>3</v>
       </c>
-      <c r="BC21">
+      <c r="BD21">
         <v>0.85624013185044456</v>
       </c>
-      <c r="BD21">
+      <c r="BE21">
         <v>3.390308759630241</v>
       </c>
-      <c r="BE21">
+      <c r="BF21">
         <v>1.67299</v>
       </c>
-      <c r="BG21">
+      <c r="BH21">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BK21">
+        <v>14000</v>
+      </c>
+      <c r="BL21">
+        <v>3</v>
+      </c>
+      <c r="BM21">
+        <v>0.7362229359856024</v>
+      </c>
+      <c r="BN21">
+        <v>2.5165461972103378</v>
+      </c>
+      <c r="BO21">
+        <v>1.1028800000000001</v>
+      </c>
+      <c r="BQ21">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="22" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2658,11 +2767,11 @@
         <v>6.0519930267361223E-3</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="13">(T5-T6)/T6</f>
+        <f t="shared" ref="D22:D27" si="13">(U5-U6)/U6</f>
         <v>9.1718676206817111E-4</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="14">(AC5-AC6)/AC6</f>
+        <f t="shared" ref="E22:E26" si="14">(AD5-AD6)/AD6</f>
         <v>8.3788475357532057E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2670,11 +2779,11 @@
         <v>2.6828585624238292E-2</v>
       </c>
       <c r="G22">
-        <f>(AU5-AU6)/AU6</f>
+        <f>(AV5-AV6)/AV6</f>
         <v>-2.7003661730892947E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="15">(BD5-BD6)/BD6</f>
+        <f t="shared" ref="H22:H27" si="15">(BE5-BE6)/BE6</f>
         <v>2.830162123108083E-3</v>
       </c>
       <c r="I22">
@@ -2693,101 +2802,126 @@
         <f t="shared" si="6"/>
         <v>2.4397135702748885E-3</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="M22">
+        <f t="shared" ref="M21:M27" si="16">(BN21-BN22)/BN22</f>
+        <v>-1.6658879214449803E-2</v>
+      </c>
+      <c r="R22" s="6">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="8"/>
         <v>7.6646158209822388E-2</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="9"/>
         <v>5.8682521593663856E-2</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="10"/>
         <v>7.2696141264064873E-2</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f t="shared" si="11"/>
         <v>0.16708960155030728</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <f t="shared" si="12"/>
         <v>5.9839952835964098E-2</v>
       </c>
-      <c r="AH22" s="13">
+      <c r="AI22" s="13">
         <v>3</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>14000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>4</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.48008099093098472</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>2.0671624339921428</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1.5485</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ22" s="13">
+      <c r="AR22" s="13">
         <v>3</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>14000</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>4</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>5.4282398599628787E-2</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0.94111366624068571</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>0.59388200000000002</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ22" s="13">
+      <c r="BA22" s="13">
         <v>3</v>
       </c>
-      <c r="BA22">
+      <c r="BB22">
         <v>20000</v>
       </c>
-      <c r="BB22">
+      <c r="BC22">
         <v>4</v>
       </c>
-      <c r="BC22">
+      <c r="BD22">
         <v>0.90795121919934418</v>
       </c>
-      <c r="BD22">
+      <c r="BE22">
         <v>3.3820575080324442</v>
       </c>
-      <c r="BE22">
+      <c r="BF22">
         <v>1.7728900000000001</v>
       </c>
-      <c r="BG22">
+      <c r="BH22">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ22" s="13">
+        <v>3</v>
+      </c>
+      <c r="BK22">
+        <v>14000</v>
+      </c>
+      <c r="BL22">
+        <v>4</v>
+      </c>
+      <c r="BM22">
+        <v>0.77038404586706954</v>
+      </c>
+      <c r="BN22">
+        <v>2.5591792553127179</v>
+      </c>
+      <c r="BO22">
+        <v>1.18492</v>
+      </c>
+      <c r="BQ22">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="23" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C27" si="16">(E6-E7)/E7</f>
+        <f t="shared" ref="C23:C27" si="17">(E6-E7)/E7</f>
         <v>1.2553697719539917E-3</v>
       </c>
       <c r="D23">
@@ -2799,7 +2933,7 @@
         <v>3.2751722261865736E-3</v>
       </c>
       <c r="F23" s="7">
-        <f>(AL6-AL7)/AL7</f>
+        <f>(AM6-AM7)/AM7</f>
         <v>2.9653127752681885E-3</v>
       </c>
       <c r="G23">
@@ -2826,101 +2960,126 @@
         <f t="shared" si="6"/>
         <v>-1.0375606843394333E-2</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="M23">
+        <f t="shared" si="16"/>
+        <v>-2.788535054287773E-3</v>
+      </c>
+      <c r="R23" s="6">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="8"/>
         <v>4.9151504423963835E-2</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="9"/>
         <v>3.0016184734596496E-2</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="10"/>
         <v>5.3218237177546097E-2</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <f t="shared" si="11"/>
         <v>3.899768779105587E-2</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f t="shared" si="12"/>
         <v>7.4313676922907565E-2</v>
       </c>
-      <c r="AH23" s="13">
+      <c r="AI23" s="13">
         <v>4</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>14000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>5</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.5226406867094312</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2.0645340164466468</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1.6956</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ23" s="13">
+      <c r="AR23" s="13">
         <v>4</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>14000</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>5</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>5.8026462298956548E-2</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>0.94669754483363777</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>0.60322200000000004</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ23" s="13">
+      <c r="BA23" s="13">
         <v>4</v>
       </c>
-      <c r="BA23">
+      <c r="BB23">
         <v>20000</v>
       </c>
-      <c r="BB23">
+      <c r="BC23">
         <v>5</v>
       </c>
-      <c r="BC23">
+      <c r="BD23">
         <v>0.92721678724985468</v>
       </c>
-      <c r="BD23">
+      <c r="BE23">
         <v>3.4175163136841169</v>
       </c>
-      <c r="BE23">
+      <c r="BF23">
         <v>1.8817900000000001</v>
       </c>
-      <c r="BG23">
+      <c r="BH23">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ23" s="13">
+        <v>4</v>
+      </c>
+      <c r="BK23">
+        <v>14000</v>
+      </c>
+      <c r="BL23">
+        <v>5</v>
+      </c>
+      <c r="BM23">
+        <v>0.82107294059146763</v>
+      </c>
+      <c r="BN23">
+        <v>2.5663355720163512</v>
+      </c>
+      <c r="BO23">
+        <v>1.34022</v>
+      </c>
+      <c r="BQ23">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="24" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.5331216924087842E-3</v>
       </c>
       <c r="D24">
@@ -2928,7 +3087,7 @@
         <v>-6.4551222529511492E-4</v>
       </c>
       <c r="E24">
-        <f>(AC7-AC8)/AC8</f>
+        <f>(AD7-AD8)/AD8</f>
         <v>2.5626877884473687E-3</v>
       </c>
       <c r="F24">
@@ -2959,101 +3118,126 @@
         <f t="shared" si="6"/>
         <v>-4.2272768298144952E-3</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="M24">
+        <f t="shared" si="16"/>
+        <v>-4.069121662935795E-3</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="8"/>
         <v>4.2686815096649983E-2</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="9"/>
         <v>4.4278249967540102E-2</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="10"/>
         <v>3.9822575755710674E-2</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f t="shared" si="11"/>
         <v>1.8254949408081911E-2</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <f t="shared" si="12"/>
         <v>2.620127547567833E-2</v>
       </c>
-      <c r="AH24" s="13">
+      <c r="AI24" s="13">
         <v>5</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>14000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>6</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.55026160561707127</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>2.0525202365127591</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1.7874000000000001</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ24" s="13">
+      <c r="AR24" s="13">
         <v>5</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>14000</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>6</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>5.8289543283584197E-2</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>0.95106566663789227</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>0.61840200000000001</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ24" s="13">
+      <c r="BA24" s="13">
         <v>5</v>
       </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>20000</v>
       </c>
-      <c r="BB24">
+      <c r="BC24">
         <v>6</v>
       </c>
-      <c r="BC24">
+      <c r="BD24">
         <v>0.93248005872858164</v>
       </c>
-      <c r="BD24">
+      <c r="BE24">
         <v>3.432024431040813</v>
       </c>
-      <c r="BE24">
+      <c r="BF24">
         <v>1.90463</v>
       </c>
-      <c r="BG24">
+      <c r="BH24">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ24" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK24">
+        <v>14000</v>
+      </c>
+      <c r="BL24">
+        <v>6</v>
+      </c>
+      <c r="BM24">
+        <v>0.86572863487878382</v>
+      </c>
+      <c r="BN24">
+        <v>2.576820970047077</v>
+      </c>
+      <c r="BO24">
+        <v>1.4347799999999999</v>
+      </c>
+      <c r="BQ24">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="25" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0474507201882914E-2</v>
       </c>
       <c r="D25">
@@ -3092,105 +3276,130 @@
         <f t="shared" si="6"/>
         <v>-1.1024116644161371E-3</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="M25">
+        <f t="shared" si="16"/>
+        <v>-4.0286664007317804E-3</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="8"/>
         <v>4.4785647777125841E-2</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="9"/>
         <v>3.4152860871484746E-2</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="10"/>
         <v>3.8026372244194445E-2</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f t="shared" si="11"/>
         <v>2.5035106576661761E-2</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <f t="shared" si="12"/>
         <v>1.0543091480369964E-2</v>
       </c>
-      <c r="AH25" s="13">
+      <c r="AI25" s="13">
         <v>6</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>14000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>7</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.55904622855672681</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>2.0568417043169829</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1.8151299999999999</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ25" s="13">
+      <c r="AR25" s="13">
         <v>6</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>14000</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>7</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>5.8329351121850267E-2</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>0.95176331116557289</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>0.62057600000000002</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ25" s="13">
+      <c r="BA25" s="13">
         <v>6</v>
       </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>20000</v>
       </c>
-      <c r="BB25">
+      <c r="BC25">
         <v>7</v>
       </c>
-      <c r="BC25">
+      <c r="BD25">
         <v>0.9374691948281535</v>
       </c>
-      <c r="BD25">
+      <c r="BE25">
         <v>3.435812110388047</v>
       </c>
-      <c r="BE25">
+      <c r="BF25">
         <v>1.92791</v>
       </c>
-      <c r="BG25">
+      <c r="BH25">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ25" s="13">
+        <v>6</v>
+      </c>
+      <c r="BK25">
+        <v>14000</v>
+      </c>
+      <c r="BL25">
+        <v>7</v>
+      </c>
+      <c r="BM25">
+        <v>0.87912773793855647</v>
+      </c>
+      <c r="BN25">
+        <v>2.587244113477535</v>
+      </c>
+      <c r="BO25">
+        <v>1.46536</v>
+      </c>
+      <c r="BQ25">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="26" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0720710504481175E-3</v>
       </c>
       <c r="D26">
-        <f>(T9-T10)/T10</f>
+        <f>(U9-U10)/U10</f>
         <v>7.8479949475812312E-4</v>
       </c>
       <c r="E26">
@@ -3225,101 +3434,126 @@
         <f t="shared" si="6"/>
         <v>-6.6846274590690629E-5</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="M26">
+        <f t="shared" si="16"/>
+        <v>-1.0992101548848775E-3</v>
+      </c>
+      <c r="R26" s="6">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="8"/>
         <v>9.7504489348369978E-3</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="9"/>
         <v>1.2852928851536664E-2</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="10"/>
         <v>1.4997704246726501E-2</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f t="shared" si="11"/>
         <v>2.3023925946269997E-2</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <f t="shared" si="12"/>
         <v>2.3277044875244048E-2</v>
       </c>
-      <c r="AH26" s="13">
+      <c r="AI26" s="13">
         <v>7</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>14000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>8</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.56412695093570242</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2.0598441956963049</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.83718</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ26" s="13">
+      <c r="AR26" s="13">
         <v>7</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>14000</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>8</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>5.8340214444982483E-2</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>0.95199686436600617</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>0.62135200000000002</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ26" s="13">
+      <c r="BA26" s="13">
         <v>7</v>
       </c>
-      <c r="BA26">
+      <c r="BB26">
         <v>20000</v>
       </c>
-      <c r="BB26">
+      <c r="BC26">
         <v>8</v>
       </c>
-      <c r="BC26">
+      <c r="BD26">
         <v>0.94016820150631564</v>
       </c>
-      <c r="BD26">
+      <c r="BE26">
         <v>3.4360417969815131</v>
       </c>
-      <c r="BE26">
+      <c r="BF26">
         <v>1.9418500000000001</v>
       </c>
-      <c r="BG26">
+      <c r="BH26">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ26" s="13">
+        <v>7</v>
+      </c>
+      <c r="BK26">
+        <v>14000</v>
+      </c>
+      <c r="BL26">
+        <v>8</v>
+      </c>
+      <c r="BM26">
+        <v>0.88204496421113954</v>
+      </c>
+      <c r="BN26">
+        <v>2.5900911679914689</v>
+      </c>
+      <c r="BO26">
+        <v>1.4773000000000001</v>
+      </c>
+      <c r="BQ26">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="27" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0028820484149271E-3</v>
       </c>
       <c r="D27">
@@ -3327,7 +3561,7 @@
         <v>3.1752462770683504E-4</v>
       </c>
       <c r="E27">
-        <f>(AC10-AC11)/AC11</f>
+        <f>(AD10-AD11)/AD11</f>
         <v>1.2805209029584394E-3</v>
       </c>
       <c r="F27">
@@ -3358,123 +3592,148 @@
         <f t="shared" si="6"/>
         <v>-2.1830652667643912E-4</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="M27">
+        <f t="shared" si="16"/>
+        <v>2.5007514818355076E-4</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="8"/>
         <v>4.4282359502808418E-3</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="9"/>
         <v>5.0659100638200602E-3</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="10"/>
         <v>7.6460337820037638E-3</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <f t="shared" si="11"/>
         <v>5.7068466060010122E-3</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <f t="shared" si="12"/>
         <v>1.6803715234263625E-3</v>
       </c>
-      <c r="AH27" s="13">
+      <c r="AI27" s="13">
         <v>8</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>14000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>9</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.56534309497970381</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2.0622671594319701</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.8484799999999999</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AQ27" s="13">
+      <c r="AR27" s="13">
         <v>8</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>14000</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>9</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>5.8349278038534548E-2</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>0.9520897769678992</v>
       </c>
-      <c r="AV27">
+      <c r="AW27">
         <v>0.62194400000000005</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
         <v>0.83028189799088314</v>
       </c>
-      <c r="AZ27" s="13">
+      <c r="BA27" s="13">
         <v>8</v>
       </c>
-      <c r="BA27">
+      <c r="BB27">
         <v>20000</v>
       </c>
-      <c r="BB27">
+      <c r="BC27">
         <v>9</v>
       </c>
-      <c r="BC27">
+      <c r="BD27">
         <v>0.94065254115938446</v>
       </c>
-      <c r="BD27">
+      <c r="BE27">
         <v>3.4367920711214688</v>
       </c>
-      <c r="BE27">
+      <c r="BF27">
         <v>1.9454979999999999</v>
       </c>
-      <c r="BG27">
+      <c r="BH27">
         <v>3.5115795310554612</v>
       </c>
+      <c r="BJ27" s="13">
+        <v>8</v>
+      </c>
+      <c r="BK27">
+        <v>14000</v>
+      </c>
+      <c r="BL27">
+        <v>9</v>
+      </c>
+      <c r="BM27">
+        <v>0.88341321807603823</v>
+      </c>
+      <c r="BN27">
+        <v>2.5894436124963609</v>
+      </c>
+      <c r="BO27">
+        <v>1.4813480000000001</v>
+      </c>
+      <c r="BQ27">
+        <v>2.8727214548726101</v>
+      </c>
     </row>
-    <row r="28" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R28" s="6">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="S28" t="e">
+      <c r="T28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
       </c>
-      <c r="Q29" s="6">
-        <f>Q28+1</f>
+      <c r="R29" s="6">
+        <f>R28+1</f>
         <v>11</v>
       </c>
-      <c r="S29" t="e">
+      <c r="T29" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:59" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>12</v>
       </c>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D856D47-97AF-4B6A-94AF-E45C1480B9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B600B7-E451-4308-9B64-7D382F85A0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="areas+subareas" sheetId="1" r:id="rId1"/>
+    <sheet name="time areas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>search_radius</t>
   </si>
@@ -120,6 +121,9 @@
   </si>
   <si>
     <t>area 1a</t>
+  </si>
+  <si>
+    <t>area1_Tr</t>
   </si>
 </sst>
 </file>
@@ -222,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -254,6 +258,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -572,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
   <dimension ref="A2:BQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,7 +2810,7 @@
         <v>2.4397135702748885E-3</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M21:M27" si="16">(BN21-BN22)/BN22</f>
+        <f t="shared" ref="M22:M27" si="16">(BN21-BN22)/BN22</f>
         <v>-1.6658879214449803E-2</v>
       </c>
       <c r="R22" s="6">
@@ -3742,4 +3749,478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850AAEF0-F5D9-4E3E-9FDD-356EECB18730}">
+  <dimension ref="A2:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>87000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.43717317819434742</v>
+      </c>
+      <c r="E3">
+        <v>2.6265182092840842</v>
+      </c>
+      <c r="F3">
+        <v>0.31608000000000003</v>
+      </c>
+      <c r="H3">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>87000</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.66120576229191619</v>
+      </c>
+      <c r="E4">
+        <v>2.4918050815388022</v>
+      </c>
+      <c r="F4">
+        <v>0.56288000000000005</v>
+      </c>
+      <c r="H4">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>87000</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.69122066352323919</v>
+      </c>
+      <c r="E5">
+        <v>2.4958701799670471</v>
+      </c>
+      <c r="F5">
+        <v>0.83357999999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>87000</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.72987024243511855</v>
+      </c>
+      <c r="E6">
+        <v>2.489556444467377</v>
+      </c>
+      <c r="F6">
+        <v>0.98537999999999992</v>
+      </c>
+      <c r="H6">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>87000</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.76801668524562994</v>
+      </c>
+      <c r="E7">
+        <v>2.4767583456302118</v>
+      </c>
+      <c r="F7">
+        <v>1.10528</v>
+      </c>
+      <c r="H7">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>87000</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.79768752558498712</v>
+      </c>
+      <c r="E8">
+        <v>2.4595125431380929</v>
+      </c>
+      <c r="F8">
+        <v>1.20658</v>
+      </c>
+      <c r="H8">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>87000</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.81728899392218368</v>
+      </c>
+      <c r="E9">
+        <v>2.4456407782189942</v>
+      </c>
+      <c r="F9">
+        <v>1.2781</v>
+      </c>
+      <c r="H9">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>87000</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.82611892005041099</v>
+      </c>
+      <c r="E10">
+        <v>2.4374875563130929</v>
+      </c>
+      <c r="F10">
+        <v>1.30281</v>
+      </c>
+      <c r="H10">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>87000</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.8303573922275006</v>
+      </c>
+      <c r="E11">
+        <v>2.43546494054576</v>
+      </c>
+      <c r="F11">
+        <v>1.310154</v>
+      </c>
+      <c r="H11">
+        <v>2.8989986010284099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <f>A18+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <f>(E3-E4)/E4</f>
+        <v>5.4062466098708871E-2</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <f t="shared" ref="A20:A27" si="0">A19+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <f t="shared" ref="B20:B26" si="1">(E4-E5)/E5</f>
+        <v>-1.6287299158718842E-3</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5360885123537937E-3</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="1"/>
+        <v>5.1672779703135418E-3</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0118782440178199E-3</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="1"/>
+        <v>5.6720369739666453E-3</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3449286273418881E-3</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3048445233608009E-4</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <f>A27+1</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B600B7-E451-4308-9B64-7D382F85A0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA3310-CA75-4301-BCBB-58E141A8E1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>search_radius</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>area1_Tr</t>
+  </si>
+  <si>
+    <t>Area1_J</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -261,6 +264,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3753,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850AAEF0-F5D9-4E3E-9FDD-356EECB18730}">
-  <dimension ref="A2:M28"/>
+  <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3764,7 +3770,7 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3789,8 +3795,32 @@
       <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>0</v>
       </c>
@@ -3812,8 +3842,29 @@
       <c r="H3">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>50000</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.42406054176902208</v>
+      </c>
+      <c r="N3">
+        <v>2.8262070049346111</v>
+      </c>
+      <c r="O3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -3835,8 +3886,29 @@
       <c r="H4">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>50000</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0.54900806190470097</v>
+      </c>
+      <c r="N4">
+        <v>2.7399736089101649</v>
+      </c>
+      <c r="O4">
+        <v>1.0053000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -3858,8 +3930,29 @@
       <c r="H5">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="15">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>50000</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.61107597192968421</v>
+      </c>
+      <c r="N5">
+        <v>2.7204385818652139</v>
+      </c>
+      <c r="O5">
+        <v>1.3193999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -3881,8 +3974,29 @@
       <c r="H6">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="15">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>50000</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.64099357177141525</v>
+      </c>
+      <c r="N6">
+        <v>2.7099800480744709</v>
+      </c>
+      <c r="O6">
+        <v>1.5066999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -3904,8 +4018,29 @@
       <c r="H7">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="15">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>50000</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0.67477408712443221</v>
+      </c>
+      <c r="N7">
+        <v>2.6962152653041431</v>
+      </c>
+      <c r="O7">
+        <v>1.7039</v>
+      </c>
+      <c r="Q7">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -3927,8 +4062,29 @@
       <c r="H8">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="15">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>50000</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>0.6931018091641904</v>
+      </c>
+      <c r="N8">
+        <v>2.693607897500145</v>
+      </c>
+      <c r="O8">
+        <v>1.8587</v>
+      </c>
+      <c r="Q8">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -3950,8 +4106,29 @@
       <c r="H9">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="15">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>50000</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>0.70994737835186428</v>
+      </c>
+      <c r="N9">
+        <v>2.6758933169329411</v>
+      </c>
+      <c r="O9">
+        <v>1.9283600000000001</v>
+      </c>
+      <c r="Q9">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -3973,8 +4150,29 @@
       <c r="H10">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="15">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>50000</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>0.71523178104272533</v>
+      </c>
+      <c r="N10">
+        <v>2.674128008380078</v>
+      </c>
+      <c r="O10">
+        <v>1.96671</v>
+      </c>
+      <c r="Q10">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -3996,8 +4194,29 @@
       <c r="H11">
         <v>2.8989986010284099</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="15">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>50000</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>0.7189797314937546</v>
+      </c>
+      <c r="N11">
+        <v>2.6714689188225349</v>
+      </c>
+      <c r="O11">
+        <v>1.9789699999999999</v>
+      </c>
+      <c r="Q11">
+        <v>2.984007837949191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4009,7 +4228,9 @@
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -4028,7 +4249,9 @@
       <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -4049,7 +4272,10 @@
         <f>(E3-E4)/E4</f>
         <v>5.4062466098708871E-2</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="4">
+        <f>(N3-N4)/N4</f>
+        <v>3.1472345479541239E-2</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -4070,7 +4296,10 @@
         <f t="shared" ref="B20:B26" si="1">(E4-E5)/E5</f>
         <v>-1.6287299158718842E-3</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:C26" si="2">(N4-N5)/N5</f>
+        <v>7.1808373749637187E-3</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -4091,7 +4320,10 @@
         <f t="shared" si="1"/>
         <v>2.5360885123537937E-3</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8592659743654379E-3</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -4112,7 +4344,10 @@
         <f t="shared" si="1"/>
         <v>5.1672779703135418E-3</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7">
+        <f t="shared" si="2"/>
+        <v>5.1052239587312991E-3</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -4133,7 +4368,10 @@
         <f t="shared" si="1"/>
         <v>7.0118782440178199E-3</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7">
+        <f t="shared" si="2"/>
+        <v>9.6798342714171247E-4</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -4154,7 +4392,10 @@
         <f t="shared" si="1"/>
         <v>5.6720369739666453E-3</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6200623377272736E-3</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -4175,7 +4416,10 @@
         <f t="shared" si="1"/>
         <v>3.3449286273418881E-3</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6014362339087698E-4</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -4196,7 +4440,10 @@
         <f t="shared" si="1"/>
         <v>8.3048445233608009E-4</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7">
+        <f t="shared" si="2"/>
+        <v>9.9536608448176698E-4</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA3310-CA75-4301-BCBB-58E141A8E1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6C39E-831F-4482-8A96-5DCECBB1F87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
   <si>
     <t>search_radius</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Area1_J</t>
+  </si>
+  <si>
+    <t>Area1_Tr_J</t>
   </si>
 </sst>
 </file>
@@ -3759,18 +3762,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850AAEF0-F5D9-4E3E-9FDD-356EECB18730}">
-  <dimension ref="A2:Q28"/>
+  <dimension ref="A2:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3819,8 +3823,29 @@
       <c r="Q2" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>0</v>
       </c>
@@ -3863,8 +3888,29 @@
       <c r="Q3">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3" s="15">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>66000</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0.28125760485973661</v>
+      </c>
+      <c r="X3">
+        <v>2.3509289610301458</v>
+      </c>
+      <c r="Y3">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -3907,8 +3953,29 @@
       <c r="Q4">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>66000</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>0.4547820133040883</v>
+      </c>
+      <c r="X4">
+        <v>2.406715325117843</v>
+      </c>
+      <c r="Y4">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -3951,8 +4018,29 @@
       <c r="Q5">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5" s="15">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>66000</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>0.53800802344826559</v>
+      </c>
+      <c r="X5">
+        <v>2.3877721669726442</v>
+      </c>
+      <c r="Y5">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="AA5">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -3995,8 +4083,29 @@
       <c r="Q6">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T6" s="15">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>66000</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>0.57836209003307482</v>
+      </c>
+      <c r="X6">
+        <v>2.4038485396639562</v>
+      </c>
+      <c r="Y6">
+        <v>0.7229000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -4039,8 +4148,29 @@
       <c r="Q7">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7" s="15">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>66000</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>0.62165373533021318</v>
+      </c>
+      <c r="X7">
+        <v>2.4014797587545371</v>
+      </c>
+      <c r="Y7">
+        <v>0.87840000000000007</v>
+      </c>
+      <c r="AA7">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -4083,8 +4213,29 @@
       <c r="Q8">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8" s="15">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>66000</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>0.67730250789055879</v>
+      </c>
+      <c r="X8">
+        <v>2.4002856745922849</v>
+      </c>
+      <c r="Y8">
+        <v>1.0198</v>
+      </c>
+      <c r="AA8">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -4127,8 +4278,29 @@
       <c r="Q9">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9" s="15">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>66000</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>0.72007765087278808</v>
+      </c>
+      <c r="X9">
+        <v>2.3936920765661478</v>
+      </c>
+      <c r="Y9">
+        <v>1.08135</v>
+      </c>
+      <c r="AA9">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -4171,8 +4343,29 @@
       <c r="Q10">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10" s="15">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>66000</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>0.72614428894514937</v>
+      </c>
+      <c r="X10">
+        <v>2.3950052698667679</v>
+      </c>
+      <c r="Y10">
+        <v>1.0929500000000001</v>
+      </c>
+      <c r="AA10">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -4215,8 +4408,29 @@
       <c r="Q11">
         <v>2.984007837949191</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T11" s="15">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>66000</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>0.7295713223809891</v>
+      </c>
+      <c r="X11">
+        <v>2.3940867097412268</v>
+      </c>
+      <c r="Y11">
+        <v>1.1013820000000001</v>
+      </c>
+      <c r="AA11">
+        <v>2.4441458342693072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4231,7 +4445,9 @@
       <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -4252,7 +4468,9 @@
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -4276,7 +4494,10 @@
         <f>(N3-N4)/N4</f>
         <v>3.1472345479541239E-2</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <f>(X3-X4)/X4</f>
+        <v>-2.3179461029511531E-2</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -4300,7 +4521,10 @@
         <f t="shared" ref="C20:C26" si="2">(N4-N5)/N5</f>
         <v>7.1808373749637187E-3</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D26" si="3">(X4-X5)/X5</f>
+        <v>7.9334026952898526E-3</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -4324,7 +4548,10 @@
         <f t="shared" si="2"/>
         <v>3.8592659743654379E-3</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <f t="shared" si="3"/>
+        <v>-6.6877644019782525E-3</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -4348,7 +4575,10 @@
         <f t="shared" si="2"/>
         <v>5.1052239587312991E-3</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7">
+        <f t="shared" si="3"/>
+        <v>9.8638387468548113E-4</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -4372,7 +4602,10 @@
         <f t="shared" si="2"/>
         <v>9.6798342714171247E-4</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9747585251702349E-4</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -4396,7 +4629,10 @@
         <f t="shared" si="2"/>
         <v>6.6200623377272736E-3</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.754572357358479E-3</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -4420,7 +4656,10 @@
         <f t="shared" si="2"/>
         <v>6.6014362339087698E-4</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7">
+        <f t="shared" si="3"/>
+        <v>-5.4830497333023672E-4</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -4444,7 +4683,10 @@
         <f t="shared" si="2"/>
         <v>9.9536608448176698E-4</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <f t="shared" si="3"/>
+        <v>3.8367872049225839E-4</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>

--- a/_INTERPOLATION/error_budget.xlsx
+++ b/_INTERPOLATION/error_budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6C39E-831F-4482-8A96-5DCECBB1F87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454F799-4240-4260-8F09-B127C5B79B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B30A4CA7-3C11-47FA-9AAE-51C8F55DE748}"/>
   </bookViews>
   <sheets>
     <sheet name="areas+subareas" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="34">
   <si>
     <t>search_radius</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Area1_Tr_J</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>Area2</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -264,12 +270,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671D0FF-6F7B-4180-8916-6B2747DEAF8E}">
-  <dimension ref="A2:BQ30"/>
+  <dimension ref="A2:BR29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:N29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,110 +600,88 @@
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="12" customWidth="1"/>
-    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="12" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="12" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="5" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="S2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="R2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>0</v>
@@ -726,8 +704,8 @@
       <c r="AP2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="5" t="s">
-        <v>8</v>
+      <c r="AR2" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="AS2" s="12" t="s">
         <v>0</v>
@@ -750,8 +728,8 @@
       <c r="AY2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="14" t="s">
-        <v>17</v>
+      <c r="BA2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="BB2" s="12" t="s">
         <v>0</v>
@@ -774,1397 +752,1461 @@
       <c r="BH2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BJ2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="Q3" s="10">
         <v>0</v>
       </c>
-      <c r="BL2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="R3">
+        <v>40000</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.36240814956195522</v>
+      </c>
+      <c r="U3">
+        <v>2.8305914679790618</v>
+      </c>
+      <c r="V3">
+        <v>0.5363</v>
+      </c>
+      <c r="X3">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z3" s="2">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>40000</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.36240814956195522</v>
-      </c>
-      <c r="E3">
-        <v>2.8305914679790618</v>
-      </c>
-      <c r="F3">
-        <v>0.5363</v>
-      </c>
-      <c r="H3">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="AA3">
         <v>50000</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>0.48067336594687038</v>
       </c>
-      <c r="U3">
+      <c r="AD3">
         <v>3.7283063930572342</v>
       </c>
-      <c r="V3">
+      <c r="AE3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="X3">
+      <c r="AG3">
         <v>3.7310623364769291</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>75000</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>0.38033031902469272</v>
-      </c>
-      <c r="AD3">
-        <v>3.6025795623284291</v>
-      </c>
-      <c r="AE3">
-        <v>0.75180000000000002</v>
-      </c>
-      <c r="AG3">
-        <v>3.748694078222786</v>
       </c>
       <c r="AI3" s="13">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK3">
         <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.53794659513894327</v>
+        <v>0.38033031902469272</v>
       </c>
       <c r="AM3">
-        <v>3.296988220851615</v>
+        <v>3.6025795623284291</v>
       </c>
       <c r="AN3">
-        <v>1.006</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="AP3">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR3" s="13">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT3">
         <v>1</v>
       </c>
       <c r="AU3">
-        <v>0.44461726443180999</v>
+        <v>0.53794659513894327</v>
       </c>
       <c r="AV3">
-        <v>4.0161955823321929</v>
+        <v>3.296988220851615</v>
       </c>
       <c r="AW3">
-        <v>0.68979999999999997</v>
+        <v>1.006</v>
       </c>
       <c r="AY3">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA3" s="13">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC3">
         <v>1</v>
       </c>
       <c r="BD3">
-        <v>0.3135243332821549</v>
+        <v>0.44461726443180999</v>
       </c>
       <c r="BE3">
-        <v>2.9954063794763091</v>
+        <v>4.0161955823321929</v>
       </c>
       <c r="BF3">
-        <v>0.70279999999999998</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="BH3">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ3" s="13">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>22500</v>
-      </c>
-      <c r="BL3">
-        <v>1</v>
-      </c>
-      <c r="BM3">
-        <v>0.22445657144535569</v>
-      </c>
-      <c r="BN3">
-        <v>4.2051235592021188</v>
-      </c>
-      <c r="BO3">
-        <v>1.3351999999999999</v>
-      </c>
-      <c r="BQ3">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>40000</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.59982841855631341</v>
-      </c>
-      <c r="E4">
-        <v>2.6622118979904501</v>
-      </c>
-      <c r="F4">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="H4">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>50000</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4">
-        <v>0.76520614282182042</v>
+        <v>0.59982841855631341</v>
       </c>
       <c r="U4">
-        <v>3.6058896144473729</v>
+        <v>2.6622118979904501</v>
       </c>
       <c r="V4">
-        <v>1.4483999999999999</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="X4">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z4" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z4" s="2">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB4">
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>0.69008680305220649</v>
+        <v>0.76520614282182042</v>
       </c>
       <c r="AD4">
-        <v>3.3636685309936909</v>
+        <v>3.6058896144473729</v>
       </c>
       <c r="AE4">
-        <v>1.3849</v>
+        <v>1.4483999999999999</v>
       </c>
       <c r="AG4">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI4" s="13">
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK4">
         <v>2</v>
       </c>
       <c r="AL4">
-        <v>0.72813774884466864</v>
+        <v>0.69008680305220649</v>
       </c>
       <c r="AM4">
-        <v>3.1505799926727289</v>
+        <v>3.3636685309936909</v>
       </c>
       <c r="AN4">
-        <v>1.4530000000000001</v>
+        <v>1.3849</v>
       </c>
       <c r="AP4">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR4" s="13">
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT4">
         <v>2</v>
       </c>
       <c r="AU4">
-        <v>0.60043816217184121</v>
+        <v>0.72813774884466864</v>
       </c>
       <c r="AV4">
-        <v>3.9723297262462758</v>
+        <v>3.1505799926727289</v>
       </c>
       <c r="AW4">
-        <v>1.1192</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="AY4">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA4" s="13">
         <v>1</v>
       </c>
       <c r="BB4">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC4">
         <v>2</v>
       </c>
       <c r="BD4">
-        <v>0.38298251998665372</v>
+        <v>0.60043816217184121</v>
       </c>
       <c r="BE4">
-        <v>2.9476851302561782</v>
+        <v>3.9723297262462758</v>
       </c>
       <c r="BF4">
-        <v>0.92720000000000002</v>
+        <v>1.1192</v>
       </c>
       <c r="BH4">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ4" s="13">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <v>22500</v>
-      </c>
-      <c r="BL4">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="BM4">
-        <v>0.36957190579716998</v>
-      </c>
-      <c r="BN4">
-        <v>4.1280536110648516</v>
-      </c>
-      <c r="BO4">
-        <v>1.8603000000000001</v>
-      </c>
-      <c r="BQ4">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="C5">
+        <f>(U3-U4)/U4</f>
+        <v>6.3247996944086865E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f>(AD3-AD4)/AD4</f>
+        <v>3.3949119828678542E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>(AM3-AM4)/AM4</f>
+        <v>7.1026924660783808E-2</v>
+      </c>
+      <c r="F5">
+        <f>(AV3-AV4)/AV4</f>
+        <v>4.6470246278268193E-2</v>
+      </c>
+      <c r="G5">
+        <f>(BE3-BE4)/BE4</f>
+        <v>1.1042853717827929E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(AE19-AE20)/AE20</f>
+        <v>1.6189398497926916E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(AN19-AN20)/AN20</f>
+        <v>1.8669803107859016E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(AW19-AW20)/AW20</f>
+        <v>3.5312532254588018E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(BF19-BF20)/BF20</f>
+        <v>-8.0637663947796159E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>(BO19-BO20)/BO20</f>
+        <v>9.4632826092389807E-2</v>
+      </c>
+      <c r="M5">
+        <f>(U19-U20)/U20</f>
+        <v>4.6097554333424336E-2</v>
+      </c>
+      <c r="Q5" s="10">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="R5">
         <v>40000</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0.66778611957794987</v>
-      </c>
-      <c r="E5">
-        <v>2.6234770434295509</v>
-      </c>
-      <c r="F5">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="H5">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>50000</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>0.83680058709409921</v>
+        <v>0.66778611957794987</v>
       </c>
       <c r="U5">
-        <v>3.600120342288808</v>
+        <v>2.6234770434295509</v>
       </c>
       <c r="V5">
-        <v>1.7071000000000001</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="X5">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z5" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z5" s="2">
         <v>2</v>
       </c>
       <c r="AA5">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB5">
         <v>3</v>
       </c>
       <c r="AC5">
-        <v>0.74321284253246644</v>
+        <v>0.83680058709409921</v>
       </c>
       <c r="AD5">
-        <v>3.3523063974154081</v>
+        <v>3.600120342288808</v>
       </c>
       <c r="AE5">
-        <v>1.7165999999999999</v>
+        <v>1.7071000000000001</v>
       </c>
       <c r="AG5">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI5" s="13">
         <v>2</v>
       </c>
       <c r="AJ5">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK5">
         <v>3</v>
       </c>
       <c r="AL5">
-        <v>0.80700823824395607</v>
+        <v>0.74321284253246644</v>
       </c>
       <c r="AM5">
-        <v>3.14240151487407</v>
+        <v>3.3523063974154081</v>
       </c>
       <c r="AN5">
-        <v>1.7876000000000001</v>
+        <v>1.7165999999999999</v>
       </c>
       <c r="AP5">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR5" s="13">
         <v>2</v>
       </c>
       <c r="AS5">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT5">
         <v>3</v>
       </c>
       <c r="AU5">
-        <v>0.76226628837745936</v>
+        <v>0.80700823824395607</v>
       </c>
       <c r="AV5">
-        <v>3.8940951835435209</v>
+        <v>3.14240151487407</v>
       </c>
       <c r="AW5">
-        <v>1.6471</v>
+        <v>1.7876000000000001</v>
       </c>
       <c r="AY5">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA5" s="13">
         <v>2</v>
       </c>
       <c r="BB5">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC5">
         <v>3</v>
       </c>
       <c r="BD5">
-        <v>0.44056957653022139</v>
+        <v>0.76226628837745936</v>
       </c>
       <c r="BE5">
-        <v>2.9007226778188611</v>
+        <v>3.8940951835435209</v>
       </c>
       <c r="BF5">
-        <v>1.1079399999999999</v>
+        <v>1.6471</v>
       </c>
       <c r="BH5">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ5" s="13">
-        <v>2</v>
-      </c>
-      <c r="BK5">
-        <v>22500</v>
-      </c>
-      <c r="BL5">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <f t="shared" ref="B6:B13" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="BM5">
-        <v>0.42531097324201539</v>
-      </c>
-      <c r="BN5">
-        <v>4.1857187989251718</v>
-      </c>
-      <c r="BO5">
-        <v>2.3582999999999998</v>
-      </c>
-      <c r="BQ5">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="C6" s="4">
+        <f>(U4-U5)/U5</f>
+        <v>1.476470116554285E-2</v>
+      </c>
+      <c r="D6">
+        <f>(AD4-AD5)/AD5</f>
+        <v>1.602522029832221E-3</v>
+      </c>
+      <c r="E6">
+        <f>(AM4-AM5)/AM5</f>
+        <v>3.3893481774347456E-3</v>
+      </c>
+      <c r="F6">
+        <f>(AV4-AV5)/AV5</f>
+        <v>2.6026202444045811E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(BE4-BE5)/BE5</f>
+        <v>2.0090557373475284E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(AE20-AE21)/AE21</f>
+        <v>1.6189914601774193E-2</v>
+      </c>
+      <c r="I6">
+        <f>(AN20-AN21)/AN21</f>
+        <v>-1.377665118715758E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <f>(AW20-AW21)/AW21</f>
+        <v>-2.1916758437596592E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <f>(BF20-BF21)/BF21</f>
+        <v>2.475683914293628E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <f>(BO20-BO21)/BO21</f>
+        <v>-3.4941215570439897E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <f>(U20-U21)/U21</f>
+        <v>4.560632584366487E-2</v>
+      </c>
+      <c r="Q6" s="10">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="R6">
         <v>40000</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0.72321800089471788</v>
-      </c>
-      <c r="E6">
-        <v>2.6076952897203109</v>
-      </c>
-      <c r="F6">
-        <v>1.2777000000000001</v>
-      </c>
-      <c r="H6">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>50000</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6">
-        <v>0.88896743796876532</v>
+        <v>0.72321800089471788</v>
       </c>
       <c r="U6">
-        <v>3.5968213853286608</v>
+        <v>2.6076952897203109</v>
       </c>
       <c r="V6">
-        <v>1.9228000000000001</v>
+        <v>1.2777000000000001</v>
       </c>
       <c r="X6">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z6" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z6" s="2">
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB6">
         <v>4</v>
       </c>
       <c r="AC6">
-        <v>0.80147713775890628</v>
+        <v>0.88896743796876532</v>
       </c>
       <c r="AD6">
-        <v>3.3244513266097129</v>
+        <v>3.5968213853286608</v>
       </c>
       <c r="AE6">
-        <v>1.95</v>
+        <v>1.9228000000000001</v>
       </c>
       <c r="AG6">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI6" s="13">
         <v>3</v>
       </c>
       <c r="AJ6">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK6">
         <v>4</v>
       </c>
       <c r="AL6">
-        <v>0.96890162464780283</v>
+        <v>0.80147713775890628</v>
       </c>
       <c r="AM6">
-        <v>3.0602980466926861</v>
+        <v>3.3244513266097129</v>
       </c>
       <c r="AN6">
-        <v>1.9857</v>
+        <v>1.95</v>
       </c>
       <c r="AP6">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR6" s="13">
         <v>3</v>
       </c>
       <c r="AS6">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT6">
         <v>4</v>
       </c>
       <c r="AU6">
-        <v>0.81078353699118821</v>
+        <v>0.96890162464780283</v>
       </c>
       <c r="AV6">
-        <v>3.904639138992577</v>
+        <v>3.0602980466926861</v>
       </c>
       <c r="AW6">
-        <v>1.9302999999999999</v>
+        <v>1.9857</v>
       </c>
       <c r="AY6">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA6" s="13">
         <v>3</v>
       </c>
       <c r="BB6">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC6">
         <v>4</v>
       </c>
       <c r="BD6">
-        <v>0.46639236828656983</v>
+        <v>0.81078353699118821</v>
       </c>
       <c r="BE6">
-        <v>2.8925363310549952</v>
+        <v>3.904639138992577</v>
       </c>
       <c r="BF6">
-        <v>1.30124</v>
+        <v>1.9302999999999999</v>
       </c>
       <c r="BH6">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ6" s="13">
-        <v>3</v>
-      </c>
-      <c r="BK6">
-        <v>22500</v>
-      </c>
-      <c r="BL6">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BM6">
-        <v>0.52555379164144767</v>
-      </c>
-      <c r="BN6">
-        <v>4.1527969844867956</v>
-      </c>
-      <c r="BO6">
-        <v>2.5823999999999998</v>
-      </c>
-      <c r="BQ6">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="C7">
+        <f>(U5-U6)/U6</f>
+        <v>6.0519930267361223E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <f>(AD5-AD6)/AD6</f>
+        <v>9.1718676206817111E-4</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(AM5-AM6)/AM6</f>
+        <v>8.3788475357532057E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <f>(AV5-AV6)/AV6</f>
+        <v>2.6828585624238292E-2</v>
+      </c>
+      <c r="G7">
+        <f>(BE5-BE6)/BE6</f>
+        <v>-2.7003661730892947E-3</v>
+      </c>
+      <c r="H7">
+        <f>(AE21-AE22)/AE22</f>
+        <v>2.830162123108083E-3</v>
+      </c>
+      <c r="I7">
+        <f>(AN21-AN22)/AN22</f>
+        <v>7.9276243364072765E-3</v>
+      </c>
+      <c r="J7" s="7">
+        <f>(AW21-AW22)/AW22</f>
+        <v>-1.8350744816032227E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <f>(BF21-BF22)/BF22</f>
+        <v>1.7906979263476507E-3</v>
+      </c>
+      <c r="L7" s="7">
+        <f>(BO21-BO22)/BO22</f>
+        <v>2.4397135702748885E-3</v>
+      </c>
+      <c r="M7">
+        <f>(U21-U22)/U22</f>
+        <v>-1.6658879214449803E-2</v>
+      </c>
+      <c r="Q7" s="10">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="R7">
         <v>40000</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.76060277137693022</v>
-      </c>
-      <c r="E7">
-        <v>2.6044257723324269</v>
-      </c>
-      <c r="F7">
-        <v>1.4574</v>
-      </c>
-      <c r="H7">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>50000</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
-        <v>0.91647656793688792</v>
+        <v>0.76060277137693022</v>
       </c>
       <c r="U7">
-        <v>3.6070003065766558</v>
+        <v>2.6044257723324269</v>
       </c>
       <c r="V7">
-        <v>2.1351</v>
+        <v>1.4574</v>
       </c>
       <c r="X7">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z7" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z7" s="2">
         <v>4</v>
       </c>
       <c r="AA7">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB7">
         <v>5</v>
       </c>
       <c r="AC7">
-        <v>0.84652785808803543</v>
+        <v>0.91647656793688792</v>
       </c>
       <c r="AD7">
-        <v>3.3135987201128718</v>
+        <v>3.6070003065766558</v>
       </c>
       <c r="AE7">
-        <v>2.0798000000000001</v>
+        <v>2.1351</v>
       </c>
       <c r="AG7">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI7" s="13">
         <v>4</v>
       </c>
       <c r="AJ7">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK7">
         <v>5</v>
       </c>
       <c r="AL7">
-        <v>1.0082198682963639</v>
+        <v>0.84652785808803543</v>
       </c>
       <c r="AM7">
-        <v>3.0512501356848012</v>
+        <v>3.3135987201128718</v>
       </c>
       <c r="AN7">
-        <v>2.1518999999999999</v>
+        <v>2.0798000000000001</v>
       </c>
       <c r="AP7">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR7" s="13">
         <v>4</v>
       </c>
       <c r="AS7">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT7">
         <v>5</v>
       </c>
       <c r="AU7">
-        <v>0.87587287051627427</v>
+        <v>1.0082198682963639</v>
       </c>
       <c r="AV7">
-        <v>3.8667462237616959</v>
+        <v>3.0512501356848012</v>
       </c>
       <c r="AW7">
-        <v>2.01986</v>
+        <v>2.1518999999999999</v>
       </c>
       <c r="AY7">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA7" s="13">
         <v>4</v>
       </c>
       <c r="BB7">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC7">
         <v>5</v>
       </c>
       <c r="BD7">
-        <v>0.48175799781117462</v>
+        <v>0.87587287051627427</v>
       </c>
       <c r="BE7">
-        <v>2.888593606065291</v>
+        <v>3.8667462237616959</v>
       </c>
       <c r="BF7">
-        <v>1.4191400000000001</v>
+        <v>2.01986</v>
       </c>
       <c r="BH7">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ7" s="13">
-        <v>4</v>
-      </c>
-      <c r="BK7">
-        <v>22500</v>
-      </c>
-      <c r="BL7">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BM7">
-        <v>0.56381355508322006</v>
-      </c>
-      <c r="BN7">
-        <v>4.1740647229724948</v>
-      </c>
-      <c r="BO7">
-        <v>2.8435000000000001</v>
-      </c>
-      <c r="BQ7">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="C8">
+        <f>(U6-U7)/U7</f>
+        <v>1.2553697719539917E-3</v>
+      </c>
+      <c r="D8">
+        <f>(AD6-AD7)/AD7</f>
+        <v>-2.8219906800217784E-3</v>
+      </c>
+      <c r="E8">
+        <f>(AM6-AM7)/AM7</f>
+        <v>3.2751722261865736E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <f>(AV6-AV7)/AV7</f>
+        <v>2.9653127752681885E-3</v>
+      </c>
+      <c r="G8">
+        <f>(BE6-BE7)/BE7</f>
+        <v>9.7996902403431237E-3</v>
+      </c>
+      <c r="H8">
+        <f>(AE22-AE23)/AE23</f>
+        <v>1.3649289333831764E-3</v>
+      </c>
+      <c r="I8">
+        <f>(AN22-AN23)/AN23</f>
+        <v>-5.0952105195325526E-3</v>
+      </c>
+      <c r="J8" s="7">
+        <f>(AW22-AW23)/AW23</f>
+        <v>1.2731287179369934E-3</v>
+      </c>
+      <c r="K8" s="7">
+        <f>(BF22-BF23)/BF23</f>
+        <v>-5.8982709138992355E-3</v>
+      </c>
+      <c r="L8" s="7">
+        <f>(BO22-BO23)/BO23</f>
+        <v>-1.0375606843394333E-2</v>
+      </c>
+      <c r="M8">
+        <f>(U22-U23)/U23</f>
+        <v>-2.788535054287773E-3</v>
+      </c>
+      <c r="Q8" s="10">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="R8">
         <v>40000</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0.79451822389108784</v>
-      </c>
-      <c r="E8">
-        <v>2.5900944644657038</v>
-      </c>
-      <c r="F8">
-        <v>1.5891</v>
-      </c>
-      <c r="H8">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <v>50000</v>
       </c>
       <c r="S8">
         <v>6</v>
       </c>
       <c r="T8">
-        <v>0.95893660252658364</v>
+        <v>0.79451822389108784</v>
       </c>
       <c r="U8">
-        <v>3.609330173328666</v>
+        <v>2.5900944644657038</v>
       </c>
       <c r="V8">
-        <v>2.3302999999999998</v>
+        <v>1.5891</v>
       </c>
       <c r="X8">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z8" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z8" s="2">
         <v>5</v>
       </c>
       <c r="AA8">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB8">
         <v>6</v>
       </c>
       <c r="AC8">
-        <v>0.88163691075563233</v>
+        <v>0.95893660252658364</v>
       </c>
       <c r="AD8">
-        <v>3.3051287071358479</v>
+        <v>3.609330173328666</v>
       </c>
       <c r="AE8">
-        <v>2.2050000000000001</v>
+        <v>2.3302999999999998</v>
       </c>
       <c r="AG8">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI8" s="13">
         <v>5</v>
       </c>
       <c r="AJ8">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK8">
         <v>6</v>
       </c>
       <c r="AL8">
-        <v>1.026967100764586</v>
+        <v>0.88163691075563233</v>
       </c>
       <c r="AM8">
-        <v>3.0533007950275342</v>
+        <v>3.3051287071358479</v>
       </c>
       <c r="AN8">
-        <v>2.2700999999999998</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="AP8">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR8" s="13">
         <v>5</v>
       </c>
       <c r="AS8">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT8">
         <v>6</v>
       </c>
       <c r="AU8">
-        <v>0.899439328126167</v>
+        <v>1.026967100764586</v>
       </c>
       <c r="AV8">
-        <v>3.8792310289968079</v>
+        <v>3.0533007950275342</v>
       </c>
       <c r="AW8">
-        <v>2.1240600000000001</v>
+        <v>2.2700999999999998</v>
       </c>
       <c r="AY8">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA8" s="13">
         <v>5</v>
       </c>
       <c r="BB8">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC8">
         <v>6</v>
       </c>
       <c r="BD8">
-        <v>0.49471381023515693</v>
+        <v>0.899439328126167</v>
       </c>
       <c r="BE8">
-        <v>2.8804926344385868</v>
+        <v>3.8792310289968079</v>
       </c>
       <c r="BF8">
-        <v>1.54254</v>
+        <v>2.1240600000000001</v>
       </c>
       <c r="BH8">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ8" s="13">
-        <v>5</v>
-      </c>
-      <c r="BK8">
-        <v>22500</v>
-      </c>
-      <c r="BL8">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BM8">
-        <v>0.59448430017612008</v>
-      </c>
-      <c r="BN8">
-        <v>4.2014789529715211</v>
-      </c>
-      <c r="BO8">
-        <v>3.0501</v>
-      </c>
-      <c r="BQ8">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="C9">
+        <f>(U7-U8)/U8</f>
+        <v>5.5331216924087842E-3</v>
+      </c>
+      <c r="D9">
+        <f>(AD7-AD8)/AD8</f>
+        <v>-6.4551222529511492E-4</v>
+      </c>
+      <c r="E9">
+        <f>(AM7-AM8)/AM8</f>
+        <v>2.5626877884473687E-3</v>
+      </c>
+      <c r="F9">
+        <f>(AV7-AV8)/AV8</f>
+        <v>-6.7162047908040149E-4</v>
+      </c>
+      <c r="G9">
+        <f>(BE7-BE8)/BE8</f>
+        <v>-3.2183711518570545E-3</v>
+      </c>
+      <c r="H9">
+        <f>(AE23-AE24)/AE24</f>
+        <v>2.8123563066437401E-3</v>
+      </c>
+      <c r="I9">
+        <f>(AN23-AN24)/AN24</f>
+        <v>-6.5248999949499781E-3</v>
+      </c>
+      <c r="J9" s="7">
+        <f>(AW23-AW24)/AW24</f>
+        <v>5.8531846459644226E-3</v>
+      </c>
+      <c r="K9" s="7">
+        <f>(BF23-BF24)/BF24</f>
+        <v>-4.5928708789333399E-3</v>
+      </c>
+      <c r="L9" s="7">
+        <f>(BO23-BO24)/BO24</f>
+        <v>-4.2272768298144952E-3</v>
+      </c>
+      <c r="M9">
+        <f>(U23-U24)/U24</f>
+        <v>-4.069121662935795E-3</v>
+      </c>
+      <c r="Q9" s="10">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="R9">
         <v>40000</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>0.83176956255124179</v>
-      </c>
-      <c r="E9">
-        <v>2.5632457286210668</v>
-      </c>
-      <c r="F9">
-        <v>1.6551499999999999</v>
-      </c>
-      <c r="H9">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>6</v>
-      </c>
-      <c r="R9">
-        <v>50000</v>
       </c>
       <c r="S9">
         <v>7</v>
       </c>
       <c r="T9">
-        <v>0.99284510320321806</v>
+        <v>0.83176956255124179</v>
       </c>
       <c r="U9">
-        <v>3.6026510363993882</v>
+        <v>2.5632457286210668</v>
       </c>
       <c r="V9">
-        <v>2.4392999999999998</v>
+        <v>1.6551499999999999</v>
       </c>
       <c r="X9">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z9" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z9" s="2">
         <v>6</v>
       </c>
       <c r="AA9">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB9">
         <v>7</v>
       </c>
       <c r="AC9">
-        <v>0.91648760976161969</v>
+        <v>0.99284510320321806</v>
       </c>
       <c r="AD9">
-        <v>3.2800970521033079</v>
+        <v>3.6026510363993882</v>
       </c>
       <c r="AE9">
-        <v>2.3134000000000001</v>
+        <v>2.4392999999999998</v>
       </c>
       <c r="AG9">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI9" s="13">
         <v>6</v>
       </c>
       <c r="AJ9">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK9">
         <v>7</v>
       </c>
       <c r="AL9">
-        <v>1.053337517783492</v>
+        <v>0.91648760976161969</v>
       </c>
       <c r="AM9">
-        <v>3.050403551110147</v>
+        <v>3.2800970521033079</v>
       </c>
       <c r="AN9">
-        <v>2.3786</v>
+        <v>2.3134000000000001</v>
       </c>
       <c r="AP9">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR9" s="13">
         <v>6</v>
       </c>
       <c r="AS9">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT9">
         <v>7</v>
       </c>
       <c r="AU9">
-        <v>0.90902324333846707</v>
+        <v>1.053337517783492</v>
       </c>
       <c r="AV9">
-        <v>3.890673718202788</v>
+        <v>3.050403551110147</v>
       </c>
       <c r="AW9">
-        <v>2.2251599999999998</v>
+        <v>2.3786</v>
       </c>
       <c r="AY9">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA9" s="13">
         <v>6</v>
       </c>
       <c r="BB9">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC9">
         <v>7</v>
       </c>
       <c r="BD9">
-        <v>0.51339599194252106</v>
+        <v>0.90902324333846707</v>
       </c>
       <c r="BE9">
-        <v>2.8635889594376751</v>
+        <v>3.890673718202788</v>
       </c>
       <c r="BF9">
-        <v>1.5974999999999999</v>
+        <v>2.2251599999999998</v>
       </c>
       <c r="BH9">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ9" s="13">
-        <v>6</v>
-      </c>
-      <c r="BK9">
-        <v>22500</v>
-      </c>
-      <c r="BL9">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BM9">
-        <v>0.61575704291743538</v>
-      </c>
-      <c r="BN9">
-        <v>4.2136151266939219</v>
-      </c>
-      <c r="BO9">
-        <v>3.226999999999999</v>
-      </c>
-      <c r="BQ9">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="C10">
+        <f>(U8-U9)/U9</f>
+        <v>1.0474507201882914E-2</v>
+      </c>
+      <c r="D10">
+        <f>(AD8-AD9)/AD9</f>
+        <v>1.8539505663454855E-3</v>
+      </c>
+      <c r="E10">
+        <f>(AM8-AM9)/AM9</f>
+        <v>7.6313763388460958E-3</v>
+      </c>
+      <c r="F10">
+        <f>(AV8-AV9)/AV9</f>
+        <v>9.4979036997668638E-4</v>
+      </c>
+      <c r="G10">
+        <f>(BE8-BE9)/BE9</f>
+        <v>-2.941055980213555E-3</v>
+      </c>
+      <c r="H10">
+        <f>(AE24-AE25)/AE25</f>
+        <v>5.9029683520749106E-3</v>
+      </c>
+      <c r="I10">
+        <f>(AN24-AN25)/AN25</f>
+        <v>-2.8802283448994292E-3</v>
+      </c>
+      <c r="J10" s="7">
+        <f>(AW24-AW25)/AW25</f>
+        <v>-2.1010210922667262E-3</v>
+      </c>
+      <c r="K10" s="7">
+        <f>(BF24-BF25)/BF25</f>
+        <v>-7.3300212300288323E-4</v>
+      </c>
+      <c r="L10" s="7">
+        <f>(BO24-BO25)/BO25</f>
+        <v>-1.1024116644161371E-3</v>
+      </c>
+      <c r="M10">
+        <f>(U24-U25)/U25</f>
+        <v>-4.0286664007317804E-3</v>
+      </c>
+      <c r="Q10" s="10">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="R10">
         <v>40000</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>0.83995954520408311</v>
-      </c>
-      <c r="E10">
-        <v>2.557945483835387</v>
-      </c>
-      <c r="F10">
-        <v>1.68641</v>
-      </c>
-      <c r="H10">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>50000</v>
       </c>
       <c r="S10">
         <v>8</v>
       </c>
       <c r="T10">
-        <v>1.0057722220136109</v>
+        <v>0.83995954520408311</v>
       </c>
       <c r="U10">
-        <v>3.5998258948558881</v>
+        <v>2.557945483835387</v>
       </c>
       <c r="V10">
-        <v>2.48062</v>
+        <v>1.68641</v>
       </c>
       <c r="X10">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z10" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z10" s="2">
         <v>7</v>
       </c>
       <c r="AA10">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB10">
         <v>8</v>
       </c>
       <c r="AC10">
-        <v>0.9304421052752393</v>
+        <v>1.0057722220136109</v>
       </c>
       <c r="AD10">
-        <v>3.2725045109609678</v>
+        <v>3.5998258948558881</v>
       </c>
       <c r="AE10">
-        <v>2.3569</v>
+        <v>2.48062</v>
       </c>
       <c r="AG10">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI10" s="13">
         <v>7</v>
       </c>
       <c r="AJ10">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK10">
         <v>8</v>
       </c>
       <c r="AL10">
-        <v>1.0781610172016991</v>
+        <v>0.9304421052752393</v>
       </c>
       <c r="AM10">
-        <v>3.047668137060386</v>
+        <v>3.2725045109609678</v>
       </c>
       <c r="AN10">
-        <v>2.4780500000000001</v>
+        <v>2.3569</v>
       </c>
       <c r="AP10">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR10" s="13">
         <v>7</v>
       </c>
       <c r="AS10">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT10">
         <v>8</v>
       </c>
       <c r="AU10">
-        <v>0.93068688369503749</v>
+        <v>1.0781610172016991</v>
       </c>
       <c r="AV10">
-        <v>3.8851626912297319</v>
+        <v>3.047668137060386</v>
       </c>
       <c r="AW10">
-        <v>2.2700900000000002</v>
+        <v>2.4780500000000001</v>
       </c>
       <c r="AY10">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA10" s="13">
         <v>7</v>
       </c>
       <c r="BB10">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC10">
         <v>8</v>
       </c>
       <c r="BD10">
-        <v>0.51969332790896883</v>
+        <v>0.93068688369503749</v>
       </c>
       <c r="BE10">
-        <v>2.8618594153307289</v>
+        <v>3.8851626912297319</v>
       </c>
       <c r="BF10">
-        <v>1.6208450000000001</v>
+        <v>2.2700900000000002</v>
       </c>
       <c r="BH10">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ10" s="13">
-        <v>7</v>
-      </c>
-      <c r="BK10">
-        <v>22500</v>
-      </c>
-      <c r="BL10">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="BM10">
-        <v>0.63114500185174216</v>
-      </c>
-      <c r="BN10">
-        <v>4.2209504061763301</v>
-      </c>
-      <c r="BO10">
-        <v>3.2835000000000001</v>
-      </c>
-      <c r="BQ10">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="C11">
+        <f>(U9-U10)/U10</f>
+        <v>2.0720710504481175E-3</v>
+      </c>
+      <c r="D11">
+        <f>(AD9-AD10)/AD10</f>
+        <v>7.8479949475812312E-4</v>
+      </c>
+      <c r="E11">
+        <f>(AM9-AM10)/AM10</f>
+        <v>2.32010104704502E-3</v>
+      </c>
+      <c r="F11">
+        <f>(AV9-AV10)/AV10</f>
+        <v>8.9754327792379205E-4</v>
+      </c>
+      <c r="G11">
+        <f>(BE9-BE10)/BE10</f>
+        <v>1.4184803600365327E-3</v>
+      </c>
+      <c r="H11">
+        <f>(AE25-AE26)/AE26</f>
+        <v>6.0434279115222837E-4</v>
+      </c>
+      <c r="I11">
+        <f>(AN25-AN26)/AN26</f>
+        <v>-1.7378265026935181E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <f>(AW25-AW26)/AW26</f>
+        <v>-1.4576303322335088E-3</v>
+      </c>
+      <c r="K11" s="7">
+        <f>(BF25-BF26)/BF26</f>
+        <v>-2.4532980010266746E-4</v>
+      </c>
+      <c r="L11" s="7">
+        <f>(BO25-BO26)/BO26</f>
+        <v>-6.6846274590690629E-5</v>
+      </c>
+      <c r="M11">
+        <f>(U25-U26)/U26</f>
+        <v>-1.0992101548848775E-3</v>
+      </c>
+      <c r="Q11" s="10">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="R11">
         <v>40000</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0.84369562851737856</v>
-      </c>
-      <c r="E11">
-        <v>2.5553827363622599</v>
-      </c>
-      <c r="F11">
-        <v>1.69737</v>
-      </c>
-      <c r="H11">
-        <v>2.995599830918374</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>8</v>
-      </c>
-      <c r="R11">
-        <v>50000</v>
       </c>
       <c r="S11">
         <v>9</v>
       </c>
       <c r="T11">
-        <v>1.0108933166398251</v>
+        <v>0.84369562851737856</v>
       </c>
       <c r="U11">
-        <v>3.5986832243048559</v>
+        <v>2.5553827363622599</v>
       </c>
       <c r="V11">
-        <v>2.49329</v>
+        <v>1.69737</v>
       </c>
       <c r="X11">
-        <v>3.7310623364769291</v>
-      </c>
-      <c r="Z11" s="13">
+        <v>2.995599830918374</v>
+      </c>
+      <c r="Z11" s="2">
         <v>8</v>
       </c>
       <c r="AA11">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="AB11">
         <v>9</v>
       </c>
       <c r="AC11">
-        <v>0.93761111150821319</v>
+        <v>1.0108933166398251</v>
       </c>
       <c r="AD11">
-        <v>3.268319359703324</v>
+        <v>3.5986832243048559</v>
       </c>
       <c r="AE11">
-        <v>2.37229</v>
+        <v>2.49329</v>
       </c>
       <c r="AG11">
-        <v>3.748694078222786</v>
+        <v>3.7310623364769291</v>
       </c>
       <c r="AI11" s="13">
         <v>8</v>
       </c>
       <c r="AJ11">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="AK11">
         <v>9</v>
       </c>
       <c r="AL11">
-        <v>1.0843492319356911</v>
+        <v>0.93761111150821319</v>
       </c>
       <c r="AM11">
-        <v>3.0469519551982178</v>
+        <v>3.268319359703324</v>
       </c>
       <c r="AN11">
-        <v>2.4956499999999999</v>
+        <v>2.37229</v>
       </c>
       <c r="AP11">
-        <v>3.68572083840303</v>
+        <v>3.748694078222786</v>
       </c>
       <c r="AR11" s="13">
         <v>8</v>
       </c>
       <c r="AS11">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="AT11">
         <v>9</v>
       </c>
       <c r="AU11">
-        <v>0.93225341578754384</v>
+        <v>1.0843492319356911</v>
       </c>
       <c r="AV11">
-        <v>3.8853954153393269</v>
+        <v>3.0469519551982178</v>
       </c>
       <c r="AW11">
-        <v>2.2775379999999998</v>
+        <v>2.4956499999999999</v>
       </c>
       <c r="AY11">
-        <v>4.1615592847749499</v>
+        <v>3.68572083840303</v>
       </c>
       <c r="BA11" s="13">
         <v>8</v>
       </c>
       <c r="BB11">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="BC11">
         <v>9</v>
       </c>
       <c r="BD11">
-        <v>0.52078218128686538</v>
+        <v>0.93225341578754384</v>
       </c>
       <c r="BE11">
-        <v>2.8626624943766159</v>
+        <v>3.8853954153393269</v>
       </c>
       <c r="BF11">
-        <v>1.629678</v>
+        <v>2.2775379999999998</v>
       </c>
       <c r="BH11">
-        <v>3.226396680182666</v>
-      </c>
-      <c r="BJ11" s="13">
-        <v>8</v>
-      </c>
-      <c r="BK11">
-        <v>22500</v>
-      </c>
-      <c r="BL11">
+        <v>4.1615592847749499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="BM11">
-        <v>0.63329750718907252</v>
-      </c>
-      <c r="BN11">
-        <v>4.2253186197428194</v>
-      </c>
-      <c r="BO11">
-        <v>3.30043</v>
-      </c>
-      <c r="BQ11">
-        <v>4.0476445154746212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="C12">
+        <f>(U10-U11)/U11</f>
+        <v>1.0028820484149271E-3</v>
+      </c>
+      <c r="D12">
+        <f>(AD10-AD11)/AD11</f>
+        <v>3.1752462770683504E-4</v>
+      </c>
+      <c r="E12">
+        <f>(AM10-AM11)/AM11</f>
+        <v>1.2805209029584394E-3</v>
+      </c>
+      <c r="F12">
+        <f>(AV10-AV11)/AV11</f>
+        <v>2.3504862324669041E-4</v>
+      </c>
+      <c r="G12">
+        <f>(BE10-BE11)/BE11</f>
+        <v>-5.9897149380518581E-5</v>
+      </c>
+      <c r="H12">
+        <f>(AE26-AE27)/AE27</f>
+        <v>-2.8053570669424576E-4</v>
+      </c>
+      <c r="I12">
+        <f>(AN26-AN27)/AN27</f>
+        <v>-1.0338187387996761E-3</v>
+      </c>
+      <c r="J12" s="7">
+        <f>(AW26-AW27)/AW27</f>
+        <v>-1.1749029336880754E-3</v>
+      </c>
+      <c r="K12" s="7">
+        <f>(BF26-BF27)/BF27</f>
+        <v>-9.7588067995995947E-5</v>
+      </c>
+      <c r="L12" s="7">
+        <f>(BO26-BO27)/BO27</f>
+        <v>-2.1830652667643912E-4</v>
+      </c>
+      <c r="M12">
+        <f>(U26-U27)/U27</f>
+        <v>2.5007514818355076E-4</v>
+      </c>
       <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6">
+        <f>B13+1</f>
+        <v>11</v>
+      </c>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="17" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2183,1575 +2225,1531 @@
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="R18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI18" s="8" t="s">
+      <c r="Q18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AJ18" s="12" t="s">
+      <c r="AT18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AK18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="12" t="s">
+      <c r="AU18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AM18" s="12" t="s">
+      <c r="AW18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AN18" s="12" t="s">
+      <c r="AX18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AO18" s="12" t="s">
+      <c r="AY18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AP18" s="12" t="s">
+      <c r="AZ18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AR18" s="14" t="s">
+      <c r="BB18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AS18" s="12" t="s">
+      <c r="BC18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AT18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="12" t="s">
+      <c r="BD18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AV18" s="12" t="s">
+      <c r="BF18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AW18" s="12" t="s">
+      <c r="BG18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AX18" s="12" t="s">
+      <c r="BH18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AY18" s="12" t="s">
+      <c r="BI18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BA18" s="14" t="s">
+      <c r="BK18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BB18" s="12" t="s">
+      <c r="BL18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="BC18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="12" t="s">
+      <c r="BM18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BE18" s="12" t="s">
+      <c r="BO18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BF18" s="12" t="s">
+      <c r="BP18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BG18" s="12" t="s">
+      <c r="BQ18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="BH18" s="12" t="s">
+      <c r="BR18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BJ18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK18" s="12" t="s">
+    </row>
+    <row r="19" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13">
         <v>0</v>
       </c>
-      <c r="BL18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6">
-        <v>1</v>
+      <c r="R19">
+        <v>14000</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0.52439462589576125</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>2.7526138840818648</v>
       </c>
       <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="13">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="X19">
+        <v>2.8727214548726101</v>
+      </c>
+      <c r="AA19" s="13">
         <v>0</v>
       </c>
-      <c r="AJ19">
+      <c r="AB19">
+        <v>25000</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0.3135243332821549</v>
+      </c>
+      <c r="AE19">
+        <v>2.9954063794763091</v>
+      </c>
+      <c r="AF19">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="AH19">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>22500</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0.22445657144535569</v>
+      </c>
+      <c r="AN19">
+        <v>4.2051235592021188</v>
+      </c>
+      <c r="AO19">
+        <v>1.3351999999999999</v>
+      </c>
+      <c r="AQ19">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT19">
         <v>14000</v>
       </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
         <v>0.31422856936735127</v>
       </c>
-      <c r="AM19">
+      <c r="AW19">
         <v>2.054841055749284</v>
       </c>
-      <c r="AN19">
+      <c r="AX19">
         <v>0.84230000000000005</v>
       </c>
-      <c r="AP19">
+      <c r="AZ19">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AR19" s="13">
+      <c r="BB19" s="13">
         <v>0</v>
       </c>
-      <c r="AS19">
+      <c r="BC19">
         <v>14000</v>
       </c>
-      <c r="AT19">
-        <v>1</v>
-      </c>
-      <c r="AU19">
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
         <v>1.6513097691810169E-2</v>
       </c>
-      <c r="AV19">
+      <c r="BF19">
         <v>0.88823239422435396</v>
       </c>
-      <c r="AW19">
+      <c r="BG19">
         <v>0.39150000000000001</v>
       </c>
-      <c r="AY19">
+      <c r="BI19">
         <v>0.83028189799088314</v>
       </c>
-      <c r="BA19" s="13">
+      <c r="BK19" s="13">
         <v>0</v>
       </c>
-      <c r="BB19">
+      <c r="BL19">
         <v>20000</v>
       </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19">
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BN19">
         <v>0.2112798674733572</v>
       </c>
-      <c r="BE19">
+      <c r="BO19">
         <v>3.6981760732177049</v>
       </c>
-      <c r="BF19">
+      <c r="BP19">
         <v>1.5298</v>
       </c>
-      <c r="BH19">
+      <c r="BR19">
         <v>3.5115795310554612</v>
       </c>
-      <c r="BJ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>14000</v>
-      </c>
-      <c r="BL19">
-        <v>1</v>
-      </c>
-      <c r="BM19">
-        <v>0.52439462589576125</v>
-      </c>
-      <c r="BN19">
-        <v>2.7526138840818648</v>
-      </c>
-      <c r="BO19">
-        <v>0.98780000000000001</v>
-      </c>
-      <c r="BQ19">
-        <v>2.8727214548726101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20">
-        <f>(E3-E4)/E4</f>
-        <v>6.3247996944086865E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <f>(U3-U4)/U4</f>
-        <v>3.3949119828678542E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <f>(AD3-AD4)/AD4</f>
-        <v>7.1026924660783808E-2</v>
+        <f>(T4-T3)/T4</f>
+        <v>0.39581363878321912</v>
+      </c>
+      <c r="D20">
+        <f>(AC4-AC3)/AC4</f>
+        <v>0.37183807205949732</v>
+      </c>
+      <c r="E20">
+        <f>(AL4-AL3)/AL4</f>
+        <v>0.44886597259574035</v>
       </c>
       <c r="F20">
-        <f>(AM3-AM4)/AM4</f>
-        <v>4.6470246278268193E-2</v>
+        <f>(AU4-AU3)/AU4</f>
+        <v>0.26120216127717649</v>
       </c>
       <c r="G20">
-        <f>(AV3-AV4)/AV4</f>
-        <v>1.1042853717827929E-2</v>
-      </c>
-      <c r="H20" s="7">
-        <f>(BE3-BE4)/BE4</f>
-        <v>1.6189398497926916E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <f>(BN3-BN4)/BN4</f>
-        <v>1.8669803107859016E-2</v>
-      </c>
-      <c r="J20" s="4">
-        <f>(AM19-AM20)/AM20</f>
-        <v>3.5312532254588018E-2</v>
-      </c>
-      <c r="K20" s="7">
-        <f>(AV19-AV20)/AV20</f>
-        <v>-8.0637663947796159E-2</v>
-      </c>
-      <c r="L20" s="4">
-        <f>(BE19-BE20)/BE20</f>
-        <v>9.4632826092389807E-2</v>
-      </c>
-      <c r="M20">
-        <f>(BN19-BN20)/BN20</f>
-        <v>4.6097554333424336E-2</v>
-      </c>
-      <c r="R20" s="6">
-        <f>R19+1</f>
+        <f>(BD4-BD3)/BD4</f>
+        <v>0.25951198234371448</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>14000</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="S20">
-        <f>(D4-D3)/D4</f>
-        <v>0.39581363878321912</v>
-      </c>
       <c r="T20">
-        <f>(T4-T3)/T4</f>
-        <v>0.37183807205949732</v>
+        <v>0.66398412778213878</v>
       </c>
       <c r="U20">
-        <f>(AC4-AC3)/AC4</f>
-        <v>0.44886597259574035</v>
+        <v>2.6313166230809482</v>
       </c>
       <c r="V20">
-        <f>(AL4-AL3)/AL4</f>
-        <v>0.26120216127717649</v>
-      </c>
-      <c r="W20">
-        <f>(AU4-AU3)/AU4</f>
-        <v>0.25951198234371448</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
+        <v>1.0599099999999999</v>
+      </c>
+      <c r="X20">
+        <v>2.8727214548726101</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>25000</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>0.38298251998665372</v>
+      </c>
+      <c r="AE20">
+        <v>2.9476851302561782</v>
+      </c>
+      <c r="AF20">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="AH20">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>22500</v>
+      </c>
+      <c r="AL20">
+        <v>2</v>
+      </c>
+      <c r="AM20">
+        <v>0.36957190579716998</v>
+      </c>
+      <c r="AN20">
+        <v>4.1280536110648516</v>
+      </c>
+      <c r="AO20">
+        <v>1.8603000000000001</v>
+      </c>
+      <c r="AQ20">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT20">
         <v>14000</v>
       </c>
-      <c r="AK20">
+      <c r="AU20">
         <v>2</v>
       </c>
-      <c r="AL20">
+      <c r="AV20">
         <v>0.43663630326231812</v>
       </c>
-      <c r="AM20">
+      <c r="AW20">
         <v>1.9847543536196559</v>
       </c>
-      <c r="AN20">
+      <c r="AX20">
         <v>1.2202</v>
       </c>
-      <c r="AP20">
+      <c r="AZ20">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AR20" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS20">
+      <c r="BB20" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC20">
         <v>14000</v>
       </c>
-      <c r="AT20">
+      <c r="BD20">
         <v>2</v>
       </c>
-      <c r="AU20">
+      <c r="BE20">
         <v>2.280744337298005E-2</v>
       </c>
-      <c r="AV20">
+      <c r="BF20">
         <v>0.96613963765197985</v>
       </c>
-      <c r="AW20">
+      <c r="BG20">
         <v>0.50850000000000006</v>
       </c>
-      <c r="AY20">
+      <c r="BI20">
         <v>0.83028189799088314</v>
       </c>
-      <c r="BA20" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB20">
+      <c r="BK20" s="13">
+        <v>1</v>
+      </c>
+      <c r="BL20">
         <v>20000</v>
       </c>
-      <c r="BC20">
+      <c r="BM20">
         <v>2</v>
       </c>
-      <c r="BD20">
+      <c r="BN20">
         <v>0.78896175297514703</v>
       </c>
-      <c r="BE20">
+      <c r="BO20">
         <v>3.3784626087081819</v>
       </c>
-      <c r="BF20">
+      <c r="BP20">
         <v>1.649</v>
       </c>
-      <c r="BH20">
+      <c r="BR20">
         <v>3.5115795310554612</v>
       </c>
-      <c r="BJ20" s="13">
-        <v>1</v>
-      </c>
-      <c r="BK20">
+    </row>
+    <row r="21" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <f t="shared" ref="B21:B28" si="1">B20+1</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>(T5-T4)/T5</f>
+        <v>0.10176566872127661</v>
+      </c>
+      <c r="D21">
+        <f>(AC5-AC4)/AC5</f>
+        <v>8.5557354256765014E-2</v>
+      </c>
+      <c r="E21">
+        <f>(AL5-AL4)/AL5</f>
+        <v>7.1481595096278494E-2</v>
+      </c>
+      <c r="F21">
+        <f>(AU5-AU4)/AU5</f>
+        <v>9.773195075543345E-2</v>
+      </c>
+      <c r="G21">
+        <f>(BD5-BD4)/BD5</f>
+        <v>0.21229867917953107</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>2</v>
+      </c>
+      <c r="R21">
         <v>14000</v>
       </c>
-      <c r="BL20">
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>0.7362229359856024</v>
+      </c>
+      <c r="U21">
+        <v>2.5165461972103378</v>
+      </c>
+      <c r="V21">
+        <v>1.1028800000000001</v>
+      </c>
+      <c r="X21">
+        <v>2.8727214548726101</v>
+      </c>
+      <c r="AA21" s="13">
         <v>2</v>
       </c>
-      <c r="BM20">
-        <v>0.66398412778213878</v>
-      </c>
-      <c r="BN20">
-        <v>2.6313166230809482</v>
-      </c>
-      <c r="BO20">
-        <v>1.0599099999999999</v>
-      </c>
-      <c r="BQ20">
+      <c r="AB21">
+        <v>25000</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>0.44056957653022139</v>
+      </c>
+      <c r="AE21">
+        <v>2.9007226778188611</v>
+      </c>
+      <c r="AF21">
+        <v>1.1079399999999999</v>
+      </c>
+      <c r="AH21">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>22500</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+      <c r="AM21">
+        <v>0.42531097324201539</v>
+      </c>
+      <c r="AN21">
+        <v>4.1857187989251718</v>
+      </c>
+      <c r="AO21">
+        <v>2.3582999999999998</v>
+      </c>
+      <c r="AQ21">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS21" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <v>14000</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>0.45510164011606169</v>
+      </c>
+      <c r="AW21">
+        <v>2.029228463672665</v>
+      </c>
+      <c r="AX21">
+        <v>1.4260999999999999</v>
+      </c>
+      <c r="AZ21">
+        <v>2.1509747809021862</v>
+      </c>
+      <c r="BB21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>14000</v>
+      </c>
+      <c r="BD21">
+        <v>3</v>
+      </c>
+      <c r="BE21">
+        <v>3.9652006835209863E-2</v>
+      </c>
+      <c r="BF21">
+        <v>0.94279891653128034</v>
+      </c>
+      <c r="BG21">
+        <v>0.59005000000000007</v>
+      </c>
+      <c r="BI21">
+        <v>0.83028189799088314</v>
+      </c>
+      <c r="BK21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BL21">
+        <v>20000</v>
+      </c>
+      <c r="BM21">
+        <v>3</v>
+      </c>
+      <c r="BN21">
+        <v>0.85624013185044456</v>
+      </c>
+      <c r="BO21">
+        <v>3.390308759630241</v>
+      </c>
+      <c r="BP21">
+        <v>1.67299</v>
+      </c>
+      <c r="BR21">
+        <v>3.5115795310554612</v>
+      </c>
+    </row>
+    <row r="22" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <f>(T6-T5)/T6</f>
+        <v>7.6646158209822388E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <f>(AC6-AC5)/AC6</f>
+        <v>5.8682521593663856E-2</v>
+      </c>
+      <c r="E22">
+        <f>(AL6-AL5)/AL6</f>
+        <v>7.2696141264064873E-2</v>
+      </c>
+      <c r="F22">
+        <f>(AU6-AU5)/AU6</f>
+        <v>0.16708960155030728</v>
+      </c>
+      <c r="G22" s="4">
+        <f>(BD6-BD5)/BD6</f>
+        <v>5.9839952835964098E-2</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>14000</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>0.77038404586706954</v>
+      </c>
+      <c r="U22">
+        <v>2.5591792553127179</v>
+      </c>
+      <c r="V22">
+        <v>1.18492</v>
+      </c>
+      <c r="X22">
         <v>2.8727214548726101</v>
       </c>
-    </row>
-    <row r="21" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
-        <f t="shared" ref="B21:B28" si="0">B20+1</f>
+      <c r="AA22" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
-        <f>(E4-E5)/E5</f>
-        <v>1.476470116554285E-2</v>
-      </c>
-      <c r="D21">
-        <f>(U4-U5)/U5</f>
-        <v>1.602522029832221E-3</v>
-      </c>
-      <c r="E21">
-        <f>(AD4-AD5)/AD5</f>
-        <v>3.3893481774347456E-3</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F27" si="1">(AM4-AM5)/AM5</f>
-        <v>2.6026202444045811E-3</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" ref="G21:G27" si="2">(AV4-AV5)/AV5</f>
-        <v>2.0090557373475284E-2</v>
-      </c>
-      <c r="H21" s="4">
-        <f>(BE4-BE5)/BE5</f>
-        <v>1.6189914601774193E-2</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I27" si="3">(BN4-BN5)/BN5</f>
-        <v>-1.377665118715758E-2</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" ref="J21:J27" si="4">(AM20-AM21)/AM21</f>
-        <v>-2.1916758437596592E-2</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" ref="K21:K27" si="5">(AV20-AV21)/AV21</f>
-        <v>2.475683914293628E-2</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" ref="L21:L27" si="6">(BE20-BE21)/BE21</f>
-        <v>-3.4941215570439897E-3</v>
-      </c>
-      <c r="M21" s="4">
-        <f>(BN20-BN21)/BN21</f>
-        <v>4.560632584366487E-2</v>
-      </c>
-      <c r="R21" s="6">
-        <f t="shared" ref="R21:R28" si="7">R20+1</f>
+      <c r="AB22">
+        <v>25000</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <v>0.46639236828656983</v>
+      </c>
+      <c r="AE22">
+        <v>2.8925363310549952</v>
+      </c>
+      <c r="AF22">
+        <v>1.30124</v>
+      </c>
+      <c r="AH22">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ22" s="13">
         <v>3</v>
       </c>
-      <c r="S21">
-        <f t="shared" ref="S21:S27" si="8">(D5-D4)/D5</f>
-        <v>0.10176566872127661</v>
-      </c>
-      <c r="T21">
-        <f t="shared" ref="T21:T29" si="9">(T5-T4)/T5</f>
-        <v>8.5557354256765014E-2</v>
-      </c>
-      <c r="U21">
-        <f t="shared" ref="U21:U27" si="10">(AC5-AC4)/AC5</f>
-        <v>7.1481595096278494E-2</v>
-      </c>
-      <c r="V21">
-        <f t="shared" ref="V21:V27" si="11">(AL5-AL4)/AL5</f>
-        <v>9.773195075543345E-2</v>
-      </c>
-      <c r="W21">
-        <f t="shared" ref="W21:W27" si="12">(AU5-AU4)/AU5</f>
-        <v>0.21229867917953107</v>
-      </c>
-      <c r="AI21" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ21">
+      <c r="AK22">
+        <v>22500</v>
+      </c>
+      <c r="AL22">
+        <v>4</v>
+      </c>
+      <c r="AM22">
+        <v>0.52555379164144767</v>
+      </c>
+      <c r="AN22">
+        <v>4.1527969844867956</v>
+      </c>
+      <c r="AO22">
+        <v>2.5823999999999998</v>
+      </c>
+      <c r="AQ22">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT22">
         <v>14000</v>
       </c>
-      <c r="AK21">
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>0.48008099093098472</v>
+      </c>
+      <c r="AW22">
+        <v>2.0671624339921428</v>
+      </c>
+      <c r="AX22">
+        <v>1.5485</v>
+      </c>
+      <c r="AZ22">
+        <v>2.1509747809021862</v>
+      </c>
+      <c r="BB22" s="13">
         <v>3</v>
       </c>
-      <c r="AL21">
-        <v>0.45510164011606169</v>
-      </c>
-      <c r="AM21">
-        <v>2.029228463672665</v>
-      </c>
-      <c r="AN21">
-        <v>1.4260999999999999</v>
-      </c>
-      <c r="AP21">
+      <c r="BC22">
+        <v>14000</v>
+      </c>
+      <c r="BD22">
+        <v>4</v>
+      </c>
+      <c r="BE22">
+        <v>5.4282398599628787E-2</v>
+      </c>
+      <c r="BF22">
+        <v>0.94111366624068571</v>
+      </c>
+      <c r="BG22">
+        <v>0.59388200000000002</v>
+      </c>
+      <c r="BI22">
+        <v>0.83028189799088314</v>
+      </c>
+      <c r="BK22" s="13">
+        <v>3</v>
+      </c>
+      <c r="BL22">
+        <v>20000</v>
+      </c>
+      <c r="BM22">
+        <v>4</v>
+      </c>
+      <c r="BN22">
+        <v>0.90795121919934418</v>
+      </c>
+      <c r="BO22">
+        <v>3.3820575080324442</v>
+      </c>
+      <c r="BP22">
+        <v>1.7728900000000001</v>
+      </c>
+      <c r="BR22">
+        <v>3.5115795310554612</v>
+      </c>
+    </row>
+    <row r="23" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f>(T7-T6)/T7</f>
+        <v>4.9151504423963835E-2</v>
+      </c>
+      <c r="D23">
+        <f>(AC7-AC6)/AC7</f>
+        <v>3.0016184734596496E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <f>(AL7-AL6)/AL7</f>
+        <v>5.3218237177546097E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <f>(AU7-AU6)/AU7</f>
+        <v>3.899768779105587E-2</v>
+      </c>
+      <c r="G23">
+        <f>(BD7-BD6)/BD7</f>
+        <v>7.4313676922907565E-2</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>14000</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>0.82107294059146763</v>
+      </c>
+      <c r="U23">
+        <v>2.5663355720163512</v>
+      </c>
+      <c r="V23">
+        <v>1.34022</v>
+      </c>
+      <c r="X23">
+        <v>2.8727214548726101</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB23">
+        <v>25000</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
+      <c r="AD23">
+        <v>0.48175799781117462</v>
+      </c>
+      <c r="AE23">
+        <v>2.888593606065291</v>
+      </c>
+      <c r="AF23">
+        <v>1.4191400000000001</v>
+      </c>
+      <c r="AH23">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK23">
+        <v>22500</v>
+      </c>
+      <c r="AL23">
+        <v>5</v>
+      </c>
+      <c r="AM23">
+        <v>0.56381355508322006</v>
+      </c>
+      <c r="AN23">
+        <v>4.1740647229724948</v>
+      </c>
+      <c r="AO23">
+        <v>2.8435000000000001</v>
+      </c>
+      <c r="AQ23">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS23" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT23">
+        <v>14000</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>0.5226406867094312</v>
+      </c>
+      <c r="AW23">
+        <v>2.0645340164466468</v>
+      </c>
+      <c r="AX23">
+        <v>1.6956</v>
+      </c>
+      <c r="AZ23">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AR21" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS21">
+      <c r="BB23" s="13">
+        <v>4</v>
+      </c>
+      <c r="BC23">
         <v>14000</v>
       </c>
-      <c r="AT21">
-        <v>3</v>
-      </c>
-      <c r="AU21">
-        <v>3.9652006835209863E-2</v>
-      </c>
-      <c r="AV21">
-        <v>0.94279891653128034</v>
-      </c>
-      <c r="AW21">
-        <v>0.59005000000000007</v>
-      </c>
-      <c r="AY21">
+      <c r="BD23">
+        <v>5</v>
+      </c>
+      <c r="BE23">
+        <v>5.8026462298956548E-2</v>
+      </c>
+      <c r="BF23">
+        <v>0.94669754483363777</v>
+      </c>
+      <c r="BG23">
+        <v>0.60322200000000004</v>
+      </c>
+      <c r="BI23">
         <v>0.83028189799088314</v>
       </c>
-      <c r="BA21" s="13">
-        <v>2</v>
-      </c>
-      <c r="BB21">
+      <c r="BK23" s="13">
+        <v>4</v>
+      </c>
+      <c r="BL23">
         <v>20000</v>
       </c>
-      <c r="BC21">
-        <v>3</v>
-      </c>
-      <c r="BD21">
-        <v>0.85624013185044456</v>
-      </c>
-      <c r="BE21">
-        <v>3.390308759630241</v>
-      </c>
-      <c r="BF21">
-        <v>1.67299</v>
-      </c>
-      <c r="BH21">
+      <c r="BM23">
+        <v>5</v>
+      </c>
+      <c r="BN23">
+        <v>0.92721678724985468</v>
+      </c>
+      <c r="BO23">
+        <v>3.4175163136841169</v>
+      </c>
+      <c r="BP23">
+        <v>1.8817900000000001</v>
+      </c>
+      <c r="BR23">
         <v>3.5115795310554612</v>
       </c>
-      <c r="BJ21" s="13">
-        <v>2</v>
-      </c>
-      <c r="BK21">
+    </row>
+    <row r="24" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f>(T8-T7)/T8</f>
+        <v>4.2686815096649983E-2</v>
+      </c>
+      <c r="D24">
+        <f>(AC8-AC7)/AC8</f>
+        <v>4.4278249967540102E-2</v>
+      </c>
+      <c r="E24">
+        <f>(AL8-AL7)/AL8</f>
+        <v>3.9822575755710674E-2</v>
+      </c>
+      <c r="F24">
+        <f>(AU8-AU7)/AU8</f>
+        <v>1.8254949408081911E-2</v>
+      </c>
+      <c r="G24">
+        <f>(BD8-BD7)/BD8</f>
+        <v>2.620127547567833E-2</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>5</v>
+      </c>
+      <c r="R24">
         <v>14000</v>
       </c>
-      <c r="BL21">
-        <v>3</v>
-      </c>
-      <c r="BM21">
-        <v>0.7362229359856024</v>
-      </c>
-      <c r="BN21">
-        <v>2.5165461972103378</v>
-      </c>
-      <c r="BO21">
-        <v>1.1028800000000001</v>
-      </c>
-      <c r="BQ21">
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>0.86572863487878382</v>
+      </c>
+      <c r="U24">
+        <v>2.576820970047077</v>
+      </c>
+      <c r="V24">
+        <v>1.4347799999999999</v>
+      </c>
+      <c r="X24">
         <v>2.8727214548726101</v>
       </c>
-    </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f>(E5-E6)/E6</f>
-        <v>6.0519930267361223E-3</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" ref="D22:D27" si="13">(U5-U6)/U6</f>
-        <v>9.1718676206817111E-4</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" ref="E22:E26" si="14">(AD5-AD6)/AD6</f>
-        <v>8.3788475357532057E-3</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="AA24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>25000</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>0.49471381023515693</v>
+      </c>
+      <c r="AE24">
+        <v>2.8804926344385868</v>
+      </c>
+      <c r="AF24">
+        <v>1.54254</v>
+      </c>
+      <c r="AH24">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>22500</v>
+      </c>
+      <c r="AL24">
+        <v>6</v>
+      </c>
+      <c r="AM24">
+        <v>0.59448430017612008</v>
+      </c>
+      <c r="AN24">
+        <v>4.2014789529715211</v>
+      </c>
+      <c r="AO24">
+        <v>3.0501</v>
+      </c>
+      <c r="AQ24">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT24">
+        <v>14000</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>0.55026160561707127</v>
+      </c>
+      <c r="AW24">
+        <v>2.0525202365127591</v>
+      </c>
+      <c r="AX24">
+        <v>1.7874000000000001</v>
+      </c>
+      <c r="AZ24">
+        <v>2.1509747809021862</v>
+      </c>
+      <c r="BB24" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC24">
+        <v>14000</v>
+      </c>
+      <c r="BD24">
+        <v>6</v>
+      </c>
+      <c r="BE24">
+        <v>5.8289543283584197E-2</v>
+      </c>
+      <c r="BF24">
+        <v>0.95106566663789227</v>
+      </c>
+      <c r="BG24">
+        <v>0.61840200000000001</v>
+      </c>
+      <c r="BI24">
+        <v>0.83028189799088314</v>
+      </c>
+      <c r="BK24" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL24">
+        <v>20000</v>
+      </c>
+      <c r="BM24">
+        <v>6</v>
+      </c>
+      <c r="BN24">
+        <v>0.93248005872858164</v>
+      </c>
+      <c r="BO24">
+        <v>3.432024431040813</v>
+      </c>
+      <c r="BP24">
+        <v>1.90463</v>
+      </c>
+      <c r="BR24">
+        <v>3.5115795310554612</v>
+      </c>
+    </row>
+    <row r="25" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
         <f t="shared" si="1"/>
-        <v>2.6828585624238292E-2</v>
-      </c>
-      <c r="G22">
-        <f>(AV5-AV6)/AV6</f>
-        <v>-2.7003661730892947E-3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H27" si="15">(BE5-BE6)/BE6</f>
-        <v>2.830162123108083E-3</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>7.9276243364072765E-3</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.8350744816032227E-2</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="5"/>
-        <v>1.7906979263476507E-3</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="6"/>
-        <v>2.4397135702748885E-3</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ref="M22:M27" si="16">(BN21-BN22)/BN22</f>
-        <v>-1.6658879214449803E-2</v>
-      </c>
-      <c r="R22" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="8"/>
-        <v>7.6646158209822388E-2</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="9"/>
-        <v>5.8682521593663856E-2</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="10"/>
-        <v>7.2696141264064873E-2</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="11"/>
-        <v>0.16708960155030728</v>
-      </c>
-      <c r="W22" s="4">
-        <f t="shared" si="12"/>
-        <v>5.9839952835964098E-2</v>
-      </c>
-      <c r="AI22" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ22">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <f>(T9-T8)/T9</f>
+        <v>4.4785647777125841E-2</v>
+      </c>
+      <c r="D25">
+        <f>(AC9-AC8)/AC9</f>
+        <v>3.4152860871484746E-2</v>
+      </c>
+      <c r="E25">
+        <f>(AL9-AL8)/AL9</f>
+        <v>3.8026372244194445E-2</v>
+      </c>
+      <c r="F25">
+        <f>(AU9-AU8)/AU9</f>
+        <v>2.5035106576661761E-2</v>
+      </c>
+      <c r="G25">
+        <f>(BD9-BD8)/BD9</f>
+        <v>1.0543091480369964E-2</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>6</v>
+      </c>
+      <c r="R25">
         <v>14000</v>
       </c>
-      <c r="AK22">
-        <v>4</v>
-      </c>
-      <c r="AL22">
-        <v>0.48008099093098472</v>
-      </c>
-      <c r="AM22">
-        <v>2.0671624339921428</v>
-      </c>
-      <c r="AN22">
-        <v>1.5485</v>
-      </c>
-      <c r="AP22">
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>0.87912773793855647</v>
+      </c>
+      <c r="U25">
+        <v>2.587244113477535</v>
+      </c>
+      <c r="V25">
+        <v>1.46536</v>
+      </c>
+      <c r="X25">
+        <v>2.8727214548726101</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>25000</v>
+      </c>
+      <c r="AC25">
+        <v>7</v>
+      </c>
+      <c r="AD25">
+        <v>0.51339599194252106</v>
+      </c>
+      <c r="AE25">
+        <v>2.8635889594376751</v>
+      </c>
+      <c r="AF25">
+        <v>1.5974999999999999</v>
+      </c>
+      <c r="AH25">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>6</v>
+      </c>
+      <c r="AK25">
+        <v>22500</v>
+      </c>
+      <c r="AL25">
+        <v>7</v>
+      </c>
+      <c r="AM25">
+        <v>0.61575704291743538</v>
+      </c>
+      <c r="AN25">
+        <v>4.2136151266939219</v>
+      </c>
+      <c r="AO25">
+        <v>3.226999999999999</v>
+      </c>
+      <c r="AQ25">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>6</v>
+      </c>
+      <c r="AT25">
+        <v>14000</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AV25">
+        <v>0.55904622855672681</v>
+      </c>
+      <c r="AW25">
+        <v>2.0568417043169829</v>
+      </c>
+      <c r="AX25">
+        <v>1.8151299999999999</v>
+      </c>
+      <c r="AZ25">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AR22" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS22">
+      <c r="BB25" s="13">
+        <v>6</v>
+      </c>
+      <c r="BC25">
         <v>14000</v>
       </c>
-      <c r="AT22">
-        <v>4</v>
-      </c>
-      <c r="AU22">
-        <v>5.4282398599628787E-2</v>
-      </c>
-      <c r="AV22">
-        <v>0.94111366624068571</v>
-      </c>
-      <c r="AW22">
-        <v>0.59388200000000002</v>
-      </c>
-      <c r="AY22">
+      <c r="BD25">
+        <v>7</v>
+      </c>
+      <c r="BE25">
+        <v>5.8329351121850267E-2</v>
+      </c>
+      <c r="BF25">
+        <v>0.95176331116557289</v>
+      </c>
+      <c r="BG25">
+        <v>0.62057600000000002</v>
+      </c>
+      <c r="BI25">
         <v>0.83028189799088314</v>
       </c>
-      <c r="BA22" s="13">
-        <v>3</v>
-      </c>
-      <c r="BB22">
+      <c r="BK25" s="13">
+        <v>6</v>
+      </c>
+      <c r="BL25">
         <v>20000</v>
       </c>
-      <c r="BC22">
-        <v>4</v>
-      </c>
-      <c r="BD22">
-        <v>0.90795121919934418</v>
-      </c>
-      <c r="BE22">
-        <v>3.3820575080324442</v>
-      </c>
-      <c r="BF22">
-        <v>1.7728900000000001</v>
-      </c>
-      <c r="BH22">
+      <c r="BM25">
+        <v>7</v>
+      </c>
+      <c r="BN25">
+        <v>0.9374691948281535</v>
+      </c>
+      <c r="BO25">
+        <v>3.435812110388047</v>
+      </c>
+      <c r="BP25">
+        <v>1.92791</v>
+      </c>
+      <c r="BR25">
         <v>3.5115795310554612</v>
       </c>
-      <c r="BJ22" s="13">
-        <v>3</v>
-      </c>
-      <c r="BK22">
+    </row>
+    <row r="26" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f>(T10-T9)/T10</f>
+        <v>9.7504489348369978E-3</v>
+      </c>
+      <c r="D26">
+        <f>(AC10-AC9)/AC10</f>
+        <v>1.2852928851536664E-2</v>
+      </c>
+      <c r="E26">
+        <f>(AL10-AL9)/AL10</f>
+        <v>1.4997704246726501E-2</v>
+      </c>
+      <c r="F26">
+        <f>(AU10-AU9)/AU10</f>
+        <v>2.3023925946269997E-2</v>
+      </c>
+      <c r="G26">
+        <f>(BD10-BD9)/BD10</f>
+        <v>2.3277044875244048E-2</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>7</v>
+      </c>
+      <c r="R26">
         <v>14000</v>
       </c>
-      <c r="BL22">
-        <v>4</v>
-      </c>
-      <c r="BM22">
-        <v>0.77038404586706954</v>
-      </c>
-      <c r="BN22">
-        <v>2.5591792553127179</v>
-      </c>
-      <c r="BO22">
-        <v>1.18492</v>
-      </c>
-      <c r="BQ22">
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>0.88204496421113954</v>
+      </c>
+      <c r="U26">
+        <v>2.5900911679914689</v>
+      </c>
+      <c r="V26">
+        <v>1.4773000000000001</v>
+      </c>
+      <c r="X26">
         <v>2.8727214548726101</v>
       </c>
-    </row>
-    <row r="23" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C27" si="17">(E6-E7)/E7</f>
-        <v>1.2553697719539917E-3</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="13"/>
-        <v>-2.8219906800217784E-3</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="14"/>
-        <v>3.2751722261865736E-3</v>
-      </c>
-      <c r="F23" s="7">
-        <f>(AM6-AM7)/AM7</f>
-        <v>2.9653127752681885E-3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>9.7996902403431237E-3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="15"/>
-        <v>1.3649289333831764E-3</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>-5.0952105195325526E-3</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="4"/>
-        <v>1.2731287179369934E-3</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="5"/>
-        <v>-5.8982709138992355E-3</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="6"/>
-        <v>-1.0375606843394333E-2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="16"/>
-        <v>-2.788535054287773E-3</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="8"/>
-        <v>4.9151504423963835E-2</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="9"/>
-        <v>3.0016184734596496E-2</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="10"/>
-        <v>5.3218237177546097E-2</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="11"/>
-        <v>3.899768779105587E-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="12"/>
-        <v>7.4313676922907565E-2</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>4</v>
-      </c>
-      <c r="AJ23">
+      <c r="AA26" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB26">
+        <v>25000</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>0.51969332790896883</v>
+      </c>
+      <c r="AE26">
+        <v>2.8618594153307289</v>
+      </c>
+      <c r="AF26">
+        <v>1.6208450000000001</v>
+      </c>
+      <c r="AH26">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>7</v>
+      </c>
+      <c r="AK26">
+        <v>22500</v>
+      </c>
+      <c r="AL26">
+        <v>8</v>
+      </c>
+      <c r="AM26">
+        <v>0.63114500185174216</v>
+      </c>
+      <c r="AN26">
+        <v>4.2209504061763301</v>
+      </c>
+      <c r="AO26">
+        <v>3.2835000000000001</v>
+      </c>
+      <c r="AQ26">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT26">
         <v>14000</v>
       </c>
-      <c r="AK23">
-        <v>5</v>
-      </c>
-      <c r="AL23">
-        <v>0.5226406867094312</v>
-      </c>
-      <c r="AM23">
-        <v>2.0645340164466468</v>
-      </c>
-      <c r="AN23">
-        <v>1.6956</v>
-      </c>
-      <c r="AP23">
+      <c r="AU26">
+        <v>8</v>
+      </c>
+      <c r="AV26">
+        <v>0.56412695093570242</v>
+      </c>
+      <c r="AW26">
+        <v>2.0598441956963049</v>
+      </c>
+      <c r="AX26">
+        <v>1.83718</v>
+      </c>
+      <c r="AZ26">
         <v>2.1509747809021862</v>
       </c>
-      <c r="AR23" s="13">
-        <v>4</v>
-      </c>
-      <c r="AS23">
+      <c r="BB26" s="13">
+        <v>7</v>
+      </c>
+      <c r="BC26">
         <v>14000</v>
       </c>
-      <c r="AT23">
-        <v>5</v>
-      </c>
-      <c r="AU23">
-        <v>5.8026462298956548E-2</v>
-      </c>
-      <c r="AV23">
-        <v>0.94669754483363777</v>
-      </c>
-      <c r="AW23">
-        <v>0.60322200000000004</v>
-      </c>
-      <c r="AY23">
+      <c r="BD26">
+        <v>8</v>
+      </c>
+      <c r="BE26">
+        <v>5.8340214444982483E-2</v>
+      </c>
+      <c r="BF26">
+        <v>0.95199686436600617</v>
+      </c>
+      <c r="BG26">
+        <v>0.62135200000000002</v>
+      </c>
+      <c r="BI26">
         <v>0.83028189799088314</v>
       </c>
-      <c r="BA23" s="13">
-        <v>4</v>
-      </c>
-      <c r="BB23">
+      <c r="BK26" s="13">
+        <v>7</v>
+      </c>
+      <c r="BL26">
         <v>20000</v>
       </c>
-      <c r="BC23">
-        <v>5</v>
-      </c>
-      <c r="BD23">
-        <v>0.92721678724985468</v>
-      </c>
-      <c r="BE23">
-        <v>3.4175163136841169</v>
-      </c>
-      <c r="BF23">
-        <v>1.8817900000000001</v>
-      </c>
-      <c r="BH23">
+      <c r="BM26">
+        <v>8</v>
+      </c>
+      <c r="BN26">
+        <v>0.94016820150631564</v>
+      </c>
+      <c r="BO26">
+        <v>3.4360417969815131</v>
+      </c>
+      <c r="BP26">
+        <v>1.9418500000000001</v>
+      </c>
+      <c r="BR26">
         <v>3.5115795310554612</v>
       </c>
-      <c r="BJ23" s="13">
-        <v>4</v>
-      </c>
-      <c r="BK23">
+    </row>
+    <row r="27" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f>(T11-T10)/T11</f>
+        <v>4.4282359502808418E-3</v>
+      </c>
+      <c r="D27">
+        <f>(AC11-AC10)/AC11</f>
+        <v>5.0659100638200602E-3</v>
+      </c>
+      <c r="E27">
+        <f>(AL11-AL10)/AL11</f>
+        <v>7.6460337820037638E-3</v>
+      </c>
+      <c r="F27">
+        <f>(AU11-AU10)/AU11</f>
+        <v>5.7068466060010122E-3</v>
+      </c>
+      <c r="G27">
+        <f>(BD11-BD10)/BD11</f>
+        <v>1.6803715234263625E-3</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>8</v>
+      </c>
+      <c r="R27">
         <v>14000</v>
       </c>
-      <c r="BL23">
-        <v>5</v>
-      </c>
-      <c r="BM23">
-        <v>0.82107294059146763</v>
-      </c>
-      <c r="BN23">
-        <v>2.5663355720163512</v>
-      </c>
-      <c r="BO23">
-        <v>1.34022</v>
-      </c>
-      <c r="BQ23">
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>0.88341321807603823</v>
+      </c>
+      <c r="U27">
+        <v>2.5894436124963609</v>
+      </c>
+      <c r="V27">
+        <v>1.4813480000000001</v>
+      </c>
+      <c r="X27">
         <v>2.8727214548726101</v>
       </c>
-    </row>
-    <row r="24" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="17"/>
-        <v>5.5331216924087842E-3</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="13"/>
-        <v>-6.4551222529511492E-4</v>
-      </c>
-      <c r="E24">
-        <f>(AD7-AD8)/AD8</f>
-        <v>2.5626877884473687E-3</v>
-      </c>
-      <c r="F24">
+      <c r="AA27" s="13">
+        <v>8</v>
+      </c>
+      <c r="AB27">
+        <v>25000</v>
+      </c>
+      <c r="AC27">
+        <v>9</v>
+      </c>
+      <c r="AD27">
+        <v>0.52078218128686538</v>
+      </c>
+      <c r="AE27">
+        <v>2.8626624943766159</v>
+      </c>
+      <c r="AF27">
+        <v>1.629678</v>
+      </c>
+      <c r="AH27">
+        <v>3.226396680182666</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>8</v>
+      </c>
+      <c r="AK27">
+        <v>22500</v>
+      </c>
+      <c r="AL27">
+        <v>9</v>
+      </c>
+      <c r="AM27">
+        <v>0.63329750718907252</v>
+      </c>
+      <c r="AN27">
+        <v>4.2253186197428194</v>
+      </c>
+      <c r="AO27">
+        <v>3.30043</v>
+      </c>
+      <c r="AQ27">
+        <v>4.0476445154746212</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>8</v>
+      </c>
+      <c r="AT27">
+        <v>14000</v>
+      </c>
+      <c r="AU27">
+        <v>9</v>
+      </c>
+      <c r="AV27">
+        <v>0.56534309497970381</v>
+      </c>
+      <c r="AW27">
+        <v>2.0622671594319701</v>
+      </c>
+      <c r="AX27">
+        <v>1.8484799999999999</v>
+      </c>
+      <c r="AZ27">
+        <v>2.1509747809021862</v>
+      </c>
+      <c r="BB27" s="13">
+        <v>8</v>
+      </c>
+      <c r="BC27">
+        <v>14000</v>
+      </c>
+      <c r="BD27">
+        <v>9</v>
+      </c>
+      <c r="BE27">
+        <v>5.8349278038534548E-2</v>
+      </c>
+      <c r="BF27">
+        <v>0.9520897769678992</v>
+      </c>
+      <c r="BG27">
+        <v>0.62194400000000005</v>
+      </c>
+      <c r="BI27">
+        <v>0.83028189799088314</v>
+      </c>
+      <c r="BK27" s="13">
+        <v>8</v>
+      </c>
+      <c r="BL27">
+        <v>20000</v>
+      </c>
+      <c r="BM27">
+        <v>9</v>
+      </c>
+      <c r="BN27">
+        <v>0.94065254115938446</v>
+      </c>
+      <c r="BO27">
+        <v>3.4367920711214688</v>
+      </c>
+      <c r="BP27">
+        <v>1.9454979999999999</v>
+      </c>
+      <c r="BR27">
+        <v>3.5115795310554612</v>
+      </c>
+    </row>
+    <row r="28" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
         <f t="shared" si="1"/>
-        <v>-6.7162047908040149E-4</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>-3.2183711518570545E-3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="15"/>
-        <v>2.8123563066437401E-3</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>-6.5248999949499781E-3</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="4"/>
-        <v>5.8531846459644226E-3</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="5"/>
-        <v>-4.5928708789333399E-3</v>
-      </c>
-      <c r="L24" s="7">
-        <f t="shared" si="6"/>
-        <v>-4.2272768298144952E-3</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="16"/>
-        <v>-4.069121662935795E-3</v>
-      </c>
-      <c r="R24" s="6">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="8"/>
-        <v>4.2686815096649983E-2</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="9"/>
-        <v>4.4278249967540102E-2</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="10"/>
-        <v>3.9822575755710674E-2</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="11"/>
-        <v>1.8254949408081911E-2</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="12"/>
-        <v>2.620127547567833E-2</v>
-      </c>
-      <c r="AI24" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ24">
-        <v>14000</v>
-      </c>
-      <c r="AK24">
-        <v>6</v>
-      </c>
-      <c r="AL24">
-        <v>0.55026160561707127</v>
-      </c>
-      <c r="AM24">
-        <v>2.0525202365127591</v>
-      </c>
-      <c r="AN24">
-        <v>1.7874000000000001</v>
-      </c>
-      <c r="AP24">
-        <v>2.1509747809021862</v>
-      </c>
-      <c r="AR24" s="13">
-        <v>5</v>
-      </c>
-      <c r="AS24">
-        <v>14000</v>
-      </c>
-      <c r="AT24">
-        <v>6</v>
-      </c>
-      <c r="AU24">
-        <v>5.8289543283584197E-2</v>
-      </c>
-      <c r="AV24">
-        <v>0.95106566663789227</v>
-      </c>
-      <c r="AW24">
-        <v>0.61840200000000001</v>
-      </c>
-      <c r="AY24">
-        <v>0.83028189799088314</v>
-      </c>
-      <c r="BA24" s="13">
-        <v>5</v>
-      </c>
-      <c r="BB24">
-        <v>20000</v>
-      </c>
-      <c r="BC24">
-        <v>6</v>
-      </c>
-      <c r="BD24">
-        <v>0.93248005872858164</v>
-      </c>
-      <c r="BE24">
-        <v>3.432024431040813</v>
-      </c>
-      <c r="BF24">
-        <v>1.90463</v>
-      </c>
-      <c r="BH24">
-        <v>3.5115795310554612</v>
-      </c>
-      <c r="BJ24" s="13">
-        <v>5</v>
-      </c>
-      <c r="BK24">
-        <v>14000</v>
-      </c>
-      <c r="BL24">
-        <v>6</v>
-      </c>
-      <c r="BM24">
-        <v>0.86572863487878382</v>
-      </c>
-      <c r="BN24">
-        <v>2.576820970047077</v>
-      </c>
-      <c r="BO24">
-        <v>1.4347799999999999</v>
-      </c>
-      <c r="BQ24">
-        <v>2.8727214548726101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="17"/>
-        <v>1.0474507201882914E-2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="13"/>
-        <v>1.8539505663454855E-3</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="14"/>
-        <v>7.6313763388460958E-3</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>9.4979036997668638E-4</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>-2.941055980213555E-3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="15"/>
-        <v>5.9029683520749106E-3</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>-2.8802283448994292E-3</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="4"/>
-        <v>-2.1010210922667262E-3</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="5"/>
-        <v>-7.3300212300288323E-4</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="6"/>
-        <v>-1.1024116644161371E-3</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="16"/>
-        <v>-4.0286664007317804E-3</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="8"/>
-        <v>4.4785647777125841E-2</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="9"/>
-        <v>3.4152860871484746E-2</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="10"/>
-        <v>3.8026372244194445E-2</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="11"/>
-        <v>2.5035106576661761E-2</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="12"/>
-        <v>1.0543091480369964E-2</v>
-      </c>
-      <c r="AI25" s="13">
-        <v>6</v>
-      </c>
-      <c r="AJ25">
-        <v>14000</v>
-      </c>
-      <c r="AK25">
-        <v>7</v>
-      </c>
-      <c r="AL25">
-        <v>0.55904622855672681</v>
-      </c>
-      <c r="AM25">
-        <v>2.0568417043169829</v>
-      </c>
-      <c r="AN25">
-        <v>1.8151299999999999</v>
-      </c>
-      <c r="AP25">
-        <v>2.1509747809021862</v>
-      </c>
-      <c r="AR25" s="13">
-        <v>6</v>
-      </c>
-      <c r="AS25">
-        <v>14000</v>
-      </c>
-      <c r="AT25">
-        <v>7</v>
-      </c>
-      <c r="AU25">
-        <v>5.8329351121850267E-2</v>
-      </c>
-      <c r="AV25">
-        <v>0.95176331116557289</v>
-      </c>
-      <c r="AW25">
-        <v>0.62057600000000002</v>
-      </c>
-      <c r="AY25">
-        <v>0.83028189799088314</v>
-      </c>
-      <c r="BA25" s="13">
-        <v>6</v>
-      </c>
-      <c r="BB25">
-        <v>20000</v>
-      </c>
-      <c r="BC25">
-        <v>7</v>
-      </c>
-      <c r="BD25">
-        <v>0.9374691948281535</v>
-      </c>
-      <c r="BE25">
-        <v>3.435812110388047</v>
-      </c>
-      <c r="BF25">
-        <v>1.92791</v>
-      </c>
-      <c r="BH25">
-        <v>3.5115795310554612</v>
-      </c>
-      <c r="BJ25" s="13">
-        <v>6</v>
-      </c>
-      <c r="BK25">
-        <v>14000</v>
-      </c>
-      <c r="BL25">
-        <v>7</v>
-      </c>
-      <c r="BM25">
-        <v>0.87912773793855647</v>
-      </c>
-      <c r="BN25">
-        <v>2.587244113477535</v>
-      </c>
-      <c r="BO25">
-        <v>1.46536</v>
-      </c>
-      <c r="BQ25">
-        <v>2.8727214548726101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="17"/>
-        <v>2.0720710504481175E-3</v>
-      </c>
-      <c r="D26">
-        <f>(U9-U10)/U10</f>
-        <v>7.8479949475812312E-4</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="14"/>
-        <v>2.32010104704502E-3</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>8.9754327792379205E-4</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1.4184803600365327E-3</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="15"/>
-        <v>6.0434279115222837E-4</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>-1.7378265026935181E-3</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.4576303322335088E-3</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="5"/>
-        <v>-2.4532980010266746E-4</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="6"/>
-        <v>-6.6846274590690629E-5</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="16"/>
-        <v>-1.0992101548848775E-3</v>
-      </c>
-      <c r="R26" s="6">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="8"/>
-        <v>9.7504489348369978E-3</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="9"/>
-        <v>1.2852928851536664E-2</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="10"/>
-        <v>1.4997704246726501E-2</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="11"/>
-        <v>2.3023925946269997E-2</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="12"/>
-        <v>2.3277044875244048E-2</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>7</v>
-      </c>
-      <c r="AJ26">
-        <v>14000</v>
-      </c>
-      <c r="AK26">
-        <v>8</v>
-      </c>
-      <c r="AL26">
-        <v>0.56412695093570242</v>
-      </c>
-      <c r="AM26">
-        <v>2.0598441956963049</v>
-      </c>
-      <c r="AN26">
-        <v>1.83718</v>
-      </c>
-      <c r="AP26">
-        <v>2.1509747809021862</v>
-      </c>
-      <c r="AR26" s="13">
-        <v>7</v>
-      </c>
-      <c r="AS26">
-        <v>14000</v>
-      </c>
-      <c r="AT26">
-        <v>8</v>
-      </c>
-      <c r="AU26">
-        <v>5.8340214444982483E-2</v>
-      </c>
-      <c r="AV26">
-        <v>0.95199686436600617</v>
-      </c>
-      <c r="AW26">
-        <v>0.62135200000000002</v>
-      </c>
-      <c r="AY26">
-        <v>0.83028189799088314</v>
-      </c>
-      <c r="BA26" s="13">
-        <v>7</v>
-      </c>
-      <c r="BB26">
-        <v>20000</v>
-      </c>
-      <c r="BC26">
-        <v>8</v>
-      </c>
-      <c r="BD26">
-        <v>0.94016820150631564</v>
-      </c>
-      <c r="BE26">
-        <v>3.4360417969815131</v>
-      </c>
-      <c r="BF26">
-        <v>1.9418500000000001</v>
-      </c>
-      <c r="BH26">
-        <v>3.5115795310554612</v>
-      </c>
-      <c r="BJ26" s="13">
-        <v>7</v>
-      </c>
-      <c r="BK26">
-        <v>14000</v>
-      </c>
-      <c r="BL26">
-        <v>8</v>
-      </c>
-      <c r="BM26">
-        <v>0.88204496421113954</v>
-      </c>
-      <c r="BN26">
-        <v>2.5900911679914689</v>
-      </c>
-      <c r="BO26">
-        <v>1.4773000000000001</v>
-      </c>
-      <c r="BQ26">
-        <v>2.8727214548726101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="17"/>
-        <v>1.0028820484149271E-3</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="13"/>
-        <v>3.1752462770683504E-4</v>
-      </c>
-      <c r="E27">
-        <f>(AD10-AD11)/AD11</f>
-        <v>1.2805209029584394E-3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>2.3504862324669041E-4</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>-5.9897149380518581E-5</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="15"/>
-        <v>-2.8053570669424576E-4</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>-1.0338187387996761E-3</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.1749029336880754E-3</v>
-      </c>
-      <c r="K27" s="7">
-        <f t="shared" si="5"/>
-        <v>-9.7588067995995947E-5</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="6"/>
-        <v>-2.1830652667643912E-4</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="16"/>
-        <v>2.5007514818355076E-4</v>
-      </c>
-      <c r="R27" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="8"/>
-        <v>4.4282359502808418E-3</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="9"/>
-        <v>5.0659100638200602E-3</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="10"/>
-        <v>7.6460337820037638E-3</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="11"/>
-        <v>5.7068466060010122E-3</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="12"/>
-        <v>1.6803715234263625E-3</v>
-      </c>
-      <c r="AI27" s="13">
-        <v>8</v>
-      </c>
-      <c r="AJ27">
-        <v>14000</v>
-      </c>
-      <c r="AK27">
-        <v>9</v>
-      </c>
-      <c r="AL27">
-        <v>0.56534309497970381</v>
-      </c>
-      <c r="AM27">
-        <v>2.0622671594319701</v>
-      </c>
-      <c r="AN27">
-        <v>1.8484799999999999</v>
-      </c>
-      <c r="AP27">
-        <v>2.1509747809021862</v>
-      </c>
-      <c r="AR27" s="13">
-        <v>8</v>
-      </c>
-      <c r="AS27">
-        <v>14000</v>
-      </c>
-      <c r="AT27">
-        <v>9</v>
-      </c>
-      <c r="AU27">
-        <v>5.8349278038534548E-2</v>
-      </c>
-      <c r="AV27">
-        <v>0.9520897769678992</v>
-      </c>
-      <c r="AW27">
-        <v>0.62194400000000005</v>
-      </c>
-      <c r="AY27">
-        <v>0.83028189799088314</v>
-      </c>
-      <c r="BA27" s="13">
-        <v>8</v>
-      </c>
-      <c r="BB27">
-        <v>20000</v>
-      </c>
-      <c r="BC27">
-        <v>9</v>
-      </c>
-      <c r="BD27">
-        <v>0.94065254115938446</v>
-      </c>
-      <c r="BE27">
-        <v>3.4367920711214688</v>
-      </c>
-      <c r="BF27">
-        <v>1.9454979999999999</v>
-      </c>
-      <c r="BH27">
-        <v>3.5115795310554612</v>
-      </c>
-      <c r="BJ27" s="13">
-        <v>8</v>
-      </c>
-      <c r="BK27">
-        <v>14000</v>
-      </c>
-      <c r="BL27">
-        <v>9</v>
-      </c>
-      <c r="BM27">
-        <v>0.88341321807603823</v>
-      </c>
-      <c r="BN27">
-        <v>2.5894436124963609</v>
-      </c>
-      <c r="BO27">
-        <v>1.4813480000000001</v>
-      </c>
-      <c r="BQ27">
-        <v>2.8727214548726101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R28" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="T28" t="e">
-        <f t="shared" si="9"/>
+      <c r="D28" t="e">
+        <f>(AC12-AC11)/AC12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>B28+1</f>
         <v>11</v>
       </c>
-      <c r="R29" s="6">
-        <f>R28+1</f>
-        <v>11</v>
-      </c>
-      <c r="T29" t="e">
-        <f t="shared" si="9"/>
+      <c r="D29" t="e">
+        <f>(AC13-AC12)/AC13</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:69" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3764,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850AAEF0-F5D9-4E3E-9FDD-356EECB18730}">
   <dimension ref="A2:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3775,78 +3773,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="T2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="15" t="s">
+      <c r="V2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>0</v>
       </c>
       <c r="B3">
@@ -3867,7 +3868,7 @@
       <c r="H3">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>0</v>
       </c>
       <c r="K3">
@@ -3888,7 +3889,7 @@
       <c r="Q3">
         <v>2.984007837949191</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="13">
         <v>0</v>
       </c>
       <c r="U3">
@@ -3911,7 +3912,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4">
@@ -3932,7 +3933,7 @@
       <c r="H4">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>1</v>
       </c>
       <c r="K4">
@@ -3953,7 +3954,7 @@
       <c r="Q4">
         <v>2.984007837949191</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="13">
         <v>1</v>
       </c>
       <c r="U4">
@@ -3976,7 +3977,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5">
@@ -3997,7 +3998,7 @@
       <c r="H5">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <v>2</v>
       </c>
       <c r="K5">
@@ -4018,7 +4019,7 @@
       <c r="Q5">
         <v>2.984007837949191</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="13">
         <v>2</v>
       </c>
       <c r="U5">
@@ -4041,7 +4042,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6">
@@ -4062,7 +4063,7 @@
       <c r="H6">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>3</v>
       </c>
       <c r="K6">
@@ -4083,7 +4084,7 @@
       <c r="Q6">
         <v>2.984007837949191</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="13">
         <v>3</v>
       </c>
       <c r="U6">
@@ -4106,7 +4107,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7">
@@ -4127,7 +4128,7 @@
       <c r="H7">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>4</v>
       </c>
       <c r="K7">
@@ -4148,7 +4149,7 @@
       <c r="Q7">
         <v>2.984007837949191</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="13">
         <v>4</v>
       </c>
       <c r="U7">
@@ -4171,7 +4172,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8">
@@ -4192,7 +4193,7 @@
       <c r="H8">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>5</v>
       </c>
       <c r="K8">
@@ -4213,7 +4214,7 @@
       <c r="Q8">
         <v>2.984007837949191</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="13">
         <v>5</v>
       </c>
       <c r="U8">
@@ -4236,7 +4237,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9">
@@ -4257,7 +4258,7 @@
       <c r="H9">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <v>6</v>
       </c>
       <c r="K9">
@@ -4278,7 +4279,7 @@
       <c r="Q9">
         <v>2.984007837949191</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="13">
         <v>6</v>
       </c>
       <c r="U9">
@@ -4301,7 +4302,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10">
@@ -4322,7 +4323,7 @@
       <c r="H10">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>7</v>
       </c>
       <c r="K10">
@@ -4343,7 +4344,7 @@
       <c r="Q10">
         <v>2.984007837949191</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="13">
         <v>7</v>
       </c>
       <c r="U10">
@@ -4366,7 +4367,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11">
@@ -4387,7 +4388,7 @@
       <c r="H11">
         <v>2.8989986010284099</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>8</v>
       </c>
       <c r="K11">
@@ -4408,7 +4409,7 @@
       <c r="Q11">
         <v>2.984007837949191</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="13">
         <v>8</v>
       </c>
       <c r="U11">
@@ -4442,10 +4443,10 @@
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="7"/>
